--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testdisk-7.2-WIP.win64\testdisk-7.2-WIP\backup\old_notebook\old_notebook\Desktop\RestoreFirstInstallationT580\anderScore\GitLab-Training\gitlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E269458C-1403-47E7-AF19-ED02C154C601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0A134E-1DAC-4C03-8177-192F5B1828C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -172,9 +172,6 @@
     <t>SL</t>
   </si>
   <si>
-    <t>JCON</t>
-  </si>
-  <si>
     <t>DEADLINE: Erste GitLab Schulung</t>
   </si>
   <si>
@@ -208,9 +205,6 @@
     <t>Nacharbeiten Schulung + tägl. Review / Puffer</t>
   </si>
   <si>
-    <t>SL = SwissLife, K = Krank, U = Urlaub, B = BigBlueButton, T = Talanx, JCON = JCON</t>
-  </si>
-  <si>
     <t>GitLab: Git-Workflows &amp; GitOps</t>
   </si>
   <si>
@@ -230,6 +224,12 @@
   </si>
   <si>
     <t>CDB = CDB</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>SL = SwissLife, K = Krank, U = Urlaub, B = BigBlueButton, T = Talanx, J = JCON</t>
   </si>
 </sst>
 </file>
@@ -1251,19 +1251,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1276,17 +1279,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1867,8 +1867,8 @@
   </sheetPr>
   <dimension ref="A1:BN39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:O1"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1887,36 +1887,36 @@
     <row r="1" spans="1:65" ht="90" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A1" s="8"/>
       <c r="B1" s="86" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="13"/>
       <c r="E1" s="14"/>
       <c r="F1" s="15"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="125" t="s">
+      <c r="I1" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
       <c r="P1" s="18"/>
-      <c r="Q1" s="123">
+      <c r="Q1" s="124">
         <f ca="1">TODAY()</f>
-        <v>43960</v>
-      </c>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="124"/>
-      <c r="X1" s="124"/>
-      <c r="Y1" s="124"/>
-      <c r="Z1" s="124"/>
+        <v>43963</v>
+      </c>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125"/>
     </row>
     <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="87" t="s">
@@ -1926,28 +1926,28 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
-      <c r="I2" s="125" t="s">
+      <c r="I2" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
       <c r="P2" s="18"/>
-      <c r="Q2" s="121">
-        <v>1</v>
-      </c>
-      <c r="R2" s="122"/>
-      <c r="S2" s="122"/>
-      <c r="T2" s="122"/>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="122"/>
+      <c r="Q2" s="122">
+        <v>0</v>
+      </c>
+      <c r="R2" s="123"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="123"/>
+      <c r="V2" s="123"/>
+      <c r="W2" s="123"/>
+      <c r="X2" s="123"/>
+      <c r="Y2" s="123"/>
+      <c r="Z2" s="123"/>
     </row>
     <row r="3" spans="1:65" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -1959,102 +1959,102 @@
       <c r="A4" s="8"/>
       <c r="B4" s="23"/>
       <c r="E4" s="24"/>
-      <c r="I4" s="118">
+      <c r="I4" s="130">
         <f ca="1">I5</f>
         <v>43956</v>
       </c>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116">
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128">
         <f ca="1">P5</f>
         <v>43963</v>
       </c>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116">
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128">
         <f ca="1">W5</f>
         <v>43970</v>
       </c>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="116"/>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="116">
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="128">
         <f ca="1">AD5</f>
         <v>43977</v>
       </c>
-      <c r="AE4" s="116"/>
-      <c r="AF4" s="116"/>
-      <c r="AG4" s="116"/>
-      <c r="AH4" s="116"/>
-      <c r="AI4" s="116"/>
-      <c r="AJ4" s="116"/>
-      <c r="AK4" s="116">
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="128"/>
+      <c r="AG4" s="128"/>
+      <c r="AH4" s="128"/>
+      <c r="AI4" s="128"/>
+      <c r="AJ4" s="128"/>
+      <c r="AK4" s="128">
         <f ca="1">AK5</f>
         <v>43984</v>
       </c>
-      <c r="AL4" s="116"/>
-      <c r="AM4" s="116"/>
-      <c r="AN4" s="116"/>
-      <c r="AO4" s="116"/>
-      <c r="AP4" s="116"/>
-      <c r="AQ4" s="116"/>
-      <c r="AR4" s="116">
+      <c r="AL4" s="128"/>
+      <c r="AM4" s="128"/>
+      <c r="AN4" s="128"/>
+      <c r="AO4" s="128"/>
+      <c r="AP4" s="128"/>
+      <c r="AQ4" s="128"/>
+      <c r="AR4" s="128">
         <f ca="1">AR5</f>
         <v>43991</v>
       </c>
-      <c r="AS4" s="116"/>
-      <c r="AT4" s="116"/>
-      <c r="AU4" s="116"/>
-      <c r="AV4" s="116"/>
-      <c r="AW4" s="116"/>
-      <c r="AX4" s="116"/>
-      <c r="AY4" s="116">
+      <c r="AS4" s="128"/>
+      <c r="AT4" s="128"/>
+      <c r="AU4" s="128"/>
+      <c r="AV4" s="128"/>
+      <c r="AW4" s="128"/>
+      <c r="AX4" s="128"/>
+      <c r="AY4" s="128">
         <f ca="1">AY5</f>
         <v>43998</v>
       </c>
-      <c r="AZ4" s="116"/>
-      <c r="BA4" s="116"/>
-      <c r="BB4" s="116"/>
-      <c r="BC4" s="116"/>
-      <c r="BD4" s="116"/>
-      <c r="BE4" s="116"/>
-      <c r="BF4" s="116">
+      <c r="AZ4" s="128"/>
+      <c r="BA4" s="128"/>
+      <c r="BB4" s="128"/>
+      <c r="BC4" s="128"/>
+      <c r="BD4" s="128"/>
+      <c r="BE4" s="128"/>
+      <c r="BF4" s="128">
         <f ca="1">BF5</f>
         <v>44005</v>
       </c>
-      <c r="BG4" s="116"/>
-      <c r="BH4" s="116"/>
-      <c r="BI4" s="116"/>
-      <c r="BJ4" s="116"/>
-      <c r="BK4" s="116"/>
-      <c r="BL4" s="117"/>
+      <c r="BG4" s="128"/>
+      <c r="BH4" s="128"/>
+      <c r="BI4" s="128"/>
+      <c r="BJ4" s="128"/>
+      <c r="BK4" s="128"/>
+      <c r="BL4" s="129"/>
     </row>
     <row r="5" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="127"/>
-      <c r="B5" s="128" t="s">
+      <c r="A5" s="116"/>
+      <c r="B5" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="119" t="s">
+      <c r="E5" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="119" t="s">
+      <c r="F5" s="121" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="25">
@@ -2283,8 +2283,8 @@
       </c>
     </row>
     <row r="6" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="127"/>
-      <c r="B6" s="129"/>
+      <c r="A6" s="116"/>
+      <c r="B6" s="118"/>
       <c r="C6" s="120"/>
       <c r="D6" s="120"/>
       <c r="E6" s="120"/>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="BL8" s="39"/>
       <c r="BM8" s="40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:65" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2720,7 +2720,7 @@
       <c r="X9" s="94"/>
       <c r="Y9" s="44"/>
       <c r="Z9" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA9" s="93"/>
       <c r="AB9" s="96"/>
@@ -2784,7 +2784,7 @@
         <v>4</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J10" s="44"/>
       <c r="K10" s="93"/>
@@ -2845,24 +2845,24 @@
     <row r="11" spans="1:65" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="46" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="47">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E11" s="89">
         <v>43963</v>
       </c>
       <c r="F11" s="89">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
@@ -2872,7 +2872,7 @@
       <c r="N11" s="96"/>
       <c r="O11" s="96"/>
       <c r="P11" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="44"/>
       <c r="R11" s="44"/>
@@ -2926,7 +2926,7 @@
     <row r="12" spans="1:65" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="46" t="s">
         <v>20</v>
@@ -2961,7 +2961,7 @@
       <c r="V12" s="96"/>
       <c r="W12" s="96"/>
       <c r="X12" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Y12" s="48"/>
       <c r="Z12" s="44"/>
@@ -3043,7 +3043,7 @@
       <c r="W13" s="96"/>
       <c r="X13" s="94"/>
       <c r="Y13" s="44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z13" s="44"/>
       <c r="AA13" s="93"/>
@@ -3158,7 +3158,7 @@
       <c r="W15" s="96"/>
       <c r="X15" s="94"/>
       <c r="Y15" s="44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z15" s="44"/>
       <c r="AA15" s="93"/>
@@ -3212,10 +3212,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="90">
-        <v>43973</v>
+        <v>43977</v>
       </c>
       <c r="F16" s="90">
-        <v>43973</v>
+        <v>43977</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="5">
@@ -3239,13 +3239,13 @@
       <c r="W16" s="96"/>
       <c r="X16" s="94"/>
       <c r="Y16" s="44"/>
-      <c r="Z16" s="44" t="s">
-        <v>51</v>
-      </c>
+      <c r="Z16" s="44"/>
       <c r="AA16" s="93"/>
       <c r="AB16" s="96"/>
       <c r="AC16" s="96"/>
-      <c r="AD16" s="94"/>
+      <c r="AD16" s="94" t="s">
+        <v>50</v>
+      </c>
       <c r="AE16" s="44"/>
       <c r="AF16" s="93"/>
       <c r="AG16" s="96"/>
@@ -3287,7 +3287,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" s="56">
         <v>0</v>
@@ -3313,7 +3313,7 @@
       <c r="P17" s="94"/>
       <c r="Q17" s="44"/>
       <c r="R17" s="44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S17" s="44"/>
       <c r="T17" s="93"/>
@@ -3368,7 +3368,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" s="56">
         <v>0</v>
@@ -3401,7 +3401,7 @@
       <c r="W18" s="96"/>
       <c r="X18" s="94"/>
       <c r="Y18" s="48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Z18" s="44"/>
       <c r="AA18" s="93"/>
@@ -3449,7 +3449,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="56">
         <v>0</v>
@@ -3483,7 +3483,7 @@
       <c r="X19" s="94"/>
       <c r="Y19" s="44"/>
       <c r="Z19" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA19" s="93"/>
       <c r="AB19" s="96"/>
@@ -3639,7 +3639,7 @@
       <c r="AB21" s="96"/>
       <c r="AC21" s="96"/>
       <c r="AD21" s="94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE21" s="44"/>
       <c r="AF21" s="93"/>
@@ -3682,7 +3682,7 @@
         <v>27</v>
       </c>
       <c r="C22" s="64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="65">
         <v>0</v>
@@ -3720,7 +3720,7 @@
       <c r="AB22" s="96"/>
       <c r="AC22" s="96"/>
       <c r="AD22" s="94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AE22" s="44"/>
       <c r="AF22" s="93"/>
@@ -3763,7 +3763,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="65">
         <v>0</v>
@@ -3802,7 +3802,7 @@
       <c r="AC23" s="96"/>
       <c r="AD23" s="94"/>
       <c r="AE23" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF23" s="93"/>
       <c r="AG23" s="96"/>
@@ -3889,7 +3889,7 @@
       <c r="AI24" s="96"/>
       <c r="AJ24" s="96"/>
       <c r="AK24" s="94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL24" s="44"/>
       <c r="AM24" s="44"/>
@@ -3925,7 +3925,7 @@
         <v>31</v>
       </c>
       <c r="C25" s="64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="65">
         <v>0</v>
@@ -3970,7 +3970,7 @@
       <c r="AI25" s="96"/>
       <c r="AJ25" s="96"/>
       <c r="AK25" s="94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AL25" s="44"/>
       <c r="AM25" s="44"/>
@@ -4074,7 +4074,7 @@
     <row r="27" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="73"/>
       <c r="D27" s="74"/>
@@ -4224,7 +4224,7 @@
     <row r="29" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="73"/>
       <c r="D29" s="74"/>
@@ -4299,7 +4299,7 @@
     <row r="30" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="73" t="s">
         <v>33</v>
@@ -4399,9 +4399,11 @@
         <v>41</v>
       </c>
       <c r="Q31" s="106" t="s">
-        <v>42</v>
-      </c>
-      <c r="R31" s="106"/>
+        <v>60</v>
+      </c>
+      <c r="R31" s="106" t="s">
+        <v>60</v>
+      </c>
       <c r="S31" s="106" t="s">
         <v>41</v>
       </c>
@@ -4461,7 +4463,7 @@
       <c r="BK31" s="96"/>
       <c r="BL31" s="96"/>
       <c r="BN31" s="40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4496,10 +4498,10 @@
         <v>40</v>
       </c>
       <c r="S32" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T32" s="106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U32" s="96"/>
       <c r="V32" s="96"/>
@@ -4523,7 +4525,7 @@
       <c r="AF32" s="93"/>
       <c r="AG32" s="96"/>
       <c r="AH32" s="103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI32" s="96"/>
       <c r="AJ32" s="96"/>
@@ -4531,7 +4533,7 @@
       <c r="AL32" s="44"/>
       <c r="AM32" s="44"/>
       <c r="AN32" s="105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO32" s="93"/>
       <c r="AP32" s="96"/>
@@ -4558,7 +4560,7 @@
       <c r="BK32" s="96"/>
       <c r="BL32" s="96"/>
       <c r="BN32" s="40" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4580,27 +4582,31 @@
       <c r="K33" s="93"/>
       <c r="L33" s="96"/>
       <c r="M33" s="103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N33" s="96"/>
       <c r="O33" s="96"/>
       <c r="P33" s="62"/>
-      <c r="Q33" s="106" t="s">
-        <v>42</v>
-      </c>
-      <c r="R33" s="106"/>
-      <c r="S33" s="106"/>
+      <c r="Q33"/>
+      <c r="R33" s="106" t="s">
+        <v>60</v>
+      </c>
+      <c r="S33" s="106" t="s">
+        <v>60</v>
+      </c>
       <c r="T33" s="110" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U33" s="96"/>
       <c r="V33" s="96"/>
       <c r="W33" s="96"/>
       <c r="X33" s="100"/>
       <c r="Y33" s="101"/>
-      <c r="Z33" s="101"/>
+      <c r="Z33" s="108" t="s">
+        <v>43</v>
+      </c>
       <c r="AA33" s="108" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB33" s="96"/>
       <c r="AC33" s="96"/>
@@ -4622,7 +4628,7 @@
       <c r="AM33" s="44"/>
       <c r="AN33" s="44"/>
       <c r="AO33" s="102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AP33" s="96"/>
       <c r="AQ33" s="96"/>
@@ -4648,13 +4654,13 @@
       <c r="BK33" s="96"/>
       <c r="BL33" s="96"/>
       <c r="BN33" s="40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="111" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C34" s="112"/>
       <c r="D34" s="113"/>
@@ -4667,14 +4673,14 @@
       <c r="K34" s="39"/>
       <c r="L34" s="96"/>
       <c r="M34" s="109" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N34" s="96"/>
       <c r="O34" s="96"/>
       <c r="P34" s="95"/>
       <c r="Q34"/>
       <c r="R34" s="115" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S34"/>
       <c r="T34"/>
@@ -4881,16 +4887,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4899,6 +4895,16 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D36">
     <cfRule type="dataBar" priority="23">
@@ -4964,7 +4970,7 @@
       <formula>AND(TODAY()&gt;=S$5, TODAY()&lt;T$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="13">
+  <dataValidations count="13">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="Q2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
@@ -5012,23 +5018,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5344,29 +5339,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5393,9 +5388,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testdisk-7.2-WIP.win64\testdisk-7.2-WIP\backup\old_notebook\old_notebook\Desktop\RestoreFirstInstallationT580\anderScore\GitLab-Training\gitlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0A134E-1DAC-4C03-8177-192F5B1828C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58A394E-4655-4642-9D5F-7F6C1BFD71DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="63">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -190,9 +190,6 @@
     <t>T</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>PUn</t>
   </si>
   <si>
@@ -230,6 +227,12 @@
   </si>
   <si>
     <t>SL = SwissLife, K = Krank, U = Urlaub, B = BigBlueButton, T = Talanx, J = JCON</t>
+  </si>
+  <si>
+    <t>Cke</t>
+  </si>
+  <si>
+    <t>Pun</t>
   </si>
 </sst>
 </file>
@@ -538,7 +541,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -896,6 +899,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -928,7 +940,7 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1251,22 +1263,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1279,14 +1288,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1867,8 +1883,8 @@
   </sheetPr>
   <dimension ref="A1:BN39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AL13" sqref="AL13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1887,36 +1903,35 @@
     <row r="1" spans="1:65" ht="90" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A1" s="8"/>
       <c r="B1" s="86" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="13"/>
       <c r="E1" s="14"/>
       <c r="F1" s="15"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="126" t="s">
+      <c r="I1" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
       <c r="P1" s="18"/>
-      <c r="Q1" s="124">
-        <f ca="1">TODAY()</f>
-        <v>43963</v>
-      </c>
-      <c r="R1" s="125"/>
-      <c r="S1" s="125"/>
-      <c r="T1" s="125"/>
-      <c r="U1" s="125"/>
-      <c r="V1" s="125"/>
-      <c r="W1" s="125"/>
-      <c r="X1" s="125"/>
-      <c r="Y1" s="125"/>
-      <c r="Z1" s="125"/>
+      <c r="Q1" s="123">
+        <v>43956</v>
+      </c>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
+      <c r="T1" s="124"/>
+      <c r="U1" s="124"/>
+      <c r="V1" s="124"/>
+      <c r="W1" s="124"/>
+      <c r="X1" s="124"/>
+      <c r="Y1" s="124"/>
+      <c r="Z1" s="124"/>
     </row>
     <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="87" t="s">
@@ -1926,28 +1941,28 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
-      <c r="I2" s="126" t="s">
+      <c r="I2" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
       <c r="P2" s="18"/>
-      <c r="Q2" s="122">
-        <v>0</v>
-      </c>
-      <c r="R2" s="123"/>
-      <c r="S2" s="123"/>
-      <c r="T2" s="123"/>
-      <c r="U2" s="123"/>
-      <c r="V2" s="123"/>
-      <c r="W2" s="123"/>
-      <c r="X2" s="123"/>
-      <c r="Y2" s="123"/>
-      <c r="Z2" s="123"/>
+      <c r="Q2" s="121">
+        <v>1</v>
+      </c>
+      <c r="R2" s="122"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="122"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
     </row>
     <row r="3" spans="1:65" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -1959,558 +1974,558 @@
       <c r="A4" s="8"/>
       <c r="B4" s="23"/>
       <c r="E4" s="24"/>
-      <c r="I4" s="130">
-        <f ca="1">I5</f>
+      <c r="I4" s="118">
+        <f>I5</f>
         <v>43956</v>
       </c>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128">
-        <f ca="1">P5</f>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116">
+        <f>P5</f>
         <v>43963</v>
       </c>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="128">
-        <f ca="1">W5</f>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116">
+        <f>W5</f>
         <v>43970</v>
       </c>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="128"/>
-      <c r="Z4" s="128"/>
-      <c r="AA4" s="128"/>
-      <c r="AB4" s="128"/>
-      <c r="AC4" s="128"/>
-      <c r="AD4" s="128">
-        <f ca="1">AD5</f>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="116"/>
+      <c r="AC4" s="116"/>
+      <c r="AD4" s="116">
+        <f>AD5</f>
         <v>43977</v>
       </c>
-      <c r="AE4" s="128"/>
-      <c r="AF4" s="128"/>
-      <c r="AG4" s="128"/>
-      <c r="AH4" s="128"/>
-      <c r="AI4" s="128"/>
-      <c r="AJ4" s="128"/>
-      <c r="AK4" s="128">
-        <f ca="1">AK5</f>
+      <c r="AE4" s="116"/>
+      <c r="AF4" s="116"/>
+      <c r="AG4" s="116"/>
+      <c r="AH4" s="116"/>
+      <c r="AI4" s="116"/>
+      <c r="AJ4" s="116"/>
+      <c r="AK4" s="116">
+        <f>AK5</f>
         <v>43984</v>
       </c>
-      <c r="AL4" s="128"/>
-      <c r="AM4" s="128"/>
-      <c r="AN4" s="128"/>
-      <c r="AO4" s="128"/>
-      <c r="AP4" s="128"/>
-      <c r="AQ4" s="128"/>
-      <c r="AR4" s="128">
-        <f ca="1">AR5</f>
+      <c r="AL4" s="116"/>
+      <c r="AM4" s="116"/>
+      <c r="AN4" s="116"/>
+      <c r="AO4" s="116"/>
+      <c r="AP4" s="116"/>
+      <c r="AQ4" s="116"/>
+      <c r="AR4" s="116">
+        <f>AR5</f>
         <v>43991</v>
       </c>
-      <c r="AS4" s="128"/>
-      <c r="AT4" s="128"/>
-      <c r="AU4" s="128"/>
-      <c r="AV4" s="128"/>
-      <c r="AW4" s="128"/>
-      <c r="AX4" s="128"/>
-      <c r="AY4" s="128">
-        <f ca="1">AY5</f>
+      <c r="AS4" s="116"/>
+      <c r="AT4" s="116"/>
+      <c r="AU4" s="116"/>
+      <c r="AV4" s="116"/>
+      <c r="AW4" s="116"/>
+      <c r="AX4" s="116"/>
+      <c r="AY4" s="116">
+        <f>AY5</f>
         <v>43998</v>
       </c>
-      <c r="AZ4" s="128"/>
-      <c r="BA4" s="128"/>
-      <c r="BB4" s="128"/>
-      <c r="BC4" s="128"/>
-      <c r="BD4" s="128"/>
-      <c r="BE4" s="128"/>
-      <c r="BF4" s="128">
-        <f ca="1">BF5</f>
+      <c r="AZ4" s="116"/>
+      <c r="BA4" s="116"/>
+      <c r="BB4" s="116"/>
+      <c r="BC4" s="116"/>
+      <c r="BD4" s="116"/>
+      <c r="BE4" s="116"/>
+      <c r="BF4" s="116">
+        <f>BF5</f>
         <v>44005</v>
       </c>
-      <c r="BG4" s="128"/>
-      <c r="BH4" s="128"/>
-      <c r="BI4" s="128"/>
-      <c r="BJ4" s="128"/>
-      <c r="BK4" s="128"/>
-      <c r="BL4" s="129"/>
+      <c r="BG4" s="116"/>
+      <c r="BH4" s="116"/>
+      <c r="BI4" s="116"/>
+      <c r="BJ4" s="116"/>
+      <c r="BK4" s="116"/>
+      <c r="BL4" s="117"/>
     </row>
     <row r="5" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="116"/>
-      <c r="B5" s="117" t="s">
+      <c r="A5" s="127"/>
+      <c r="B5" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="121" t="s">
+      <c r="D5" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="121" t="s">
+      <c r="E5" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="121" t="s">
+      <c r="F5" s="119" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="25">
-        <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
+        <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>43956</v>
       </c>
       <c r="J5" s="25">
-        <f ca="1">I5+1</f>
+        <f>I5+1</f>
         <v>43957</v>
       </c>
       <c r="K5" s="25">
-        <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
+        <f t="shared" ref="K5:AX5" si="0">J5+1</f>
         <v>43958</v>
       </c>
       <c r="L5" s="25">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>43959</v>
       </c>
       <c r="M5" s="25">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>43960</v>
       </c>
       <c r="N5" s="25">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>43961</v>
       </c>
       <c r="O5" s="26">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>43962</v>
       </c>
       <c r="P5" s="27">
-        <f ca="1">O5+1</f>
+        <f>O5+1</f>
         <v>43963</v>
       </c>
       <c r="Q5" s="25">
-        <f ca="1">P5+1</f>
+        <f>P5+1</f>
         <v>43964</v>
       </c>
       <c r="R5" s="25">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>43965</v>
       </c>
       <c r="S5" s="25">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>43966</v>
       </c>
       <c r="T5" s="25">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>43967</v>
       </c>
       <c r="U5" s="25">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>43968</v>
       </c>
       <c r="V5" s="26">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>43969</v>
       </c>
       <c r="W5" s="27">
-        <f ca="1">V5+1</f>
+        <f>V5+1</f>
         <v>43970</v>
       </c>
       <c r="X5" s="25">
-        <f ca="1">W5+1</f>
+        <f>W5+1</f>
         <v>43971</v>
       </c>
       <c r="Y5" s="25">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>43972</v>
       </c>
       <c r="Z5" s="25">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>43973</v>
       </c>
       <c r="AA5" s="25">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>43974</v>
       </c>
       <c r="AB5" s="25">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>43975</v>
       </c>
       <c r="AC5" s="26">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>43976</v>
       </c>
       <c r="AD5" s="27">
-        <f ca="1">AC5+1</f>
+        <f>AC5+1</f>
         <v>43977</v>
       </c>
       <c r="AE5" s="25">
-        <f ca="1">AD5+1</f>
+        <f>AD5+1</f>
         <v>43978</v>
       </c>
       <c r="AF5" s="25">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>43979</v>
       </c>
       <c r="AG5" s="25">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>43980</v>
       </c>
       <c r="AH5" s="25">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>43981</v>
       </c>
       <c r="AI5" s="25">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>43982</v>
       </c>
       <c r="AJ5" s="26">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>43983</v>
       </c>
       <c r="AK5" s="27">
-        <f ca="1">AJ5+1</f>
+        <f>AJ5+1</f>
         <v>43984</v>
       </c>
       <c r="AL5" s="25">
-        <f ca="1">AK5+1</f>
+        <f>AK5+1</f>
         <v>43985</v>
       </c>
       <c r="AM5" s="25">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>43986</v>
       </c>
       <c r="AN5" s="25">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>43987</v>
       </c>
       <c r="AO5" s="25">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>43988</v>
       </c>
       <c r="AP5" s="25">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>43989</v>
       </c>
       <c r="AQ5" s="26">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>43990</v>
       </c>
       <c r="AR5" s="27">
-        <f ca="1">AQ5+1</f>
+        <f>AQ5+1</f>
         <v>43991</v>
       </c>
       <c r="AS5" s="25">
-        <f ca="1">AR5+1</f>
+        <f>AR5+1</f>
         <v>43992</v>
       </c>
       <c r="AT5" s="25">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>43993</v>
       </c>
       <c r="AU5" s="25">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>43994</v>
       </c>
       <c r="AV5" s="25">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>43995</v>
       </c>
       <c r="AW5" s="25">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>43996</v>
       </c>
       <c r="AX5" s="26">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>43997</v>
       </c>
       <c r="AY5" s="27">
-        <f ca="1">AX5+1</f>
+        <f>AX5+1</f>
         <v>43998</v>
       </c>
       <c r="AZ5" s="25">
-        <f ca="1">AY5+1</f>
+        <f>AY5+1</f>
         <v>43999</v>
       </c>
       <c r="BA5" s="25">
-        <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
+        <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
         <v>44000</v>
       </c>
       <c r="BB5" s="25">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44001</v>
       </c>
       <c r="BC5" s="25">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44002</v>
       </c>
       <c r="BD5" s="25">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44003</v>
       </c>
       <c r="BE5" s="26">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>44004</v>
       </c>
       <c r="BF5" s="27">
-        <f ca="1">BE5+1</f>
+        <f>BE5+1</f>
         <v>44005</v>
       </c>
       <c r="BG5" s="25">
-        <f ca="1">BF5+1</f>
+        <f>BF5+1</f>
         <v>44006</v>
       </c>
       <c r="BH5" s="25">
-        <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
+        <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
         <v>44007</v>
       </c>
       <c r="BI5" s="25">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>44008</v>
       </c>
       <c r="BJ5" s="25">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>44009</v>
       </c>
       <c r="BK5" s="25">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>44010</v>
       </c>
       <c r="BL5" s="25">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>44011</v>
       </c>
     </row>
     <row r="6" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="116"/>
-      <c r="B6" s="118"/>
+      <c r="A6" s="127"/>
+      <c r="B6" s="129"/>
       <c r="C6" s="120"/>
       <c r="D6" s="120"/>
       <c r="E6" s="120"/>
       <c r="F6" s="120"/>
       <c r="I6" s="28" t="str">
-        <f t="shared" ref="I6:AN6" ca="1" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
+        <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>d</v>
       </c>
       <c r="J6" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="K6" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="L6" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="M6" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="N6" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="O6" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="P6" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="Q6" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="R6" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="S6" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="T6" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="U6" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="V6" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="W6" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="X6" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="Y6" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="Z6" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AA6" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AB6" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AC6" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AD6" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AE6" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AF6" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AG6" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AH6" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AI6" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AJ6" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AK6" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AL6" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AM6" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AN6" s="29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AO6" s="29" t="str">
-        <f t="shared" ref="AO6:BL6" ca="1" si="4">LEFT(TEXT(AO5,"ddd"),1)</f>
+        <f t="shared" ref="AO6:BL6" si="4">LEFT(TEXT(AO5,"ddd"),1)</f>
         <v>d</v>
       </c>
       <c r="AP6" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="AQ6" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="AR6" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="AS6" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="AT6" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="AU6" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="AV6" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="AW6" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="AX6" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="AY6" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="AZ6" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="BA6" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="BB6" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="BC6" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="BD6" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="BE6" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="BF6" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="BG6" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="BH6" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="BI6" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="BJ6" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="BK6" s="29" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="BL6" s="30" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
     </row>
@@ -2677,7 +2692,7 @@
       </c>
       <c r="BL8" s="39"/>
       <c r="BM8" s="40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:65" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2695,12 +2710,12 @@
         <v>43973</v>
       </c>
       <c r="F9" s="88">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="44"/>
       <c r="J9" s="44"/>
@@ -2720,7 +2735,7 @@
       <c r="X9" s="94"/>
       <c r="Y9" s="44"/>
       <c r="Z9" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA9" s="93"/>
       <c r="AB9" s="96"/>
@@ -2776,15 +2791,15 @@
         <v>43956</v>
       </c>
       <c r="F10" s="89">
-        <v>43959</v>
+        <v>43971</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="5">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10" s="44"/>
       <c r="K10" s="93"/>
@@ -2851,18 +2866,18 @@
         <v>20</v>
       </c>
       <c r="D11" s="47">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="E11" s="89">
         <v>43963</v>
       </c>
       <c r="F11" s="89">
-        <v>43964</v>
+        <v>43971</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="5">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
@@ -2872,7 +2887,7 @@
       <c r="N11" s="96"/>
       <c r="O11" s="96"/>
       <c r="P11" s="94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q11" s="44"/>
       <c r="R11" s="44"/>
@@ -2935,15 +2950,15 @@
         <v>0</v>
       </c>
       <c r="E12" s="89">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="F12" s="89">
-        <v>43971</v>
+        <v>43973</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
@@ -2960,10 +2975,10 @@
       <c r="U12" s="96"/>
       <c r="V12" s="96"/>
       <c r="W12" s="96"/>
-      <c r="X12" s="94" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y12" s="48"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="48" t="s">
+        <v>49</v>
+      </c>
       <c r="Z12" s="44"/>
       <c r="AA12" s="93"/>
       <c r="AB12" s="96"/>
@@ -3016,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="89">
-        <v>43972</v>
+        <v>43977</v>
       </c>
       <c r="F13" s="89">
-        <v>43972</v>
+        <v>43977</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="5">
@@ -3042,14 +3057,14 @@
       <c r="V13" s="96"/>
       <c r="W13" s="96"/>
       <c r="X13" s="94"/>
-      <c r="Y13" s="44" t="s">
-        <v>50</v>
-      </c>
+      <c r="Y13" s="44"/>
       <c r="Z13" s="44"/>
       <c r="AA13" s="93"/>
       <c r="AB13" s="96"/>
       <c r="AC13" s="96"/>
-      <c r="AD13" s="94"/>
+      <c r="AD13" s="94" t="s">
+        <v>49</v>
+      </c>
       <c r="AE13" s="44"/>
       <c r="AF13" s="93"/>
       <c r="AG13" s="96"/>
@@ -3131,10 +3146,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="90">
-        <v>43972</v>
+        <v>43978</v>
       </c>
       <c r="F15" s="90">
-        <v>43972</v>
+        <v>43978</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="5">
@@ -3157,15 +3172,15 @@
       <c r="V15" s="96"/>
       <c r="W15" s="96"/>
       <c r="X15" s="94"/>
-      <c r="Y15" s="44" t="s">
-        <v>50</v>
-      </c>
+      <c r="Y15" s="44"/>
       <c r="Z15" s="44"/>
       <c r="AA15" s="93"/>
       <c r="AB15" s="96"/>
       <c r="AC15" s="96"/>
       <c r="AD15" s="94"/>
-      <c r="AE15" s="44"/>
+      <c r="AE15" s="44" t="s">
+        <v>61</v>
+      </c>
       <c r="AF15" s="93"/>
       <c r="AG15" s="96"/>
       <c r="AH15" s="71"/>
@@ -3212,10 +3227,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="90">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="F16" s="90">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="5">
@@ -3243,10 +3258,10 @@
       <c r="AA16" s="93"/>
       <c r="AB16" s="96"/>
       <c r="AC16" s="96"/>
-      <c r="AD16" s="94" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE16" s="44"/>
+      <c r="AD16" s="94"/>
+      <c r="AE16" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="AF16" s="93"/>
       <c r="AG16" s="96"/>
       <c r="AH16" s="71"/>
@@ -3287,7 +3302,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="56">
         <v>0</v>
@@ -3313,7 +3328,7 @@
       <c r="P17" s="94"/>
       <c r="Q17" s="44"/>
       <c r="R17" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S17" s="44"/>
       <c r="T17" s="93"/>
@@ -3368,7 +3383,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="56">
         <v>0</v>
@@ -3401,7 +3416,7 @@
       <c r="W18" s="96"/>
       <c r="X18" s="94"/>
       <c r="Y18" s="48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z18" s="44"/>
       <c r="AA18" s="93"/>
@@ -3455,10 +3470,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="90">
+        <v>43972</v>
+      </c>
+      <c r="F19" s="90">
         <v>43973</v>
-      </c>
-      <c r="F19" s="90">
-        <v>43974</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="5">
@@ -3481,10 +3496,10 @@
       <c r="V19" s="96"/>
       <c r="W19" s="96"/>
       <c r="X19" s="94"/>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="44" t="s">
-        <v>49</v>
-      </c>
+      <c r="Y19" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z19" s="44"/>
       <c r="AA19" s="93"/>
       <c r="AB19" s="96"/>
       <c r="AC19" s="96"/>
@@ -3720,7 +3735,7 @@
       <c r="AB22" s="96"/>
       <c r="AC22" s="96"/>
       <c r="AD22" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AE22" s="44"/>
       <c r="AF22" s="93"/>
@@ -3802,7 +3817,7 @@
       <c r="AC23" s="96"/>
       <c r="AD23" s="94"/>
       <c r="AE23" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AF23" s="93"/>
       <c r="AG23" s="96"/>
@@ -3970,7 +3985,7 @@
       <c r="AI25" s="96"/>
       <c r="AJ25" s="96"/>
       <c r="AK25" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AL25" s="44"/>
       <c r="AM25" s="44"/>
@@ -4074,7 +4089,7 @@
     <row r="27" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="73"/>
       <c r="D27" s="74"/>
@@ -4224,7 +4239,7 @@
     <row r="29" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="73"/>
       <c r="D29" s="74"/>
@@ -4399,10 +4414,10 @@
         <v>41</v>
       </c>
       <c r="Q31" s="106" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R31" s="106" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S31" s="106" t="s">
         <v>41</v>
@@ -4416,9 +4431,7 @@
       <c r="X31" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="Y31" s="106" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y31" s="131"/>
       <c r="Z31" s="98"/>
       <c r="AA31" s="107"/>
       <c r="AB31" s="96"/>
@@ -4444,7 +4457,9 @@
         <v>40</v>
       </c>
       <c r="AT31" s="94"/>
-      <c r="AU31" s="44"/>
+      <c r="AU31" s="105" t="s">
+        <v>41</v>
+      </c>
       <c r="AV31" s="93"/>
       <c r="AW31" s="96"/>
       <c r="AX31" s="96"/>
@@ -4497,8 +4512,8 @@
       <c r="R32" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="S32" s="40" t="s">
-        <v>48</v>
+      <c r="S32" s="132" t="s">
+        <v>59</v>
       </c>
       <c r="T32" s="106" t="s">
         <v>47</v>
@@ -4560,7 +4575,7 @@
       <c r="BK32" s="96"/>
       <c r="BL32" s="96"/>
       <c r="BN32" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4589,10 +4604,10 @@
       <c r="P33" s="62"/>
       <c r="Q33"/>
       <c r="R33" s="106" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S33" s="106" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T33" s="110" t="s">
         <v>43</v>
@@ -4654,13 +4669,13 @@
       <c r="BK33" s="96"/>
       <c r="BL33" s="96"/>
       <c r="BN33" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="111" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="112"/>
       <c r="D34" s="113"/>
@@ -4673,14 +4688,14 @@
       <c r="K34" s="39"/>
       <c r="L34" s="96"/>
       <c r="M34" s="109" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N34" s="96"/>
       <c r="O34" s="96"/>
       <c r="P34" s="95"/>
       <c r="Q34"/>
       <c r="R34" s="115" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S34"/>
       <c r="T34"/>
@@ -4887,6 +4902,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4895,16 +4920,6 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D36">
     <cfRule type="dataBar" priority="23">
@@ -5018,12 +5033,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5339,29 +5365,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5388,20 +5414,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testdisk-7.2-WIP.win64\testdisk-7.2-WIP\backup\old_notebook\old_notebook\Desktop\RestoreFirstInstallationT580\anderScore\GitLab-Training\gitlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58A394E-4655-4642-9D5F-7F6C1BFD71DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA30EC59-7EFB-43CE-985C-10FDCC347C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1263,19 +1263,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1288,21 +1295,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1883,8 +1883,8 @@
   </sheetPr>
   <dimension ref="A1:BN39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AL13" sqref="AL13"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1910,28 +1910,28 @@
       <c r="E1" s="14"/>
       <c r="F1" s="15"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="125" t="s">
+      <c r="I1" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
       <c r="P1" s="18"/>
-      <c r="Q1" s="123">
+      <c r="Q1" s="126">
         <v>43956</v>
       </c>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="124"/>
-      <c r="X1" s="124"/>
-      <c r="Y1" s="124"/>
-      <c r="Z1" s="124"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
     </row>
     <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="87" t="s">
@@ -1941,28 +1941,28 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
-      <c r="I2" s="125" t="s">
+      <c r="I2" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
       <c r="P2" s="18"/>
-      <c r="Q2" s="121">
+      <c r="Q2" s="124">
         <v>1</v>
       </c>
-      <c r="R2" s="122"/>
-      <c r="S2" s="122"/>
-      <c r="T2" s="122"/>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="122"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="125"/>
     </row>
     <row r="3" spans="1:65" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -1974,102 +1974,102 @@
       <c r="A4" s="8"/>
       <c r="B4" s="23"/>
       <c r="E4" s="24"/>
-      <c r="I4" s="118">
+      <c r="I4" s="132">
         <f>I5</f>
         <v>43956</v>
       </c>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116">
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="130"/>
+      <c r="O4" s="130"/>
+      <c r="P4" s="130">
         <f>P5</f>
         <v>43963</v>
       </c>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116">
+      <c r="Q4" s="130"/>
+      <c r="R4" s="130"/>
+      <c r="S4" s="130"/>
+      <c r="T4" s="130"/>
+      <c r="U4" s="130"/>
+      <c r="V4" s="130"/>
+      <c r="W4" s="130">
         <f>W5</f>
         <v>43970</v>
       </c>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="116"/>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="116">
+      <c r="X4" s="130"/>
+      <c r="Y4" s="130"/>
+      <c r="Z4" s="130"/>
+      <c r="AA4" s="130"/>
+      <c r="AB4" s="130"/>
+      <c r="AC4" s="130"/>
+      <c r="AD4" s="130">
         <f>AD5</f>
         <v>43977</v>
       </c>
-      <c r="AE4" s="116"/>
-      <c r="AF4" s="116"/>
-      <c r="AG4" s="116"/>
-      <c r="AH4" s="116"/>
-      <c r="AI4" s="116"/>
-      <c r="AJ4" s="116"/>
-      <c r="AK4" s="116">
+      <c r="AE4" s="130"/>
+      <c r="AF4" s="130"/>
+      <c r="AG4" s="130"/>
+      <c r="AH4" s="130"/>
+      <c r="AI4" s="130"/>
+      <c r="AJ4" s="130"/>
+      <c r="AK4" s="130">
         <f>AK5</f>
         <v>43984</v>
       </c>
-      <c r="AL4" s="116"/>
-      <c r="AM4" s="116"/>
-      <c r="AN4" s="116"/>
-      <c r="AO4" s="116"/>
-      <c r="AP4" s="116"/>
-      <c r="AQ4" s="116"/>
-      <c r="AR4" s="116">
+      <c r="AL4" s="130"/>
+      <c r="AM4" s="130"/>
+      <c r="AN4" s="130"/>
+      <c r="AO4" s="130"/>
+      <c r="AP4" s="130"/>
+      <c r="AQ4" s="130"/>
+      <c r="AR4" s="130">
         <f>AR5</f>
         <v>43991</v>
       </c>
-      <c r="AS4" s="116"/>
-      <c r="AT4" s="116"/>
-      <c r="AU4" s="116"/>
-      <c r="AV4" s="116"/>
-      <c r="AW4" s="116"/>
-      <c r="AX4" s="116"/>
-      <c r="AY4" s="116">
+      <c r="AS4" s="130"/>
+      <c r="AT4" s="130"/>
+      <c r="AU4" s="130"/>
+      <c r="AV4" s="130"/>
+      <c r="AW4" s="130"/>
+      <c r="AX4" s="130"/>
+      <c r="AY4" s="130">
         <f>AY5</f>
         <v>43998</v>
       </c>
-      <c r="AZ4" s="116"/>
-      <c r="BA4" s="116"/>
-      <c r="BB4" s="116"/>
-      <c r="BC4" s="116"/>
-      <c r="BD4" s="116"/>
-      <c r="BE4" s="116"/>
-      <c r="BF4" s="116">
+      <c r="AZ4" s="130"/>
+      <c r="BA4" s="130"/>
+      <c r="BB4" s="130"/>
+      <c r="BC4" s="130"/>
+      <c r="BD4" s="130"/>
+      <c r="BE4" s="130"/>
+      <c r="BF4" s="130">
         <f>BF5</f>
         <v>44005</v>
       </c>
-      <c r="BG4" s="116"/>
-      <c r="BH4" s="116"/>
-      <c r="BI4" s="116"/>
-      <c r="BJ4" s="116"/>
-      <c r="BK4" s="116"/>
-      <c r="BL4" s="117"/>
+      <c r="BG4" s="130"/>
+      <c r="BH4" s="130"/>
+      <c r="BI4" s="130"/>
+      <c r="BJ4" s="130"/>
+      <c r="BK4" s="130"/>
+      <c r="BL4" s="131"/>
     </row>
     <row r="5" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="127"/>
-      <c r="B5" s="128" t="s">
+      <c r="A5" s="118"/>
+      <c r="B5" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="119" t="s">
+      <c r="E5" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="119" t="s">
+      <c r="F5" s="123" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="25">
@@ -2298,12 +2298,12 @@
       </c>
     </row>
     <row r="6" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="127"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
       <c r="I6" s="28" t="str">
         <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>d</v>
@@ -2707,15 +2707,15 @@
         <v>0</v>
       </c>
       <c r="E9" s="88">
-        <v>43973</v>
+        <v>43981</v>
       </c>
       <c r="F9" s="88">
-        <v>43974</v>
+        <v>43981</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="5">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" s="44"/>
       <c r="J9" s="44"/>
@@ -2734,9 +2734,7 @@
       <c r="W9" s="96"/>
       <c r="X9" s="94"/>
       <c r="Y9" s="44"/>
-      <c r="Z9" s="44" t="s">
-        <v>48</v>
-      </c>
+      <c r="Z9" s="44"/>
       <c r="AA9" s="93"/>
       <c r="AB9" s="96"/>
       <c r="AC9" s="96"/>
@@ -2744,7 +2742,9 @@
       <c r="AE9" s="44"/>
       <c r="AF9" s="93"/>
       <c r="AG9" s="96"/>
-      <c r="AH9" s="71"/>
+      <c r="AH9" s="71" t="s">
+        <v>48</v>
+      </c>
       <c r="AI9" s="96"/>
       <c r="AJ9" s="96"/>
       <c r="AK9" s="94"/>
@@ -2785,7 +2785,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="47">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="E10" s="89">
         <v>43956</v>
@@ -2866,7 +2866,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="47">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="E11" s="89">
         <v>43963</v>
@@ -3467,7 +3467,7 @@
         <v>45</v>
       </c>
       <c r="D19" s="56">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E19" s="90">
         <v>43972</v>
@@ -4431,7 +4431,7 @@
       <c r="X31" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="Y31" s="131"/>
+      <c r="Y31" s="116"/>
       <c r="Z31" s="98"/>
       <c r="AA31" s="107"/>
       <c r="AB31" s="96"/>
@@ -4512,7 +4512,7 @@
       <c r="R32" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="S32" s="132" t="s">
+      <c r="S32" s="117" t="s">
         <v>59</v>
       </c>
       <c r="T32" s="106" t="s">
@@ -4902,16 +4902,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4920,6 +4910,16 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D36">
     <cfRule type="dataBar" priority="23">
@@ -5033,23 +5033,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5365,29 +5354,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5414,9 +5403,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testdisk-7.2-WIP.win64\testdisk-7.2-WIP\backup\old_notebook\old_notebook\Desktop\RestoreFirstInstallationT580\anderScore\GitLab-Training\gitlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA30EC59-7EFB-43CE-985C-10FDCC347C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38316B76-4FE6-4D53-9001-B5789A7E10E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1267,22 +1267,19 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1295,14 +1292,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1883,8 +1883,8 @@
   </sheetPr>
   <dimension ref="A1:BN39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="Z22" sqref="Z22"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AR31" sqref="AR31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1910,28 +1910,28 @@
       <c r="E1" s="14"/>
       <c r="F1" s="15"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="128" t="s">
+      <c r="I1" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
       <c r="P1" s="18"/>
-      <c r="Q1" s="126">
+      <c r="Q1" s="125">
         <v>43956</v>
       </c>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
     </row>
     <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="87" t="s">
@@ -1941,28 +1941,28 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
-      <c r="I2" s="128" t="s">
+      <c r="I2" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
       <c r="P2" s="18"/>
-      <c r="Q2" s="124">
+      <c r="Q2" s="123">
         <v>1</v>
       </c>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="125"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
+      <c r="Z2" s="124"/>
     </row>
     <row r="3" spans="1:65" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -1974,102 +1974,102 @@
       <c r="A4" s="8"/>
       <c r="B4" s="23"/>
       <c r="E4" s="24"/>
-      <c r="I4" s="132">
+      <c r="I4" s="120">
         <f>I5</f>
         <v>43956</v>
       </c>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="130"/>
-      <c r="N4" s="130"/>
-      <c r="O4" s="130"/>
-      <c r="P4" s="130">
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118">
         <f>P5</f>
         <v>43963</v>
       </c>
-      <c r="Q4" s="130"/>
-      <c r="R4" s="130"/>
-      <c r="S4" s="130"/>
-      <c r="T4" s="130"/>
-      <c r="U4" s="130"/>
-      <c r="V4" s="130"/>
-      <c r="W4" s="130">
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118">
         <f>W5</f>
         <v>43970</v>
       </c>
-      <c r="X4" s="130"/>
-      <c r="Y4" s="130"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="130"/>
-      <c r="AB4" s="130"/>
-      <c r="AC4" s="130"/>
-      <c r="AD4" s="130">
+      <c r="X4" s="118"/>
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="118"/>
+      <c r="AA4" s="118"/>
+      <c r="AB4" s="118"/>
+      <c r="AC4" s="118"/>
+      <c r="AD4" s="118">
         <f>AD5</f>
         <v>43977</v>
       </c>
-      <c r="AE4" s="130"/>
-      <c r="AF4" s="130"/>
-      <c r="AG4" s="130"/>
-      <c r="AH4" s="130"/>
-      <c r="AI4" s="130"/>
-      <c r="AJ4" s="130"/>
-      <c r="AK4" s="130">
+      <c r="AE4" s="118"/>
+      <c r="AF4" s="118"/>
+      <c r="AG4" s="118"/>
+      <c r="AH4" s="118"/>
+      <c r="AI4" s="118"/>
+      <c r="AJ4" s="118"/>
+      <c r="AK4" s="118">
         <f>AK5</f>
         <v>43984</v>
       </c>
-      <c r="AL4" s="130"/>
-      <c r="AM4" s="130"/>
-      <c r="AN4" s="130"/>
-      <c r="AO4" s="130"/>
-      <c r="AP4" s="130"/>
-      <c r="AQ4" s="130"/>
-      <c r="AR4" s="130">
+      <c r="AL4" s="118"/>
+      <c r="AM4" s="118"/>
+      <c r="AN4" s="118"/>
+      <c r="AO4" s="118"/>
+      <c r="AP4" s="118"/>
+      <c r="AQ4" s="118"/>
+      <c r="AR4" s="118">
         <f>AR5</f>
         <v>43991</v>
       </c>
-      <c r="AS4" s="130"/>
-      <c r="AT4" s="130"/>
-      <c r="AU4" s="130"/>
-      <c r="AV4" s="130"/>
-      <c r="AW4" s="130"/>
-      <c r="AX4" s="130"/>
-      <c r="AY4" s="130">
+      <c r="AS4" s="118"/>
+      <c r="AT4" s="118"/>
+      <c r="AU4" s="118"/>
+      <c r="AV4" s="118"/>
+      <c r="AW4" s="118"/>
+      <c r="AX4" s="118"/>
+      <c r="AY4" s="118">
         <f>AY5</f>
         <v>43998</v>
       </c>
-      <c r="AZ4" s="130"/>
-      <c r="BA4" s="130"/>
-      <c r="BB4" s="130"/>
-      <c r="BC4" s="130"/>
-      <c r="BD4" s="130"/>
-      <c r="BE4" s="130"/>
-      <c r="BF4" s="130">
+      <c r="AZ4" s="118"/>
+      <c r="BA4" s="118"/>
+      <c r="BB4" s="118"/>
+      <c r="BC4" s="118"/>
+      <c r="BD4" s="118"/>
+      <c r="BE4" s="118"/>
+      <c r="BF4" s="118">
         <f>BF5</f>
         <v>44005</v>
       </c>
-      <c r="BG4" s="130"/>
-      <c r="BH4" s="130"/>
-      <c r="BI4" s="130"/>
-      <c r="BJ4" s="130"/>
-      <c r="BK4" s="130"/>
-      <c r="BL4" s="131"/>
+      <c r="BG4" s="118"/>
+      <c r="BH4" s="118"/>
+      <c r="BI4" s="118"/>
+      <c r="BJ4" s="118"/>
+      <c r="BK4" s="118"/>
+      <c r="BL4" s="119"/>
     </row>
     <row r="5" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="118"/>
-      <c r="B5" s="119" t="s">
+      <c r="A5" s="129"/>
+      <c r="B5" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="121" t="s">
+      <c r="C5" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="123" t="s">
+      <c r="E5" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="123" t="s">
+      <c r="F5" s="121" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="25">
@@ -2298,8 +2298,8 @@
       </c>
     </row>
     <row r="6" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="118"/>
-      <c r="B6" s="120"/>
+      <c r="A6" s="129"/>
+      <c r="B6" s="131"/>
       <c r="C6" s="122"/>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
@@ -2785,18 +2785,18 @@
         <v>20</v>
       </c>
       <c r="D10" s="47">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="E10" s="89">
         <v>43956</v>
       </c>
       <c r="F10" s="89">
-        <v>43971</v>
+        <v>43973</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="5">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I10" s="44" t="s">
         <v>49</v>
@@ -2866,18 +2866,18 @@
         <v>20</v>
       </c>
       <c r="D11" s="47">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="E11" s="89">
         <v>43963</v>
       </c>
       <c r="F11" s="89">
-        <v>43971</v>
+        <v>43973</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="5">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
@@ -2950,15 +2950,15 @@
         <v>0</v>
       </c>
       <c r="E12" s="89">
-        <v>43972</v>
+        <v>43977</v>
       </c>
       <c r="F12" s="89">
-        <v>43973</v>
+        <v>43977</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="5">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
@@ -2976,14 +2976,14 @@
       <c r="V12" s="96"/>
       <c r="W12" s="96"/>
       <c r="X12" s="94"/>
-      <c r="Y12" s="48" t="s">
-        <v>49</v>
-      </c>
+      <c r="Y12" s="48"/>
       <c r="Z12" s="44"/>
       <c r="AA12" s="93"/>
       <c r="AB12" s="96"/>
       <c r="AC12" s="96"/>
-      <c r="AD12" s="94"/>
+      <c r="AD12" s="94" t="s">
+        <v>49</v>
+      </c>
       <c r="AE12" s="44"/>
       <c r="AF12" s="93"/>
       <c r="AG12" s="96"/>
@@ -3467,7 +3467,7 @@
         <v>45</v>
       </c>
       <c r="D19" s="56">
-        <v>0.05</v>
+        <v>0.8</v>
       </c>
       <c r="E19" s="90">
         <v>43972</v>
@@ -3703,10 +3703,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="91">
-        <v>43977</v>
+        <v>43973</v>
       </c>
       <c r="F22" s="91">
-        <v>43978</v>
+        <v>43974</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="5">
@@ -3730,13 +3730,13 @@
       <c r="W22" s="96"/>
       <c r="X22" s="94"/>
       <c r="Y22" s="44"/>
-      <c r="Z22" s="44"/>
+      <c r="Z22" s="44" t="s">
+        <v>48</v>
+      </c>
       <c r="AA22" s="93"/>
       <c r="AB22" s="96"/>
       <c r="AC22" s="96"/>
-      <c r="AD22" s="94" t="s">
-        <v>48</v>
-      </c>
+      <c r="AD22" s="94"/>
       <c r="AE22" s="44"/>
       <c r="AF22" s="93"/>
       <c r="AG22" s="96"/>
@@ -3784,15 +3784,15 @@
         <v>0</v>
       </c>
       <c r="E23" s="91">
-        <v>43978</v>
+        <v>43974</v>
       </c>
       <c r="F23" s="91">
-        <v>43979</v>
+        <v>43977</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="5">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I23" s="44"/>
       <c r="J23" s="44"/>
@@ -3812,13 +3812,13 @@
       <c r="X23" s="94"/>
       <c r="Y23" s="44"/>
       <c r="Z23" s="44"/>
-      <c r="AA23" s="93"/>
+      <c r="AA23" s="93" t="s">
+        <v>48</v>
+      </c>
       <c r="AB23" s="96"/>
       <c r="AC23" s="96"/>
       <c r="AD23" s="94"/>
-      <c r="AE23" s="44" t="s">
-        <v>48</v>
-      </c>
+      <c r="AE23" s="44"/>
       <c r="AF23" s="93"/>
       <c r="AG23" s="96"/>
       <c r="AH23" s="71"/>
@@ -4902,6 +4902,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4910,16 +4920,6 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D36">
     <cfRule type="dataBar" priority="23">
@@ -5033,12 +5033,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5354,29 +5365,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5403,20 +5414,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testdisk-7.2-WIP.win64\testdisk-7.2-WIP\backup\old_notebook\old_notebook\Desktop\RestoreFirstInstallationT580\anderScore\GitLab-Training\gitlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38316B76-4FE6-4D53-9001-B5789A7E10E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD78E82-42EE-4294-B455-2E8C738BDFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="57">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -154,15 +154,6 @@
     <t>WE</t>
   </si>
   <si>
-    <t>Abwesenheit MFischer</t>
-  </si>
-  <si>
-    <t>Abwesenheit PUngewiß</t>
-  </si>
-  <si>
-    <t>Abwesenheit CKeutner</t>
-  </si>
-  <si>
     <t>U</t>
   </si>
   <si>
@@ -184,18 +175,9 @@
     <t>PUngewiß</t>
   </si>
   <si>
-    <t>MFi</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
-    <t>PUn</t>
-  </si>
-  <si>
-    <t>CKe</t>
-  </si>
-  <si>
     <t>Folien und Übungen Review Vorbereiter / Puffer</t>
   </si>
   <si>
@@ -208,18 +190,12 @@
     <t>WE = Wochenende, F = Feiertag</t>
   </si>
   <si>
-    <t>Abwesenheit JBraun</t>
-  </si>
-  <si>
     <t>JBraun</t>
   </si>
   <si>
     <t>CDB</t>
   </si>
   <si>
-    <t>JBr</t>
-  </si>
-  <si>
     <t>CDB = CDB</t>
   </si>
   <si>
@@ -229,10 +205,16 @@
     <t>SL = SwissLife, K = Krank, U = Urlaub, B = BigBlueButton, T = Talanx, J = JCON</t>
   </si>
   <si>
-    <t>Cke</t>
-  </si>
-  <si>
-    <t>Pun</t>
+    <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUngewiß </t>
+  </si>
+  <si>
+    <t>Abwesenheit</t>
+  </si>
+  <si>
+    <t>X = Working days</t>
   </si>
 </sst>
 </file>
@@ -1267,19 +1249,22 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1292,17 +1277,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1883,8 +1865,8 @@
   </sheetPr>
   <dimension ref="A1:BN39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AR31" sqref="AR31"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="V13" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="BP32" sqref="BP32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1903,35 +1885,35 @@
     <row r="1" spans="1:65" ht="90" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A1" s="8"/>
       <c r="B1" s="86" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="13"/>
       <c r="E1" s="14"/>
       <c r="F1" s="15"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="127" t="s">
+      <c r="I1" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
       <c r="P1" s="18"/>
-      <c r="Q1" s="125">
+      <c r="Q1" s="126">
         <v>43956</v>
       </c>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="126"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
     </row>
     <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="87" t="s">
@@ -1941,28 +1923,28 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
       <c r="P2" s="18"/>
-      <c r="Q2" s="123">
+      <c r="Q2" s="124">
         <v>1</v>
       </c>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="124"/>
-      <c r="Z2" s="124"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="125"/>
     </row>
     <row r="3" spans="1:65" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -1974,102 +1956,102 @@
       <c r="A4" s="8"/>
       <c r="B4" s="23"/>
       <c r="E4" s="24"/>
-      <c r="I4" s="120">
+      <c r="I4" s="132">
         <f>I5</f>
         <v>43956</v>
       </c>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118">
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="130"/>
+      <c r="O4" s="130"/>
+      <c r="P4" s="130">
         <f>P5</f>
         <v>43963</v>
       </c>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118">
+      <c r="Q4" s="130"/>
+      <c r="R4" s="130"/>
+      <c r="S4" s="130"/>
+      <c r="T4" s="130"/>
+      <c r="U4" s="130"/>
+      <c r="V4" s="130"/>
+      <c r="W4" s="130">
         <f>W5</f>
         <v>43970</v>
       </c>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="118"/>
-      <c r="Z4" s="118"/>
-      <c r="AA4" s="118"/>
-      <c r="AB4" s="118"/>
-      <c r="AC4" s="118"/>
-      <c r="AD4" s="118">
+      <c r="X4" s="130"/>
+      <c r="Y4" s="130"/>
+      <c r="Z4" s="130"/>
+      <c r="AA4" s="130"/>
+      <c r="AB4" s="130"/>
+      <c r="AC4" s="130"/>
+      <c r="AD4" s="130">
         <f>AD5</f>
         <v>43977</v>
       </c>
-      <c r="AE4" s="118"/>
-      <c r="AF4" s="118"/>
-      <c r="AG4" s="118"/>
-      <c r="AH4" s="118"/>
-      <c r="AI4" s="118"/>
-      <c r="AJ4" s="118"/>
-      <c r="AK4" s="118">
+      <c r="AE4" s="130"/>
+      <c r="AF4" s="130"/>
+      <c r="AG4" s="130"/>
+      <c r="AH4" s="130"/>
+      <c r="AI4" s="130"/>
+      <c r="AJ4" s="130"/>
+      <c r="AK4" s="130">
         <f>AK5</f>
         <v>43984</v>
       </c>
-      <c r="AL4" s="118"/>
-      <c r="AM4" s="118"/>
-      <c r="AN4" s="118"/>
-      <c r="AO4" s="118"/>
-      <c r="AP4" s="118"/>
-      <c r="AQ4" s="118"/>
-      <c r="AR4" s="118">
+      <c r="AL4" s="130"/>
+      <c r="AM4" s="130"/>
+      <c r="AN4" s="130"/>
+      <c r="AO4" s="130"/>
+      <c r="AP4" s="130"/>
+      <c r="AQ4" s="130"/>
+      <c r="AR4" s="130">
         <f>AR5</f>
         <v>43991</v>
       </c>
-      <c r="AS4" s="118"/>
-      <c r="AT4" s="118"/>
-      <c r="AU4" s="118"/>
-      <c r="AV4" s="118"/>
-      <c r="AW4" s="118"/>
-      <c r="AX4" s="118"/>
-      <c r="AY4" s="118">
+      <c r="AS4" s="130"/>
+      <c r="AT4" s="130"/>
+      <c r="AU4" s="130"/>
+      <c r="AV4" s="130"/>
+      <c r="AW4" s="130"/>
+      <c r="AX4" s="130"/>
+      <c r="AY4" s="130">
         <f>AY5</f>
         <v>43998</v>
       </c>
-      <c r="AZ4" s="118"/>
-      <c r="BA4" s="118"/>
-      <c r="BB4" s="118"/>
-      <c r="BC4" s="118"/>
-      <c r="BD4" s="118"/>
-      <c r="BE4" s="118"/>
-      <c r="BF4" s="118">
+      <c r="AZ4" s="130"/>
+      <c r="BA4" s="130"/>
+      <c r="BB4" s="130"/>
+      <c r="BC4" s="130"/>
+      <c r="BD4" s="130"/>
+      <c r="BE4" s="130"/>
+      <c r="BF4" s="130">
         <f>BF5</f>
         <v>44005</v>
       </c>
-      <c r="BG4" s="118"/>
-      <c r="BH4" s="118"/>
-      <c r="BI4" s="118"/>
-      <c r="BJ4" s="118"/>
-      <c r="BK4" s="118"/>
-      <c r="BL4" s="119"/>
+      <c r="BG4" s="130"/>
+      <c r="BH4" s="130"/>
+      <c r="BI4" s="130"/>
+      <c r="BJ4" s="130"/>
+      <c r="BK4" s="130"/>
+      <c r="BL4" s="131"/>
     </row>
     <row r="5" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="129"/>
-      <c r="B5" s="130" t="s">
+      <c r="A5" s="118"/>
+      <c r="B5" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="121" t="s">
+      <c r="D5" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="121" t="s">
+      <c r="E5" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="121" t="s">
+      <c r="F5" s="123" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="25">
@@ -2298,8 +2280,8 @@
       </c>
     </row>
     <row r="6" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="129"/>
-      <c r="B6" s="131"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="120"/>
       <c r="C6" s="122"/>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
@@ -2692,7 +2674,7 @@
       </c>
       <c r="BL8" s="39"/>
       <c r="BM8" s="40" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:65" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2742,9 +2724,7 @@
       <c r="AE9" s="44"/>
       <c r="AF9" s="93"/>
       <c r="AG9" s="96"/>
-      <c r="AH9" s="71" t="s">
-        <v>48</v>
-      </c>
+      <c r="AH9" s="71"/>
       <c r="AI9" s="96"/>
       <c r="AJ9" s="96"/>
       <c r="AK9" s="94"/>
@@ -2799,25 +2779,39 @@
         <v>18</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="44"/>
-      <c r="K10" s="93"/>
+        <v>53</v>
+      </c>
+      <c r="J10" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="93" t="s">
+        <v>53</v>
+      </c>
       <c r="L10" s="96"/>
       <c r="M10" s="71"/>
       <c r="N10" s="96"/>
       <c r="O10" s="96"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="44"/>
+      <c r="P10" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q10" s="44" t="s">
+        <v>53</v>
+      </c>
       <c r="R10" s="44"/>
       <c r="S10" s="44"/>
       <c r="T10" s="93"/>
       <c r="U10" s="97"/>
       <c r="V10" s="97"/>
       <c r="W10" s="96"/>
-      <c r="X10" s="94"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="44"/>
+      <c r="X10" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y10" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z10" s="44" t="s">
+        <v>53</v>
+      </c>
       <c r="AA10" s="93"/>
       <c r="AB10" s="96"/>
       <c r="AC10" s="96"/>
@@ -2887,18 +2881,26 @@
       <c r="N11" s="96"/>
       <c r="O11" s="96"/>
       <c r="P11" s="94" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q11" s="44"/>
+        <v>53</v>
+      </c>
+      <c r="Q11" s="44" t="s">
+        <v>53</v>
+      </c>
       <c r="R11" s="44"/>
       <c r="S11" s="44"/>
       <c r="T11" s="93"/>
       <c r="U11" s="96"/>
       <c r="V11" s="96"/>
       <c r="W11" s="96"/>
-      <c r="X11" s="94"/>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="44"/>
+      <c r="X11" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y11" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z11" s="44" t="s">
+        <v>53</v>
+      </c>
       <c r="AA11" s="93"/>
       <c r="AB11" s="96"/>
       <c r="AC11" s="96"/>
@@ -2981,9 +2983,7 @@
       <c r="AA12" s="93"/>
       <c r="AB12" s="96"/>
       <c r="AC12" s="96"/>
-      <c r="AD12" s="94" t="s">
-        <v>49</v>
-      </c>
+      <c r="AD12" s="94"/>
       <c r="AE12" s="44"/>
       <c r="AF12" s="93"/>
       <c r="AG12" s="96"/>
@@ -3062,9 +3062,7 @@
       <c r="AA13" s="93"/>
       <c r="AB13" s="96"/>
       <c r="AC13" s="96"/>
-      <c r="AD13" s="94" t="s">
-        <v>49</v>
-      </c>
+      <c r="AD13" s="94"/>
       <c r="AE13" s="44"/>
       <c r="AF13" s="93"/>
       <c r="AG13" s="96"/>
@@ -3178,9 +3176,7 @@
       <c r="AB15" s="96"/>
       <c r="AC15" s="96"/>
       <c r="AD15" s="94"/>
-      <c r="AE15" s="44" t="s">
-        <v>61</v>
-      </c>
+      <c r="AE15" s="44"/>
       <c r="AF15" s="93"/>
       <c r="AG15" s="96"/>
       <c r="AH15" s="71"/>
@@ -3259,9 +3255,7 @@
       <c r="AB16" s="96"/>
       <c r="AC16" s="96"/>
       <c r="AD16" s="94"/>
-      <c r="AE16" s="44" t="s">
-        <v>49</v>
-      </c>
+      <c r="AE16" s="44"/>
       <c r="AF16" s="93"/>
       <c r="AG16" s="96"/>
       <c r="AH16" s="71"/>
@@ -3302,21 +3296,21 @@
         <v>23</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D17" s="56">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E17" s="90">
         <v>43965</v>
       </c>
       <c r="F17" s="90">
-        <v>43967</v>
+        <v>43981</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I17" s="44"/>
       <c r="J17" s="44"/>
@@ -3328,24 +3322,32 @@
       <c r="P17" s="94"/>
       <c r="Q17" s="44"/>
       <c r="R17" s="44" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="S17" s="44"/>
-      <c r="T17" s="93"/>
+      <c r="T17" s="93" t="s">
+        <v>53</v>
+      </c>
       <c r="U17" s="96"/>
       <c r="V17" s="96"/>
       <c r="W17" s="96"/>
       <c r="X17" s="94"/>
-      <c r="Y17" s="44"/>
+      <c r="Y17" s="44" t="s">
+        <v>53</v>
+      </c>
       <c r="Z17" s="44"/>
-      <c r="AA17" s="93"/>
+      <c r="AA17" s="93" t="s">
+        <v>53</v>
+      </c>
       <c r="AB17" s="96"/>
       <c r="AC17" s="96"/>
       <c r="AD17" s="94"/>
       <c r="AE17" s="44"/>
       <c r="AF17" s="93"/>
       <c r="AG17" s="96"/>
-      <c r="AH17" s="71"/>
+      <c r="AH17" s="71" t="s">
+        <v>53</v>
+      </c>
       <c r="AI17" s="96"/>
       <c r="AJ17" s="96"/>
       <c r="AK17" s="94"/>
@@ -3383,21 +3385,21 @@
         <v>24</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D18" s="56">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E18" s="90">
         <v>43972</v>
       </c>
       <c r="F18" s="90">
-        <v>43974</v>
+        <v>43981</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
@@ -3415,9 +3417,7 @@
       <c r="V18" s="96"/>
       <c r="W18" s="96"/>
       <c r="X18" s="94"/>
-      <c r="Y18" s="48" t="s">
-        <v>57</v>
-      </c>
+      <c r="Y18" s="48"/>
       <c r="Z18" s="44"/>
       <c r="AA18" s="93"/>
       <c r="AB18" s="96"/>
@@ -3464,21 +3464,21 @@
         <v>25</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D19" s="56">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="E19" s="90">
         <v>43972</v>
       </c>
       <c r="F19" s="90">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="5">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" s="44"/>
       <c r="J19" s="44"/>
@@ -3497,10 +3497,14 @@
       <c r="W19" s="96"/>
       <c r="X19" s="94"/>
       <c r="Y19" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z19" s="44"/>
-      <c r="AA19" s="93"/>
+        <v>53</v>
+      </c>
+      <c r="Z19" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA19" s="93" t="s">
+        <v>53</v>
+      </c>
       <c r="AB19" s="96"/>
       <c r="AC19" s="96"/>
       <c r="AD19" s="94"/>
@@ -3653,9 +3657,7 @@
       <c r="AA21" s="93"/>
       <c r="AB21" s="96"/>
       <c r="AC21" s="96"/>
-      <c r="AD21" s="94" t="s">
-        <v>46</v>
-      </c>
+      <c r="AD21" s="94"/>
       <c r="AE21" s="44"/>
       <c r="AF21" s="93"/>
       <c r="AG21" s="96"/>
@@ -3697,21 +3699,21 @@
         <v>27</v>
       </c>
       <c r="C22" s="64" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D22" s="65">
         <v>0</v>
       </c>
       <c r="E22" s="91">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="F22" s="91">
-        <v>43974</v>
+        <v>43977</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="5">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
@@ -3730,9 +3732,7 @@
       <c r="W22" s="96"/>
       <c r="X22" s="94"/>
       <c r="Y22" s="44"/>
-      <c r="Z22" s="44" t="s">
-        <v>48</v>
-      </c>
+      <c r="Z22" s="44"/>
       <c r="AA22" s="93"/>
       <c r="AB22" s="96"/>
       <c r="AC22" s="96"/>
@@ -3778,13 +3778,13 @@
         <v>29</v>
       </c>
       <c r="C23" s="64" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D23" s="65">
         <v>0</v>
       </c>
       <c r="E23" s="91">
-        <v>43974</v>
+        <v>43977</v>
       </c>
       <c r="F23" s="91">
         <v>43977</v>
@@ -3792,7 +3792,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="5">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I23" s="44"/>
       <c r="J23" s="44"/>
@@ -3812,9 +3812,7 @@
       <c r="X23" s="94"/>
       <c r="Y23" s="44"/>
       <c r="Z23" s="44"/>
-      <c r="AA23" s="93" t="s">
-        <v>48</v>
-      </c>
+      <c r="AA23" s="93"/>
       <c r="AB23" s="96"/>
       <c r="AC23" s="96"/>
       <c r="AD23" s="94"/>
@@ -3903,9 +3901,7 @@
       <c r="AH24" s="71"/>
       <c r="AI24" s="96"/>
       <c r="AJ24" s="96"/>
-      <c r="AK24" s="94" t="s">
-        <v>46</v>
-      </c>
+      <c r="AK24" s="94"/>
       <c r="AL24" s="44"/>
       <c r="AM24" s="44"/>
       <c r="AN24" s="44"/>
@@ -3940,7 +3936,7 @@
         <v>31</v>
       </c>
       <c r="C25" s="64" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D25" s="65">
         <v>0</v>
@@ -3984,9 +3980,7 @@
       <c r="AH25" s="71"/>
       <c r="AI25" s="96"/>
       <c r="AJ25" s="96"/>
-      <c r="AK25" s="94" t="s">
-        <v>48</v>
-      </c>
+      <c r="AK25" s="94"/>
       <c r="AL25" s="44"/>
       <c r="AM25" s="44"/>
       <c r="AN25" s="44"/>
@@ -4089,7 +4083,7 @@
     <row r="27" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="72" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C27" s="73"/>
       <c r="D27" s="74"/>
@@ -4239,7 +4233,7 @@
     <row r="29" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="72" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C29" s="73"/>
       <c r="D29" s="74"/>
@@ -4314,7 +4308,7 @@
     <row r="30" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="72" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C30" s="73" t="s">
         <v>33</v>
@@ -4391,9 +4385,11 @@
     <row r="31" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="73"/>
+        <v>55</v>
+      </c>
+      <c r="C31" s="73" t="s">
+        <v>54</v>
+      </c>
       <c r="D31" s="74"/>
       <c r="E31" s="92"/>
       <c r="F31" s="92"/>
@@ -4402,34 +4398,34 @@
       <c r="I31" s="44"/>
       <c r="J31" s="44"/>
       <c r="K31" s="102" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L31" s="96"/>
       <c r="M31" s="103" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N31" s="96"/>
       <c r="O31" s="96"/>
       <c r="P31" s="106" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q31" s="106" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="R31" s="106" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="S31" s="106" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="T31" s="106" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="U31" s="96"/>
       <c r="V31" s="96"/>
       <c r="W31" s="96"/>
       <c r="X31" s="106" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Y31" s="116"/>
       <c r="Z31" s="98"/>
@@ -4451,14 +4447,14 @@
       <c r="AP31" s="96"/>
       <c r="AQ31" s="96"/>
       <c r="AR31" s="109" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AS31" s="109" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AT31" s="94"/>
       <c r="AU31" s="105" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AV31" s="93"/>
       <c r="AW31" s="96"/>
@@ -4478,15 +4474,17 @@
       <c r="BK31" s="96"/>
       <c r="BL31" s="96"/>
       <c r="BN31" s="40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="73"/>
+        <v>55</v>
+      </c>
+      <c r="C32" s="73" t="s">
+        <v>28</v>
+      </c>
       <c r="D32" s="74"/>
       <c r="E32" s="92"/>
       <c r="F32" s="92"/>
@@ -4495,43 +4493,43 @@
       <c r="I32" s="44"/>
       <c r="J32" s="44"/>
       <c r="K32" s="102" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L32" s="96"/>
       <c r="M32" s="103" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N32" s="96"/>
       <c r="O32" s="96"/>
       <c r="P32" s="106" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q32" s="106" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R32" s="106" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S32" s="117" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="T32" s="106" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="U32" s="96"/>
       <c r="V32" s="96"/>
       <c r="W32" s="96"/>
       <c r="X32" s="106" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Y32" s="106" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Z32" s="106" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AA32" s="106" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AB32" s="96"/>
       <c r="AC32" s="96"/>
@@ -4540,7 +4538,7 @@
       <c r="AF32" s="93"/>
       <c r="AG32" s="96"/>
       <c r="AH32" s="103" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AI32" s="96"/>
       <c r="AJ32" s="96"/>
@@ -4548,7 +4546,7 @@
       <c r="AL32" s="44"/>
       <c r="AM32" s="44"/>
       <c r="AN32" s="105" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AO32" s="93"/>
       <c r="AP32" s="96"/>
@@ -4575,15 +4573,17 @@
       <c r="BK32" s="96"/>
       <c r="BL32" s="96"/>
       <c r="BN32" s="40" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="73"/>
+        <v>55</v>
+      </c>
+      <c r="C33" s="73" t="s">
+        <v>20</v>
+      </c>
       <c r="D33" s="74"/>
       <c r="E33" s="92"/>
       <c r="F33" s="92"/>
@@ -4597,20 +4597,20 @@
       <c r="K33" s="93"/>
       <c r="L33" s="96"/>
       <c r="M33" s="103" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N33" s="96"/>
       <c r="O33" s="96"/>
       <c r="P33" s="62"/>
       <c r="Q33"/>
       <c r="R33" s="106" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="S33" s="106" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="T33" s="110" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="U33" s="96"/>
       <c r="V33" s="96"/>
@@ -4618,32 +4618,32 @@
       <c r="X33" s="100"/>
       <c r="Y33" s="101"/>
       <c r="Z33" s="108" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AA33" s="108" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AB33" s="96"/>
       <c r="AC33" s="96"/>
       <c r="AD33" s="94"/>
       <c r="AE33" s="44"/>
       <c r="AF33" s="102" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AG33" s="96"/>
       <c r="AH33" s="103" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AI33" s="96"/>
       <c r="AJ33" s="96"/>
       <c r="AK33" s="104" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AL33" s="44"/>
       <c r="AM33" s="44"/>
       <c r="AN33" s="44"/>
       <c r="AO33" s="102" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AP33" s="96"/>
       <c r="AQ33" s="96"/>
@@ -4669,15 +4669,17 @@
       <c r="BK33" s="96"/>
       <c r="BL33" s="96"/>
       <c r="BN33" s="40" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="111" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="112"/>
+        <v>55</v>
+      </c>
+      <c r="C34" s="112" t="s">
+        <v>48</v>
+      </c>
       <c r="D34" s="113"/>
       <c r="E34" s="114"/>
       <c r="F34" s="114"/>
@@ -4688,14 +4690,14 @@
       <c r="K34" s="39"/>
       <c r="L34" s="96"/>
       <c r="M34" s="109" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="N34" s="96"/>
       <c r="O34" s="96"/>
       <c r="P34" s="95"/>
       <c r="Q34"/>
       <c r="R34" s="115" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="S34"/>
       <c r="T34"/>
@@ -4703,20 +4705,22 @@
       <c r="V34" s="96"/>
       <c r="W34" s="96"/>
       <c r="X34" s="106" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Y34" s="95"/>
       <c r="Z34" s="106" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AA34" s="106" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AB34" s="96"/>
       <c r="AC34" s="96"/>
       <c r="AD34" s="39"/>
       <c r="AE34" s="39"/>
-      <c r="AF34"/>
+      <c r="AF34" s="109" t="s">
+        <v>36</v>
+      </c>
       <c r="AG34" s="96"/>
       <c r="AH34"/>
       <c r="AI34" s="96"/>
@@ -4749,6 +4753,9 @@
       <c r="BJ34" s="39"/>
       <c r="BK34" s="96"/>
       <c r="BL34" s="96"/>
+      <c r="BN34" s="40" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="35" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -4902,16 +4909,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4920,6 +4917,16 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D36">
     <cfRule type="dataBar" priority="23">
@@ -5033,23 +5040,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5365,29 +5361,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5414,9 +5410,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testdisk-7.2-WIP.win64\testdisk-7.2-WIP\backup\old_notebook\old_notebook\Desktop\RestoreFirstInstallationT580\anderScore\GitLab-Training\gitlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD78E82-42EE-4294-B455-2E8C738BDFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3F44EB-3733-4E13-B885-4FDA940C2206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1249,22 +1249,19 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1277,14 +1274,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1865,8 +1865,8 @@
   </sheetPr>
   <dimension ref="A1:BN39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="V13" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="BP32" sqref="BP32"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1892,28 +1892,28 @@
       <c r="E1" s="14"/>
       <c r="F1" s="15"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="128" t="s">
+      <c r="I1" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
       <c r="P1" s="18"/>
-      <c r="Q1" s="126">
+      <c r="Q1" s="125">
         <v>43956</v>
       </c>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
     </row>
     <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="87" t="s">
@@ -1923,28 +1923,28 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
-      <c r="I2" s="128" t="s">
+      <c r="I2" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
       <c r="P2" s="18"/>
-      <c r="Q2" s="124">
+      <c r="Q2" s="123">
         <v>1</v>
       </c>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="125"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
+      <c r="Z2" s="124"/>
     </row>
     <row r="3" spans="1:65" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -1956,102 +1956,102 @@
       <c r="A4" s="8"/>
       <c r="B4" s="23"/>
       <c r="E4" s="24"/>
-      <c r="I4" s="132">
+      <c r="I4" s="120">
         <f>I5</f>
         <v>43956</v>
       </c>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="130"/>
-      <c r="N4" s="130"/>
-      <c r="O4" s="130"/>
-      <c r="P4" s="130">
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118">
         <f>P5</f>
         <v>43963</v>
       </c>
-      <c r="Q4" s="130"/>
-      <c r="R4" s="130"/>
-      <c r="S4" s="130"/>
-      <c r="T4" s="130"/>
-      <c r="U4" s="130"/>
-      <c r="V4" s="130"/>
-      <c r="W4" s="130">
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118">
         <f>W5</f>
         <v>43970</v>
       </c>
-      <c r="X4" s="130"/>
-      <c r="Y4" s="130"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="130"/>
-      <c r="AB4" s="130"/>
-      <c r="AC4" s="130"/>
-      <c r="AD4" s="130">
+      <c r="X4" s="118"/>
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="118"/>
+      <c r="AA4" s="118"/>
+      <c r="AB4" s="118"/>
+      <c r="AC4" s="118"/>
+      <c r="AD4" s="118">
         <f>AD5</f>
         <v>43977</v>
       </c>
-      <c r="AE4" s="130"/>
-      <c r="AF4" s="130"/>
-      <c r="AG4" s="130"/>
-      <c r="AH4" s="130"/>
-      <c r="AI4" s="130"/>
-      <c r="AJ4" s="130"/>
-      <c r="AK4" s="130">
+      <c r="AE4" s="118"/>
+      <c r="AF4" s="118"/>
+      <c r="AG4" s="118"/>
+      <c r="AH4" s="118"/>
+      <c r="AI4" s="118"/>
+      <c r="AJ4" s="118"/>
+      <c r="AK4" s="118">
         <f>AK5</f>
         <v>43984</v>
       </c>
-      <c r="AL4" s="130"/>
-      <c r="AM4" s="130"/>
-      <c r="AN4" s="130"/>
-      <c r="AO4" s="130"/>
-      <c r="AP4" s="130"/>
-      <c r="AQ4" s="130"/>
-      <c r="AR4" s="130">
+      <c r="AL4" s="118"/>
+      <c r="AM4" s="118"/>
+      <c r="AN4" s="118"/>
+      <c r="AO4" s="118"/>
+      <c r="AP4" s="118"/>
+      <c r="AQ4" s="118"/>
+      <c r="AR4" s="118">
         <f>AR5</f>
         <v>43991</v>
       </c>
-      <c r="AS4" s="130"/>
-      <c r="AT4" s="130"/>
-      <c r="AU4" s="130"/>
-      <c r="AV4" s="130"/>
-      <c r="AW4" s="130"/>
-      <c r="AX4" s="130"/>
-      <c r="AY4" s="130">
+      <c r="AS4" s="118"/>
+      <c r="AT4" s="118"/>
+      <c r="AU4" s="118"/>
+      <c r="AV4" s="118"/>
+      <c r="AW4" s="118"/>
+      <c r="AX4" s="118"/>
+      <c r="AY4" s="118">
         <f>AY5</f>
         <v>43998</v>
       </c>
-      <c r="AZ4" s="130"/>
-      <c r="BA4" s="130"/>
-      <c r="BB4" s="130"/>
-      <c r="BC4" s="130"/>
-      <c r="BD4" s="130"/>
-      <c r="BE4" s="130"/>
-      <c r="BF4" s="130">
+      <c r="AZ4" s="118"/>
+      <c r="BA4" s="118"/>
+      <c r="BB4" s="118"/>
+      <c r="BC4" s="118"/>
+      <c r="BD4" s="118"/>
+      <c r="BE4" s="118"/>
+      <c r="BF4" s="118">
         <f>BF5</f>
         <v>44005</v>
       </c>
-      <c r="BG4" s="130"/>
-      <c r="BH4" s="130"/>
-      <c r="BI4" s="130"/>
-      <c r="BJ4" s="130"/>
-      <c r="BK4" s="130"/>
-      <c r="BL4" s="131"/>
+      <c r="BG4" s="118"/>
+      <c r="BH4" s="118"/>
+      <c r="BI4" s="118"/>
+      <c r="BJ4" s="118"/>
+      <c r="BK4" s="118"/>
+      <c r="BL4" s="119"/>
     </row>
     <row r="5" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="118"/>
-      <c r="B5" s="119" t="s">
+      <c r="A5" s="129"/>
+      <c r="B5" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="121" t="s">
+      <c r="C5" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="123" t="s">
+      <c r="E5" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="123" t="s">
+      <c r="F5" s="121" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="25">
@@ -2280,8 +2280,8 @@
       </c>
     </row>
     <row r="6" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="118"/>
-      <c r="B6" s="120"/>
+      <c r="A6" s="129"/>
+      <c r="B6" s="131"/>
       <c r="C6" s="122"/>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
@@ -2689,10 +2689,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="88">
-        <v>43981</v>
+        <v>43978</v>
       </c>
       <c r="F9" s="88">
-        <v>43981</v>
+        <v>43978</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="5">
@@ -3467,7 +3467,7 @@
         <v>42</v>
       </c>
       <c r="D19" s="56">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E19" s="90">
         <v>43972</v>
@@ -3705,15 +3705,15 @@
         <v>0</v>
       </c>
       <c r="E22" s="91">
-        <v>43974</v>
+        <v>43978</v>
       </c>
       <c r="F22" s="91">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="5">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
@@ -3784,15 +3784,15 @@
         <v>0</v>
       </c>
       <c r="E23" s="91">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="F23" s="91">
-        <v>43977</v>
+        <v>43979</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" s="44"/>
       <c r="J23" s="44"/>
@@ -4909,6 +4909,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4917,16 +4927,6 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D36">
     <cfRule type="dataBar" priority="23">
@@ -5040,12 +5040,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5361,29 +5372,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5410,20 +5421,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testdisk-7.2-WIP.win64\testdisk-7.2-WIP\backup\old_notebook\old_notebook\Desktop\RestoreFirstInstallationT580\anderScore\GitLab-Training\gitlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3F44EB-3733-4E13-B885-4FDA940C2206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603B698A-A859-477A-BF0A-2978B64CAF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1249,19 +1249,22 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1274,17 +1277,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1865,8 +1865,8 @@
   </sheetPr>
   <dimension ref="A1:BN39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1892,28 +1892,28 @@
       <c r="E1" s="14"/>
       <c r="F1" s="15"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="127" t="s">
+      <c r="I1" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
       <c r="P1" s="18"/>
-      <c r="Q1" s="125">
+      <c r="Q1" s="126">
         <v>43956</v>
       </c>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="126"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
     </row>
     <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="87" t="s">
@@ -1923,28 +1923,28 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
       <c r="P2" s="18"/>
-      <c r="Q2" s="123">
+      <c r="Q2" s="124">
         <v>1</v>
       </c>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="124"/>
-      <c r="Z2" s="124"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="125"/>
     </row>
     <row r="3" spans="1:65" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -1956,102 +1956,102 @@
       <c r="A4" s="8"/>
       <c r="B4" s="23"/>
       <c r="E4" s="24"/>
-      <c r="I4" s="120">
+      <c r="I4" s="132">
         <f>I5</f>
         <v>43956</v>
       </c>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118">
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="130"/>
+      <c r="O4" s="130"/>
+      <c r="P4" s="130">
         <f>P5</f>
         <v>43963</v>
       </c>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118">
+      <c r="Q4" s="130"/>
+      <c r="R4" s="130"/>
+      <c r="S4" s="130"/>
+      <c r="T4" s="130"/>
+      <c r="U4" s="130"/>
+      <c r="V4" s="130"/>
+      <c r="W4" s="130">
         <f>W5</f>
         <v>43970</v>
       </c>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="118"/>
-      <c r="Z4" s="118"/>
-      <c r="AA4" s="118"/>
-      <c r="AB4" s="118"/>
-      <c r="AC4" s="118"/>
-      <c r="AD4" s="118">
+      <c r="X4" s="130"/>
+      <c r="Y4" s="130"/>
+      <c r="Z4" s="130"/>
+      <c r="AA4" s="130"/>
+      <c r="AB4" s="130"/>
+      <c r="AC4" s="130"/>
+      <c r="AD4" s="130">
         <f>AD5</f>
         <v>43977</v>
       </c>
-      <c r="AE4" s="118"/>
-      <c r="AF4" s="118"/>
-      <c r="AG4" s="118"/>
-      <c r="AH4" s="118"/>
-      <c r="AI4" s="118"/>
-      <c r="AJ4" s="118"/>
-      <c r="AK4" s="118">
+      <c r="AE4" s="130"/>
+      <c r="AF4" s="130"/>
+      <c r="AG4" s="130"/>
+      <c r="AH4" s="130"/>
+      <c r="AI4" s="130"/>
+      <c r="AJ4" s="130"/>
+      <c r="AK4" s="130">
         <f>AK5</f>
         <v>43984</v>
       </c>
-      <c r="AL4" s="118"/>
-      <c r="AM4" s="118"/>
-      <c r="AN4" s="118"/>
-      <c r="AO4" s="118"/>
-      <c r="AP4" s="118"/>
-      <c r="AQ4" s="118"/>
-      <c r="AR4" s="118">
+      <c r="AL4" s="130"/>
+      <c r="AM4" s="130"/>
+      <c r="AN4" s="130"/>
+      <c r="AO4" s="130"/>
+      <c r="AP4" s="130"/>
+      <c r="AQ4" s="130"/>
+      <c r="AR4" s="130">
         <f>AR5</f>
         <v>43991</v>
       </c>
-      <c r="AS4" s="118"/>
-      <c r="AT4" s="118"/>
-      <c r="AU4" s="118"/>
-      <c r="AV4" s="118"/>
-      <c r="AW4" s="118"/>
-      <c r="AX4" s="118"/>
-      <c r="AY4" s="118">
+      <c r="AS4" s="130"/>
+      <c r="AT4" s="130"/>
+      <c r="AU4" s="130"/>
+      <c r="AV4" s="130"/>
+      <c r="AW4" s="130"/>
+      <c r="AX4" s="130"/>
+      <c r="AY4" s="130">
         <f>AY5</f>
         <v>43998</v>
       </c>
-      <c r="AZ4" s="118"/>
-      <c r="BA4" s="118"/>
-      <c r="BB4" s="118"/>
-      <c r="BC4" s="118"/>
-      <c r="BD4" s="118"/>
-      <c r="BE4" s="118"/>
-      <c r="BF4" s="118">
+      <c r="AZ4" s="130"/>
+      <c r="BA4" s="130"/>
+      <c r="BB4" s="130"/>
+      <c r="BC4" s="130"/>
+      <c r="BD4" s="130"/>
+      <c r="BE4" s="130"/>
+      <c r="BF4" s="130">
         <f>BF5</f>
         <v>44005</v>
       </c>
-      <c r="BG4" s="118"/>
-      <c r="BH4" s="118"/>
-      <c r="BI4" s="118"/>
-      <c r="BJ4" s="118"/>
-      <c r="BK4" s="118"/>
-      <c r="BL4" s="119"/>
+      <c r="BG4" s="130"/>
+      <c r="BH4" s="130"/>
+      <c r="BI4" s="130"/>
+      <c r="BJ4" s="130"/>
+      <c r="BK4" s="130"/>
+      <c r="BL4" s="131"/>
     </row>
     <row r="5" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="129"/>
-      <c r="B5" s="130" t="s">
+      <c r="A5" s="118"/>
+      <c r="B5" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="121" t="s">
+      <c r="D5" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="121" t="s">
+      <c r="E5" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="121" t="s">
+      <c r="F5" s="123" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="25">
@@ -2280,8 +2280,8 @@
       </c>
     </row>
     <row r="6" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="129"/>
-      <c r="B6" s="131"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="120"/>
       <c r="C6" s="122"/>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
@@ -3863,15 +3863,15 @@
         <v>0</v>
       </c>
       <c r="E24" s="91">
-        <v>43984</v>
+        <v>43979</v>
       </c>
       <c r="F24" s="91">
-        <v>43985</v>
+        <v>43979</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="5">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
@@ -4909,16 +4909,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4927,6 +4917,16 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D36">
     <cfRule type="dataBar" priority="23">
@@ -5040,23 +5040,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5372,29 +5361,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5421,9 +5410,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testdisk-7.2-WIP.win64\testdisk-7.2-WIP\backup\old_notebook\old_notebook\Desktop\RestoreFirstInstallationT580\anderScore\GitLab-Training\gitlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603B698A-A859-477A-BF0A-2978B64CAF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261F85BD-5863-449D-B01F-48DD9F1359D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="57">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -1249,22 +1249,19 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1277,14 +1274,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1865,8 +1865,8 @@
   </sheetPr>
   <dimension ref="A1:BN39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1892,28 +1892,28 @@
       <c r="E1" s="14"/>
       <c r="F1" s="15"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="128" t="s">
+      <c r="I1" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
       <c r="P1" s="18"/>
-      <c r="Q1" s="126">
+      <c r="Q1" s="125">
         <v>43956</v>
       </c>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
     </row>
     <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="87" t="s">
@@ -1923,28 +1923,28 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
-      <c r="I2" s="128" t="s">
+      <c r="I2" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
       <c r="P2" s="18"/>
-      <c r="Q2" s="124">
+      <c r="Q2" s="123">
         <v>1</v>
       </c>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="125"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
+      <c r="Z2" s="124"/>
     </row>
     <row r="3" spans="1:65" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -1956,102 +1956,102 @@
       <c r="A4" s="8"/>
       <c r="B4" s="23"/>
       <c r="E4" s="24"/>
-      <c r="I4" s="132">
+      <c r="I4" s="120">
         <f>I5</f>
         <v>43956</v>
       </c>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="130"/>
-      <c r="N4" s="130"/>
-      <c r="O4" s="130"/>
-      <c r="P4" s="130">
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118">
         <f>P5</f>
         <v>43963</v>
       </c>
-      <c r="Q4" s="130"/>
-      <c r="R4" s="130"/>
-      <c r="S4" s="130"/>
-      <c r="T4" s="130"/>
-      <c r="U4" s="130"/>
-      <c r="V4" s="130"/>
-      <c r="W4" s="130">
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118">
         <f>W5</f>
         <v>43970</v>
       </c>
-      <c r="X4" s="130"/>
-      <c r="Y4" s="130"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="130"/>
-      <c r="AB4" s="130"/>
-      <c r="AC4" s="130"/>
-      <c r="AD4" s="130">
+      <c r="X4" s="118"/>
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="118"/>
+      <c r="AA4" s="118"/>
+      <c r="AB4" s="118"/>
+      <c r="AC4" s="118"/>
+      <c r="AD4" s="118">
         <f>AD5</f>
         <v>43977</v>
       </c>
-      <c r="AE4" s="130"/>
-      <c r="AF4" s="130"/>
-      <c r="AG4" s="130"/>
-      <c r="AH4" s="130"/>
-      <c r="AI4" s="130"/>
-      <c r="AJ4" s="130"/>
-      <c r="AK4" s="130">
+      <c r="AE4" s="118"/>
+      <c r="AF4" s="118"/>
+      <c r="AG4" s="118"/>
+      <c r="AH4" s="118"/>
+      <c r="AI4" s="118"/>
+      <c r="AJ4" s="118"/>
+      <c r="AK4" s="118">
         <f>AK5</f>
         <v>43984</v>
       </c>
-      <c r="AL4" s="130"/>
-      <c r="AM4" s="130"/>
-      <c r="AN4" s="130"/>
-      <c r="AO4" s="130"/>
-      <c r="AP4" s="130"/>
-      <c r="AQ4" s="130"/>
-      <c r="AR4" s="130">
+      <c r="AL4" s="118"/>
+      <c r="AM4" s="118"/>
+      <c r="AN4" s="118"/>
+      <c r="AO4" s="118"/>
+      <c r="AP4" s="118"/>
+      <c r="AQ4" s="118"/>
+      <c r="AR4" s="118">
         <f>AR5</f>
         <v>43991</v>
       </c>
-      <c r="AS4" s="130"/>
-      <c r="AT4" s="130"/>
-      <c r="AU4" s="130"/>
-      <c r="AV4" s="130"/>
-      <c r="AW4" s="130"/>
-      <c r="AX4" s="130"/>
-      <c r="AY4" s="130">
+      <c r="AS4" s="118"/>
+      <c r="AT4" s="118"/>
+      <c r="AU4" s="118"/>
+      <c r="AV4" s="118"/>
+      <c r="AW4" s="118"/>
+      <c r="AX4" s="118"/>
+      <c r="AY4" s="118">
         <f>AY5</f>
         <v>43998</v>
       </c>
-      <c r="AZ4" s="130"/>
-      <c r="BA4" s="130"/>
-      <c r="BB4" s="130"/>
-      <c r="BC4" s="130"/>
-      <c r="BD4" s="130"/>
-      <c r="BE4" s="130"/>
-      <c r="BF4" s="130">
+      <c r="AZ4" s="118"/>
+      <c r="BA4" s="118"/>
+      <c r="BB4" s="118"/>
+      <c r="BC4" s="118"/>
+      <c r="BD4" s="118"/>
+      <c r="BE4" s="118"/>
+      <c r="BF4" s="118">
         <f>BF5</f>
         <v>44005</v>
       </c>
-      <c r="BG4" s="130"/>
-      <c r="BH4" s="130"/>
-      <c r="BI4" s="130"/>
-      <c r="BJ4" s="130"/>
-      <c r="BK4" s="130"/>
-      <c r="BL4" s="131"/>
+      <c r="BG4" s="118"/>
+      <c r="BH4" s="118"/>
+      <c r="BI4" s="118"/>
+      <c r="BJ4" s="118"/>
+      <c r="BK4" s="118"/>
+      <c r="BL4" s="119"/>
     </row>
     <row r="5" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="118"/>
-      <c r="B5" s="119" t="s">
+      <c r="A5" s="129"/>
+      <c r="B5" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="121" t="s">
+      <c r="C5" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="123" t="s">
+      <c r="E5" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="123" t="s">
+      <c r="F5" s="121" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="25">
@@ -2280,8 +2280,8 @@
       </c>
     </row>
     <row r="6" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="118"/>
-      <c r="B6" s="120"/>
+      <c r="A6" s="129"/>
+      <c r="B6" s="131"/>
       <c r="C6" s="122"/>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
@@ -2765,7 +2765,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="47">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="E10" s="89">
         <v>43956</v>
@@ -2860,7 +2860,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="47">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="E11" s="89">
         <v>43963</v>
@@ -2949,7 +2949,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="47">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E12" s="89">
         <v>43977</v>
@@ -2983,7 +2983,9 @@
       <c r="AA12" s="93"/>
       <c r="AB12" s="96"/>
       <c r="AC12" s="96"/>
-      <c r="AD12" s="94"/>
+      <c r="AD12" s="94" t="s">
+        <v>53</v>
+      </c>
       <c r="AE12" s="44"/>
       <c r="AF12" s="93"/>
       <c r="AG12" s="96"/>
@@ -3031,15 +3033,15 @@
         <v>0</v>
       </c>
       <c r="E13" s="89">
-        <v>43977</v>
+        <v>43985</v>
       </c>
       <c r="F13" s="89">
-        <v>43977</v>
+        <v>43986</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
@@ -3657,7 +3659,9 @@
       <c r="AA21" s="93"/>
       <c r="AB21" s="96"/>
       <c r="AC21" s="96"/>
-      <c r="AD21" s="94"/>
+      <c r="AD21" s="94" t="s">
+        <v>53</v>
+      </c>
       <c r="AE21" s="44"/>
       <c r="AF21" s="93"/>
       <c r="AG21" s="96"/>
@@ -3702,13 +3706,13 @@
         <v>42</v>
       </c>
       <c r="D22" s="65">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E22" s="91">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="F22" s="91">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="5">
@@ -3736,7 +3740,9 @@
       <c r="AA22" s="93"/>
       <c r="AB22" s="96"/>
       <c r="AC22" s="96"/>
-      <c r="AD22" s="94"/>
+      <c r="AD22" s="94" t="s">
+        <v>53</v>
+      </c>
       <c r="AE22" s="44"/>
       <c r="AF22" s="93"/>
       <c r="AG22" s="96"/>
@@ -4909,6 +4915,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4917,16 +4933,6 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D36">
     <cfRule type="dataBar" priority="23">
@@ -5040,12 +5046,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5361,29 +5378,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5410,20 +5427,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testdisk-7.2-WIP.win64\testdisk-7.2-WIP\backup\old_notebook\old_notebook\Desktop\RestoreFirstInstallationT580\anderScore\GitLab-Training\gitlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261F85BD-5863-449D-B01F-48DD9F1359D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1671FE3-E9D9-4552-BCF1-D872C85DBDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1249,19 +1249,22 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1274,17 +1277,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1866,7 +1866,7 @@
   <dimension ref="A1:BN39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1892,28 +1892,28 @@
       <c r="E1" s="14"/>
       <c r="F1" s="15"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="127" t="s">
+      <c r="I1" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
       <c r="P1" s="18"/>
-      <c r="Q1" s="125">
+      <c r="Q1" s="126">
         <v>43956</v>
       </c>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="126"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
     </row>
     <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="87" t="s">
@@ -1923,28 +1923,28 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
       <c r="P2" s="18"/>
-      <c r="Q2" s="123">
+      <c r="Q2" s="124">
         <v>1</v>
       </c>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="124"/>
-      <c r="Z2" s="124"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="125"/>
     </row>
     <row r="3" spans="1:65" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -1956,102 +1956,102 @@
       <c r="A4" s="8"/>
       <c r="B4" s="23"/>
       <c r="E4" s="24"/>
-      <c r="I4" s="120">
+      <c r="I4" s="132">
         <f>I5</f>
         <v>43956</v>
       </c>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118">
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="130"/>
+      <c r="O4" s="130"/>
+      <c r="P4" s="130">
         <f>P5</f>
         <v>43963</v>
       </c>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118">
+      <c r="Q4" s="130"/>
+      <c r="R4" s="130"/>
+      <c r="S4" s="130"/>
+      <c r="T4" s="130"/>
+      <c r="U4" s="130"/>
+      <c r="V4" s="130"/>
+      <c r="W4" s="130">
         <f>W5</f>
         <v>43970</v>
       </c>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="118"/>
-      <c r="Z4" s="118"/>
-      <c r="AA4" s="118"/>
-      <c r="AB4" s="118"/>
-      <c r="AC4" s="118"/>
-      <c r="AD4" s="118">
+      <c r="X4" s="130"/>
+      <c r="Y4" s="130"/>
+      <c r="Z4" s="130"/>
+      <c r="AA4" s="130"/>
+      <c r="AB4" s="130"/>
+      <c r="AC4" s="130"/>
+      <c r="AD4" s="130">
         <f>AD5</f>
         <v>43977</v>
       </c>
-      <c r="AE4" s="118"/>
-      <c r="AF4" s="118"/>
-      <c r="AG4" s="118"/>
-      <c r="AH4" s="118"/>
-      <c r="AI4" s="118"/>
-      <c r="AJ4" s="118"/>
-      <c r="AK4" s="118">
+      <c r="AE4" s="130"/>
+      <c r="AF4" s="130"/>
+      <c r="AG4" s="130"/>
+      <c r="AH4" s="130"/>
+      <c r="AI4" s="130"/>
+      <c r="AJ4" s="130"/>
+      <c r="AK4" s="130">
         <f>AK5</f>
         <v>43984</v>
       </c>
-      <c r="AL4" s="118"/>
-      <c r="AM4" s="118"/>
-      <c r="AN4" s="118"/>
-      <c r="AO4" s="118"/>
-      <c r="AP4" s="118"/>
-      <c r="AQ4" s="118"/>
-      <c r="AR4" s="118">
+      <c r="AL4" s="130"/>
+      <c r="AM4" s="130"/>
+      <c r="AN4" s="130"/>
+      <c r="AO4" s="130"/>
+      <c r="AP4" s="130"/>
+      <c r="AQ4" s="130"/>
+      <c r="AR4" s="130">
         <f>AR5</f>
         <v>43991</v>
       </c>
-      <c r="AS4" s="118"/>
-      <c r="AT4" s="118"/>
-      <c r="AU4" s="118"/>
-      <c r="AV4" s="118"/>
-      <c r="AW4" s="118"/>
-      <c r="AX4" s="118"/>
-      <c r="AY4" s="118">
+      <c r="AS4" s="130"/>
+      <c r="AT4" s="130"/>
+      <c r="AU4" s="130"/>
+      <c r="AV4" s="130"/>
+      <c r="AW4" s="130"/>
+      <c r="AX4" s="130"/>
+      <c r="AY4" s="130">
         <f>AY5</f>
         <v>43998</v>
       </c>
-      <c r="AZ4" s="118"/>
-      <c r="BA4" s="118"/>
-      <c r="BB4" s="118"/>
-      <c r="BC4" s="118"/>
-      <c r="BD4" s="118"/>
-      <c r="BE4" s="118"/>
-      <c r="BF4" s="118">
+      <c r="AZ4" s="130"/>
+      <c r="BA4" s="130"/>
+      <c r="BB4" s="130"/>
+      <c r="BC4" s="130"/>
+      <c r="BD4" s="130"/>
+      <c r="BE4" s="130"/>
+      <c r="BF4" s="130">
         <f>BF5</f>
         <v>44005</v>
       </c>
-      <c r="BG4" s="118"/>
-      <c r="BH4" s="118"/>
-      <c r="BI4" s="118"/>
-      <c r="BJ4" s="118"/>
-      <c r="BK4" s="118"/>
-      <c r="BL4" s="119"/>
+      <c r="BG4" s="130"/>
+      <c r="BH4" s="130"/>
+      <c r="BI4" s="130"/>
+      <c r="BJ4" s="130"/>
+      <c r="BK4" s="130"/>
+      <c r="BL4" s="131"/>
     </row>
     <row r="5" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="129"/>
-      <c r="B5" s="130" t="s">
+      <c r="A5" s="118"/>
+      <c r="B5" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="121" t="s">
+      <c r="D5" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="121" t="s">
+      <c r="E5" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="121" t="s">
+      <c r="F5" s="123" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="25">
@@ -2280,8 +2280,8 @@
       </c>
     </row>
     <row r="6" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="129"/>
-      <c r="B6" s="131"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="120"/>
       <c r="C6" s="122"/>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
@@ -3706,18 +3706,18 @@
         <v>42</v>
       </c>
       <c r="D22" s="65">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="E22" s="91">
         <v>43977</v>
       </c>
       <c r="F22" s="91">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
@@ -4915,16 +4915,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4933,6 +4923,16 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D36">
     <cfRule type="dataBar" priority="23">
@@ -5046,23 +5046,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5378,29 +5367,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5427,9 +5416,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testdisk-7.2-WIP.win64\testdisk-7.2-WIP\backup\old_notebook\old_notebook\Desktop\RestoreFirstInstallationT580\anderScore\GitLab-Training\gitlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1671FE3-E9D9-4552-BCF1-D872C85DBDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7339313F-735A-42A9-ABC9-186EBE0AA7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="57">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -1249,22 +1249,19 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1277,14 +1274,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1865,8 +1865,8 @@
   </sheetPr>
   <dimension ref="A1:BN39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AO28" sqref="AO28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1892,28 +1892,28 @@
       <c r="E1" s="14"/>
       <c r="F1" s="15"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="128" t="s">
+      <c r="I1" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
       <c r="P1" s="18"/>
-      <c r="Q1" s="126">
+      <c r="Q1" s="125">
         <v>43956</v>
       </c>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
     </row>
     <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="87" t="s">
@@ -1923,28 +1923,28 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
-      <c r="I2" s="128" t="s">
+      <c r="I2" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
       <c r="P2" s="18"/>
-      <c r="Q2" s="124">
+      <c r="Q2" s="123">
         <v>1</v>
       </c>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="125"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
+      <c r="Z2" s="124"/>
     </row>
     <row r="3" spans="1:65" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -1956,102 +1956,102 @@
       <c r="A4" s="8"/>
       <c r="B4" s="23"/>
       <c r="E4" s="24"/>
-      <c r="I4" s="132">
+      <c r="I4" s="120">
         <f>I5</f>
         <v>43956</v>
       </c>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="130"/>
-      <c r="N4" s="130"/>
-      <c r="O4" s="130"/>
-      <c r="P4" s="130">
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118">
         <f>P5</f>
         <v>43963</v>
       </c>
-      <c r="Q4" s="130"/>
-      <c r="R4" s="130"/>
-      <c r="S4" s="130"/>
-      <c r="T4" s="130"/>
-      <c r="U4" s="130"/>
-      <c r="V4" s="130"/>
-      <c r="W4" s="130">
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118">
         <f>W5</f>
         <v>43970</v>
       </c>
-      <c r="X4" s="130"/>
-      <c r="Y4" s="130"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="130"/>
-      <c r="AB4" s="130"/>
-      <c r="AC4" s="130"/>
-      <c r="AD4" s="130">
+      <c r="X4" s="118"/>
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="118"/>
+      <c r="AA4" s="118"/>
+      <c r="AB4" s="118"/>
+      <c r="AC4" s="118"/>
+      <c r="AD4" s="118">
         <f>AD5</f>
         <v>43977</v>
       </c>
-      <c r="AE4" s="130"/>
-      <c r="AF4" s="130"/>
-      <c r="AG4" s="130"/>
-      <c r="AH4" s="130"/>
-      <c r="AI4" s="130"/>
-      <c r="AJ4" s="130"/>
-      <c r="AK4" s="130">
+      <c r="AE4" s="118"/>
+      <c r="AF4" s="118"/>
+      <c r="AG4" s="118"/>
+      <c r="AH4" s="118"/>
+      <c r="AI4" s="118"/>
+      <c r="AJ4" s="118"/>
+      <c r="AK4" s="118">
         <f>AK5</f>
         <v>43984</v>
       </c>
-      <c r="AL4" s="130"/>
-      <c r="AM4" s="130"/>
-      <c r="AN4" s="130"/>
-      <c r="AO4" s="130"/>
-      <c r="AP4" s="130"/>
-      <c r="AQ4" s="130"/>
-      <c r="AR4" s="130">
+      <c r="AL4" s="118"/>
+      <c r="AM4" s="118"/>
+      <c r="AN4" s="118"/>
+      <c r="AO4" s="118"/>
+      <c r="AP4" s="118"/>
+      <c r="AQ4" s="118"/>
+      <c r="AR4" s="118">
         <f>AR5</f>
         <v>43991</v>
       </c>
-      <c r="AS4" s="130"/>
-      <c r="AT4" s="130"/>
-      <c r="AU4" s="130"/>
-      <c r="AV4" s="130"/>
-      <c r="AW4" s="130"/>
-      <c r="AX4" s="130"/>
-      <c r="AY4" s="130">
+      <c r="AS4" s="118"/>
+      <c r="AT4" s="118"/>
+      <c r="AU4" s="118"/>
+      <c r="AV4" s="118"/>
+      <c r="AW4" s="118"/>
+      <c r="AX4" s="118"/>
+      <c r="AY4" s="118">
         <f>AY5</f>
         <v>43998</v>
       </c>
-      <c r="AZ4" s="130"/>
-      <c r="BA4" s="130"/>
-      <c r="BB4" s="130"/>
-      <c r="BC4" s="130"/>
-      <c r="BD4" s="130"/>
-      <c r="BE4" s="130"/>
-      <c r="BF4" s="130">
+      <c r="AZ4" s="118"/>
+      <c r="BA4" s="118"/>
+      <c r="BB4" s="118"/>
+      <c r="BC4" s="118"/>
+      <c r="BD4" s="118"/>
+      <c r="BE4" s="118"/>
+      <c r="BF4" s="118">
         <f>BF5</f>
         <v>44005</v>
       </c>
-      <c r="BG4" s="130"/>
-      <c r="BH4" s="130"/>
-      <c r="BI4" s="130"/>
-      <c r="BJ4" s="130"/>
-      <c r="BK4" s="130"/>
-      <c r="BL4" s="131"/>
+      <c r="BG4" s="118"/>
+      <c r="BH4" s="118"/>
+      <c r="BI4" s="118"/>
+      <c r="BJ4" s="118"/>
+      <c r="BK4" s="118"/>
+      <c r="BL4" s="119"/>
     </row>
     <row r="5" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="118"/>
-      <c r="B5" s="119" t="s">
+      <c r="A5" s="129"/>
+      <c r="B5" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="121" t="s">
+      <c r="C5" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="123" t="s">
+      <c r="E5" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="123" t="s">
+      <c r="F5" s="121" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="25">
@@ -2280,8 +2280,8 @@
       </c>
     </row>
     <row r="6" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="118"/>
-      <c r="B6" s="120"/>
+      <c r="A6" s="129"/>
+      <c r="B6" s="131"/>
       <c r="C6" s="122"/>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
@@ -2689,10 +2689,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="88">
-        <v>43978</v>
+        <v>43986</v>
       </c>
       <c r="F9" s="88">
-        <v>43978</v>
+        <v>43986</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="5">
@@ -2949,7 +2949,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="47">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E12" s="89">
         <v>43977</v>
@@ -3178,7 +3178,9 @@
       <c r="AB15" s="96"/>
       <c r="AC15" s="96"/>
       <c r="AD15" s="94"/>
-      <c r="AE15" s="44"/>
+      <c r="AE15" s="44" t="s">
+        <v>53</v>
+      </c>
       <c r="AF15" s="93"/>
       <c r="AG15" s="96"/>
       <c r="AH15" s="71"/>
@@ -3625,7 +3627,7 @@
         <v>28</v>
       </c>
       <c r="D21" s="65">
-        <v>0.25</v>
+        <v>0.85</v>
       </c>
       <c r="E21" s="91">
         <v>43977</v>
@@ -3662,7 +3664,9 @@
       <c r="AD21" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="AE21" s="44"/>
+      <c r="AE21" s="44" t="s">
+        <v>53</v>
+      </c>
       <c r="AF21" s="93"/>
       <c r="AG21" s="96"/>
       <c r="AH21" s="71"/>
@@ -3706,7 +3710,7 @@
         <v>42</v>
       </c>
       <c r="D22" s="65">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="E22" s="91">
         <v>43977</v>
@@ -3743,7 +3747,9 @@
       <c r="AD22" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="AE22" s="44"/>
+      <c r="AE22" s="44" t="s">
+        <v>53</v>
+      </c>
       <c r="AF22" s="93"/>
       <c r="AG22" s="96"/>
       <c r="AH22" s="71"/>
@@ -4458,7 +4464,9 @@
       <c r="AS31" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="AT31" s="94"/>
+      <c r="AT31" s="104" t="s">
+        <v>36</v>
+      </c>
       <c r="AU31" s="105" t="s">
         <v>38</v>
       </c>
@@ -4915,6 +4923,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4923,16 +4941,6 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D36">
     <cfRule type="dataBar" priority="23">
@@ -5046,12 +5054,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5367,29 +5386,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5416,20 +5435,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testdisk-7.2-WIP.win64\testdisk-7.2-WIP\backup\old_notebook\old_notebook\Desktop\RestoreFirstInstallationT580\anderScore\GitLab-Training\gitlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7339313F-735A-42A9-ABC9-186EBE0AA7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D127456D-6148-42FB-B8F1-7A40F454CD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="57">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -1865,8 +1865,8 @@
   </sheetPr>
   <dimension ref="A1:BN39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AO28" sqref="AO28"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3143,7 +3143,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="90">
         <v>43978</v>
@@ -3224,18 +3224,18 @@
         <v>20</v>
       </c>
       <c r="D16" s="56">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E16" s="90">
         <v>43978</v>
       </c>
       <c r="F16" s="90">
-        <v>43978</v>
+        <v>43985</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
@@ -3259,7 +3259,9 @@
       <c r="AB16" s="96"/>
       <c r="AC16" s="96"/>
       <c r="AD16" s="94"/>
-      <c r="AE16" s="44"/>
+      <c r="AE16" s="44" t="s">
+        <v>53</v>
+      </c>
       <c r="AF16" s="93"/>
       <c r="AG16" s="96"/>
       <c r="AH16" s="71"/>

--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testdisk-7.2-WIP.win64\testdisk-7.2-WIP\backup\old_notebook\old_notebook\Desktop\RestoreFirstInstallationT580\anderScore\GitLab-Training\gitlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D127456D-6148-42FB-B8F1-7A40F454CD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E982E1-512E-4955-B0A0-B688DD747063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="56">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>Praktische Übungen</t>
-  </si>
-  <si>
-    <t>Pungewiß</t>
   </si>
   <si>
     <t>CKeutner</t>
@@ -1249,19 +1246,22 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1274,17 +1274,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1865,8 +1862,8 @@
   </sheetPr>
   <dimension ref="A1:BN39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C23"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AT27" sqref="AT27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1885,35 +1882,35 @@
     <row r="1" spans="1:65" ht="90" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A1" s="8"/>
       <c r="B1" s="86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="13"/>
       <c r="E1" s="14"/>
       <c r="F1" s="15"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="127" t="s">
+      <c r="I1" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
       <c r="P1" s="18"/>
-      <c r="Q1" s="125">
+      <c r="Q1" s="126">
         <v>43956</v>
       </c>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="126"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
     </row>
     <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="87" t="s">
@@ -1923,28 +1920,28 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
       <c r="P2" s="18"/>
-      <c r="Q2" s="123">
+      <c r="Q2" s="124">
         <v>1</v>
       </c>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="124"/>
-      <c r="Z2" s="124"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="125"/>
     </row>
     <row r="3" spans="1:65" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -1956,102 +1953,102 @@
       <c r="A4" s="8"/>
       <c r="B4" s="23"/>
       <c r="E4" s="24"/>
-      <c r="I4" s="120">
+      <c r="I4" s="132">
         <f>I5</f>
         <v>43956</v>
       </c>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118">
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="130"/>
+      <c r="O4" s="130"/>
+      <c r="P4" s="130">
         <f>P5</f>
         <v>43963</v>
       </c>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118">
+      <c r="Q4" s="130"/>
+      <c r="R4" s="130"/>
+      <c r="S4" s="130"/>
+      <c r="T4" s="130"/>
+      <c r="U4" s="130"/>
+      <c r="V4" s="130"/>
+      <c r="W4" s="130">
         <f>W5</f>
         <v>43970</v>
       </c>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="118"/>
-      <c r="Z4" s="118"/>
-      <c r="AA4" s="118"/>
-      <c r="AB4" s="118"/>
-      <c r="AC4" s="118"/>
-      <c r="AD4" s="118">
+      <c r="X4" s="130"/>
+      <c r="Y4" s="130"/>
+      <c r="Z4" s="130"/>
+      <c r="AA4" s="130"/>
+      <c r="AB4" s="130"/>
+      <c r="AC4" s="130"/>
+      <c r="AD4" s="130">
         <f>AD5</f>
         <v>43977</v>
       </c>
-      <c r="AE4" s="118"/>
-      <c r="AF4" s="118"/>
-      <c r="AG4" s="118"/>
-      <c r="AH4" s="118"/>
-      <c r="AI4" s="118"/>
-      <c r="AJ4" s="118"/>
-      <c r="AK4" s="118">
+      <c r="AE4" s="130"/>
+      <c r="AF4" s="130"/>
+      <c r="AG4" s="130"/>
+      <c r="AH4" s="130"/>
+      <c r="AI4" s="130"/>
+      <c r="AJ4" s="130"/>
+      <c r="AK4" s="130">
         <f>AK5</f>
         <v>43984</v>
       </c>
-      <c r="AL4" s="118"/>
-      <c r="AM4" s="118"/>
-      <c r="AN4" s="118"/>
-      <c r="AO4" s="118"/>
-      <c r="AP4" s="118"/>
-      <c r="AQ4" s="118"/>
-      <c r="AR4" s="118">
+      <c r="AL4" s="130"/>
+      <c r="AM4" s="130"/>
+      <c r="AN4" s="130"/>
+      <c r="AO4" s="130"/>
+      <c r="AP4" s="130"/>
+      <c r="AQ4" s="130"/>
+      <c r="AR4" s="130">
         <f>AR5</f>
         <v>43991</v>
       </c>
-      <c r="AS4" s="118"/>
-      <c r="AT4" s="118"/>
-      <c r="AU4" s="118"/>
-      <c r="AV4" s="118"/>
-      <c r="AW4" s="118"/>
-      <c r="AX4" s="118"/>
-      <c r="AY4" s="118">
+      <c r="AS4" s="130"/>
+      <c r="AT4" s="130"/>
+      <c r="AU4" s="130"/>
+      <c r="AV4" s="130"/>
+      <c r="AW4" s="130"/>
+      <c r="AX4" s="130"/>
+      <c r="AY4" s="130">
         <f>AY5</f>
         <v>43998</v>
       </c>
-      <c r="AZ4" s="118"/>
-      <c r="BA4" s="118"/>
-      <c r="BB4" s="118"/>
-      <c r="BC4" s="118"/>
-      <c r="BD4" s="118"/>
-      <c r="BE4" s="118"/>
-      <c r="BF4" s="118">
+      <c r="AZ4" s="130"/>
+      <c r="BA4" s="130"/>
+      <c r="BB4" s="130"/>
+      <c r="BC4" s="130"/>
+      <c r="BD4" s="130"/>
+      <c r="BE4" s="130"/>
+      <c r="BF4" s="130">
         <f>BF5</f>
         <v>44005</v>
       </c>
-      <c r="BG4" s="118"/>
-      <c r="BH4" s="118"/>
-      <c r="BI4" s="118"/>
-      <c r="BJ4" s="118"/>
-      <c r="BK4" s="118"/>
-      <c r="BL4" s="119"/>
+      <c r="BG4" s="130"/>
+      <c r="BH4" s="130"/>
+      <c r="BI4" s="130"/>
+      <c r="BJ4" s="130"/>
+      <c r="BK4" s="130"/>
+      <c r="BL4" s="131"/>
     </row>
     <row r="5" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="129"/>
-      <c r="B5" s="130" t="s">
+      <c r="A5" s="118"/>
+      <c r="B5" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="121" t="s">
+      <c r="D5" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="121" t="s">
+      <c r="E5" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="121" t="s">
+      <c r="F5" s="123" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="25">
@@ -2280,8 +2277,8 @@
       </c>
     </row>
     <row r="6" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="129"/>
-      <c r="B6" s="131"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="120"/>
       <c r="C6" s="122"/>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
@@ -2599,11 +2596,11 @@
       <c r="J8" s="39"/>
       <c r="K8" s="39"/>
       <c r="L8" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M8" s="39"/>
       <c r="N8" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O8" s="39"/>
       <c r="P8" s="39"/>
@@ -2612,29 +2609,29 @@
       <c r="S8" s="39"/>
       <c r="T8" s="39"/>
       <c r="U8" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V8" s="39"/>
       <c r="W8" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X8" s="39"/>
       <c r="Y8" s="39"/>
       <c r="Z8" s="39"/>
       <c r="AA8" s="39"/>
       <c r="AB8" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC8" s="39"/>
       <c r="AD8" s="39"/>
       <c r="AE8" s="39"/>
       <c r="AF8" s="39"/>
       <c r="AG8" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AH8" s="39"/>
       <c r="AI8" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ8" s="39"/>
       <c r="AK8" s="39"/>
@@ -2643,7 +2640,7 @@
       <c r="AN8" s="39"/>
       <c r="AO8" s="39"/>
       <c r="AP8" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AQ8"/>
       <c r="AR8"/>
@@ -2652,7 +2649,7 @@
       <c r="AU8"/>
       <c r="AV8" s="39"/>
       <c r="AW8" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AX8" s="39"/>
       <c r="AY8" s="39"/>
@@ -2661,7 +2658,7 @@
       <c r="BB8" s="39"/>
       <c r="BC8" s="39"/>
       <c r="BD8" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BE8" s="39"/>
       <c r="BF8" s="39"/>
@@ -2670,11 +2667,11 @@
       <c r="BI8" s="39"/>
       <c r="BJ8" s="39"/>
       <c r="BK8" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BL8" s="39"/>
       <c r="BM8" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:65" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2683,7 +2680,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D9" s="43">
         <v>0</v>
@@ -2762,7 +2759,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="47">
         <v>1</v>
@@ -2779,23 +2776,23 @@
         <v>18</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J10" s="44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10" s="93" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L10" s="96"/>
       <c r="M10" s="71"/>
       <c r="N10" s="96"/>
       <c r="O10" s="96"/>
       <c r="P10" s="94" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R10" s="44"/>
       <c r="S10" s="44"/>
@@ -2804,13 +2801,13 @@
       <c r="V10" s="97"/>
       <c r="W10" s="96"/>
       <c r="X10" s="94" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Y10" s="44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z10" s="44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA10" s="93"/>
       <c r="AB10" s="96"/>
@@ -2857,7 +2854,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="47">
         <v>1</v>
@@ -2881,10 +2878,10 @@
       <c r="N11" s="96"/>
       <c r="O11" s="96"/>
       <c r="P11" s="94" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R11" s="44"/>
       <c r="S11" s="44"/>
@@ -2893,13 +2890,13 @@
       <c r="V11" s="96"/>
       <c r="W11" s="96"/>
       <c r="X11" s="94" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Y11" s="44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z11" s="44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA11" s="93"/>
       <c r="AB11" s="96"/>
@@ -2946,7 +2943,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="47">
         <v>1</v>
@@ -2984,7 +2981,7 @@
       <c r="AB12" s="96"/>
       <c r="AC12" s="96"/>
       <c r="AD12" s="94" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE12" s="44"/>
       <c r="AF12" s="93"/>
@@ -3027,7 +3024,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="47">
         <v>0</v>
@@ -3137,10 +3134,10 @@
     <row r="15" spans="1:65" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="56">
         <v>1</v>
@@ -3179,7 +3176,7 @@
       <c r="AC15" s="96"/>
       <c r="AD15" s="94"/>
       <c r="AE15" s="44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AF15" s="93"/>
       <c r="AG15" s="96"/>
@@ -3218,10 +3215,10 @@
     <row r="16" spans="1:65" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="56">
         <v>0.9</v>
@@ -3260,7 +3257,7 @@
       <c r="AC16" s="96"/>
       <c r="AD16" s="94"/>
       <c r="AE16" s="44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AF16" s="93"/>
       <c r="AG16" s="96"/>
@@ -3299,10 +3296,10 @@
     <row r="17" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="56">
         <v>0.7</v>
@@ -3328,22 +3325,22 @@
       <c r="P17" s="94"/>
       <c r="Q17" s="44"/>
       <c r="R17" s="44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S17" s="44"/>
       <c r="T17" s="93" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U17" s="96"/>
       <c r="V17" s="96"/>
       <c r="W17" s="96"/>
       <c r="X17" s="94"/>
       <c r="Y17" s="44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z17" s="44"/>
       <c r="AA17" s="93" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB17" s="96"/>
       <c r="AC17" s="96"/>
@@ -3352,7 +3349,7 @@
       <c r="AF17" s="93"/>
       <c r="AG17" s="96"/>
       <c r="AH17" s="71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AI17" s="96"/>
       <c r="AJ17" s="96"/>
@@ -3388,10 +3385,10 @@
     <row r="18" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="56">
         <v>0.4</v>
@@ -3467,10 +3464,10 @@
     <row r="19" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="56">
         <v>1</v>
@@ -3503,13 +3500,13 @@
       <c r="W19" s="96"/>
       <c r="X19" s="94"/>
       <c r="Y19" s="44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z19" s="44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA19" s="93" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB19" s="96"/>
       <c r="AC19" s="96"/>
@@ -3623,13 +3620,13 @@
     <row r="21" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="65">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="E21" s="91">
         <v>43977</v>
@@ -3664,10 +3661,10 @@
       <c r="AB21" s="96"/>
       <c r="AC21" s="96"/>
       <c r="AD21" s="94" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE21" s="44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AF21" s="93"/>
       <c r="AG21" s="96"/>
@@ -3706,24 +3703,24 @@
     <row r="22" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="65">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="E22" s="91">
         <v>43977</v>
       </c>
       <c r="F22" s="91">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="5">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
@@ -3747,12 +3744,14 @@
       <c r="AB22" s="96"/>
       <c r="AC22" s="96"/>
       <c r="AD22" s="94" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE22" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF22" s="93"/>
+        <v>52</v>
+      </c>
+      <c r="AF22" s="93" t="s">
+        <v>52</v>
+      </c>
       <c r="AG22" s="96"/>
       <c r="AH22" s="71"/>
       <c r="AI22" s="96"/>
@@ -3789,24 +3788,24 @@
     <row r="23" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="65">
         <v>0</v>
       </c>
       <c r="E23" s="91">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="F23" s="91">
-        <v>43979</v>
+        <v>43981</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="5">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23" s="44"/>
       <c r="J23" s="44"/>
@@ -3831,7 +3830,9 @@
       <c r="AC23" s="96"/>
       <c r="AD23" s="94"/>
       <c r="AE23" s="44"/>
-      <c r="AF23" s="93"/>
+      <c r="AF23" s="93" t="s">
+        <v>52</v>
+      </c>
       <c r="AG23" s="96"/>
       <c r="AH23" s="71"/>
       <c r="AI23" s="96"/>
@@ -3868,24 +3869,24 @@
     <row r="24" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="65">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E24" s="91">
         <v>43979</v>
       </c>
       <c r="F24" s="91">
-        <v>43979</v>
+        <v>43981</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
@@ -3910,7 +3911,9 @@
       <c r="AC24" s="96"/>
       <c r="AD24" s="94"/>
       <c r="AE24" s="44"/>
-      <c r="AF24" s="93"/>
+      <c r="AF24" s="93" t="s">
+        <v>52</v>
+      </c>
       <c r="AG24" s="96"/>
       <c r="AH24" s="71"/>
       <c r="AI24" s="96"/>
@@ -3947,10 +3950,10 @@
     <row r="25" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="65">
         <v>0</v>
@@ -4097,7 +4100,7 @@
     <row r="27" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="73"/>
       <c r="D27" s="74"/>
@@ -4172,7 +4175,7 @@
     <row r="28" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="73"/>
       <c r="D28" s="74"/>
@@ -4247,7 +4250,7 @@
     <row r="29" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="73"/>
       <c r="D29" s="74"/>
@@ -4322,10 +4325,10 @@
     <row r="30" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="74"/>
       <c r="E30" s="92">
@@ -4399,10 +4402,10 @@
     <row r="31" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="74"/>
       <c r="E31" s="92"/>
@@ -4412,34 +4415,34 @@
       <c r="I31" s="44"/>
       <c r="J31" s="44"/>
       <c r="K31" s="102" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L31" s="96"/>
       <c r="M31" s="103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N31" s="96"/>
       <c r="O31" s="96"/>
       <c r="P31" s="106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q31" s="106" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R31" s="106" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S31" s="106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T31" s="106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U31" s="96"/>
       <c r="V31" s="96"/>
       <c r="W31" s="96"/>
       <c r="X31" s="106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y31" s="116"/>
       <c r="Z31" s="98"/>
@@ -4461,16 +4464,16 @@
       <c r="AP31" s="96"/>
       <c r="AQ31" s="96"/>
       <c r="AR31" s="109" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS31" s="109" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT31" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU31" s="105" t="s">
         <v>37</v>
-      </c>
-      <c r="AS31" s="109" t="s">
-        <v>37</v>
-      </c>
-      <c r="AT31" s="104" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU31" s="105" t="s">
-        <v>38</v>
       </c>
       <c r="AV31" s="93"/>
       <c r="AW31" s="96"/>
@@ -4490,16 +4493,16 @@
       <c r="BK31" s="96"/>
       <c r="BL31" s="96"/>
       <c r="BN31" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="74"/>
       <c r="E32" s="92"/>
@@ -4509,43 +4512,43 @@
       <c r="I32" s="44"/>
       <c r="J32" s="44"/>
       <c r="K32" s="102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L32" s="96"/>
       <c r="M32" s="103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N32" s="96"/>
       <c r="O32" s="96"/>
       <c r="P32" s="106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q32" s="106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R32" s="106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S32" s="117" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T32" s="106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U32" s="96"/>
       <c r="V32" s="96"/>
       <c r="W32" s="96"/>
       <c r="X32" s="106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y32" s="106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z32" s="106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA32" s="106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB32" s="96"/>
       <c r="AC32" s="96"/>
@@ -4554,7 +4557,7 @@
       <c r="AF32" s="93"/>
       <c r="AG32" s="96"/>
       <c r="AH32" s="103" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AI32" s="96"/>
       <c r="AJ32" s="96"/>
@@ -4562,7 +4565,7 @@
       <c r="AL32" s="44"/>
       <c r="AM32" s="44"/>
       <c r="AN32" s="105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AO32" s="93"/>
       <c r="AP32" s="96"/>
@@ -4589,16 +4592,16 @@
       <c r="BK32" s="96"/>
       <c r="BL32" s="96"/>
       <c r="BN32" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D33" s="74"/>
       <c r="E33" s="92"/>
@@ -4613,20 +4616,20 @@
       <c r="K33" s="93"/>
       <c r="L33" s="96"/>
       <c r="M33" s="103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N33" s="96"/>
       <c r="O33" s="96"/>
       <c r="P33" s="62"/>
       <c r="Q33"/>
       <c r="R33" s="106" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S33" s="106" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T33" s="110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U33" s="96"/>
       <c r="V33" s="96"/>
@@ -4634,32 +4637,32 @@
       <c r="X33" s="100"/>
       <c r="Y33" s="101"/>
       <c r="Z33" s="108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA33" s="108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB33" s="96"/>
       <c r="AC33" s="96"/>
       <c r="AD33" s="94"/>
       <c r="AE33" s="44"/>
       <c r="AF33" s="102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AG33" s="96"/>
       <c r="AH33" s="103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AI33" s="96"/>
       <c r="AJ33" s="96"/>
       <c r="AK33" s="104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AL33" s="44"/>
       <c r="AM33" s="44"/>
       <c r="AN33" s="44"/>
       <c r="AO33" s="102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AP33" s="96"/>
       <c r="AQ33" s="96"/>
@@ -4685,16 +4688,16 @@
       <c r="BK33" s="96"/>
       <c r="BL33" s="96"/>
       <c r="BN33" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="111" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="112" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D34" s="113"/>
       <c r="E34" s="114"/>
@@ -4706,14 +4709,14 @@
       <c r="K34" s="39"/>
       <c r="L34" s="96"/>
       <c r="M34" s="109" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N34" s="96"/>
       <c r="O34" s="96"/>
       <c r="P34" s="95"/>
       <c r="Q34"/>
       <c r="R34" s="115" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S34"/>
       <c r="T34"/>
@@ -4721,21 +4724,21 @@
       <c r="V34" s="96"/>
       <c r="W34" s="96"/>
       <c r="X34" s="106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y34" s="95"/>
       <c r="Z34" s="106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA34" s="106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB34" s="96"/>
       <c r="AC34" s="96"/>
       <c r="AD34" s="39"/>
       <c r="AE34" s="39"/>
       <c r="AF34" s="109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AG34" s="96"/>
       <c r="AH34"/>
@@ -4770,7 +4773,7 @@
       <c r="BK34" s="96"/>
       <c r="BL34" s="96"/>
       <c r="BN34" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4925,16 +4928,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4943,6 +4936,16 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D36">
     <cfRule type="dataBar" priority="23">
@@ -5056,23 +5059,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5388,29 +5380,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5437,9 +5429,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testdisk-7.2-WIP.win64\testdisk-7.2-WIP\backup\old_notebook\old_notebook\Desktop\RestoreFirstInstallationT580\anderScore\GitLab-Training\gitlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E982E1-512E-4955-B0A0-B688DD747063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F43A020-3FFB-4EBD-8D5F-BC27F286446A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1246,22 +1246,19 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1274,14 +1271,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1863,7 +1863,7 @@
   <dimension ref="A1:BN39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AT27" sqref="AT27"/>
+      <selection activeCell="AF23" sqref="AF23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1889,28 +1889,28 @@
       <c r="E1" s="14"/>
       <c r="F1" s="15"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="128" t="s">
+      <c r="I1" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
       <c r="P1" s="18"/>
-      <c r="Q1" s="126">
+      <c r="Q1" s="125">
         <v>43956</v>
       </c>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
     </row>
     <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="87" t="s">
@@ -1920,28 +1920,28 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
-      <c r="I2" s="128" t="s">
+      <c r="I2" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
       <c r="P2" s="18"/>
-      <c r="Q2" s="124">
+      <c r="Q2" s="123">
         <v>1</v>
       </c>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="125"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
+      <c r="Z2" s="124"/>
     </row>
     <row r="3" spans="1:65" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -1953,102 +1953,102 @@
       <c r="A4" s="8"/>
       <c r="B4" s="23"/>
       <c r="E4" s="24"/>
-      <c r="I4" s="132">
+      <c r="I4" s="120">
         <f>I5</f>
         <v>43956</v>
       </c>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="130"/>
-      <c r="N4" s="130"/>
-      <c r="O4" s="130"/>
-      <c r="P4" s="130">
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118">
         <f>P5</f>
         <v>43963</v>
       </c>
-      <c r="Q4" s="130"/>
-      <c r="R4" s="130"/>
-      <c r="S4" s="130"/>
-      <c r="T4" s="130"/>
-      <c r="U4" s="130"/>
-      <c r="V4" s="130"/>
-      <c r="W4" s="130">
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118">
         <f>W5</f>
         <v>43970</v>
       </c>
-      <c r="X4" s="130"/>
-      <c r="Y4" s="130"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="130"/>
-      <c r="AB4" s="130"/>
-      <c r="AC4" s="130"/>
-      <c r="AD4" s="130">
+      <c r="X4" s="118"/>
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="118"/>
+      <c r="AA4" s="118"/>
+      <c r="AB4" s="118"/>
+      <c r="AC4" s="118"/>
+      <c r="AD4" s="118">
         <f>AD5</f>
         <v>43977</v>
       </c>
-      <c r="AE4" s="130"/>
-      <c r="AF4" s="130"/>
-      <c r="AG4" s="130"/>
-      <c r="AH4" s="130"/>
-      <c r="AI4" s="130"/>
-      <c r="AJ4" s="130"/>
-      <c r="AK4" s="130">
+      <c r="AE4" s="118"/>
+      <c r="AF4" s="118"/>
+      <c r="AG4" s="118"/>
+      <c r="AH4" s="118"/>
+      <c r="AI4" s="118"/>
+      <c r="AJ4" s="118"/>
+      <c r="AK4" s="118">
         <f>AK5</f>
         <v>43984</v>
       </c>
-      <c r="AL4" s="130"/>
-      <c r="AM4" s="130"/>
-      <c r="AN4" s="130"/>
-      <c r="AO4" s="130"/>
-      <c r="AP4" s="130"/>
-      <c r="AQ4" s="130"/>
-      <c r="AR4" s="130">
+      <c r="AL4" s="118"/>
+      <c r="AM4" s="118"/>
+      <c r="AN4" s="118"/>
+      <c r="AO4" s="118"/>
+      <c r="AP4" s="118"/>
+      <c r="AQ4" s="118"/>
+      <c r="AR4" s="118">
         <f>AR5</f>
         <v>43991</v>
       </c>
-      <c r="AS4" s="130"/>
-      <c r="AT4" s="130"/>
-      <c r="AU4" s="130"/>
-      <c r="AV4" s="130"/>
-      <c r="AW4" s="130"/>
-      <c r="AX4" s="130"/>
-      <c r="AY4" s="130">
+      <c r="AS4" s="118"/>
+      <c r="AT4" s="118"/>
+      <c r="AU4" s="118"/>
+      <c r="AV4" s="118"/>
+      <c r="AW4" s="118"/>
+      <c r="AX4" s="118"/>
+      <c r="AY4" s="118">
         <f>AY5</f>
         <v>43998</v>
       </c>
-      <c r="AZ4" s="130"/>
-      <c r="BA4" s="130"/>
-      <c r="BB4" s="130"/>
-      <c r="BC4" s="130"/>
-      <c r="BD4" s="130"/>
-      <c r="BE4" s="130"/>
-      <c r="BF4" s="130">
+      <c r="AZ4" s="118"/>
+      <c r="BA4" s="118"/>
+      <c r="BB4" s="118"/>
+      <c r="BC4" s="118"/>
+      <c r="BD4" s="118"/>
+      <c r="BE4" s="118"/>
+      <c r="BF4" s="118">
         <f>BF5</f>
         <v>44005</v>
       </c>
-      <c r="BG4" s="130"/>
-      <c r="BH4" s="130"/>
-      <c r="BI4" s="130"/>
-      <c r="BJ4" s="130"/>
-      <c r="BK4" s="130"/>
-      <c r="BL4" s="131"/>
+      <c r="BG4" s="118"/>
+      <c r="BH4" s="118"/>
+      <c r="BI4" s="118"/>
+      <c r="BJ4" s="118"/>
+      <c r="BK4" s="118"/>
+      <c r="BL4" s="119"/>
     </row>
     <row r="5" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="118"/>
-      <c r="B5" s="119" t="s">
+      <c r="A5" s="129"/>
+      <c r="B5" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="121" t="s">
+      <c r="C5" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="123" t="s">
+      <c r="E5" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="123" t="s">
+      <c r="F5" s="121" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="25">
@@ -2277,8 +2277,8 @@
       </c>
     </row>
     <row r="6" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="118"/>
-      <c r="B6" s="120"/>
+      <c r="A6" s="129"/>
+      <c r="B6" s="131"/>
       <c r="C6" s="122"/>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
@@ -3709,7 +3709,7 @@
         <v>41</v>
       </c>
       <c r="D22" s="65">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="E22" s="91">
         <v>43977</v>
@@ -3794,7 +3794,7 @@
         <v>41</v>
       </c>
       <c r="D23" s="65">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E23" s="91">
         <v>43979</v>
@@ -3830,11 +3830,11 @@
       <c r="AC23" s="96"/>
       <c r="AD23" s="94"/>
       <c r="AE23" s="44"/>
-      <c r="AF23" s="93" t="s">
+      <c r="AF23" s="93"/>
+      <c r="AG23" s="96"/>
+      <c r="AH23" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="AG23" s="96"/>
-      <c r="AH23" s="71"/>
       <c r="AI23" s="96"/>
       <c r="AJ23" s="96"/>
       <c r="AK23" s="94"/>
@@ -4928,6 +4928,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4936,16 +4946,6 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D36">
     <cfRule type="dataBar" priority="23">
@@ -5059,12 +5059,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5380,29 +5391,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5429,20 +5440,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testdisk-7.2-WIP.win64\testdisk-7.2-WIP\backup\old_notebook\old_notebook\Desktop\RestoreFirstInstallationT580\anderScore\GitLab-Training\gitlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1113C6-CB3D-49A2-9E35-D654B632FE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FACC09-00EB-4174-B61F-2974E899ED05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1246,22 +1246,19 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1274,14 +1271,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1863,7 +1863,7 @@
   <dimension ref="A1:BN39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AO29" sqref="AO29"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1889,28 +1889,28 @@
       <c r="E1" s="14"/>
       <c r="F1" s="15"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="128" t="s">
+      <c r="I1" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
       <c r="P1" s="18"/>
-      <c r="Q1" s="126">
+      <c r="Q1" s="125">
         <v>43956</v>
       </c>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
     </row>
     <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="87" t="s">
@@ -1920,28 +1920,28 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
-      <c r="I2" s="128" t="s">
+      <c r="I2" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
       <c r="P2" s="18"/>
-      <c r="Q2" s="124">
+      <c r="Q2" s="123">
         <v>1</v>
       </c>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="125"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
+      <c r="Z2" s="124"/>
     </row>
     <row r="3" spans="1:65" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -1953,102 +1953,102 @@
       <c r="A4" s="8"/>
       <c r="B4" s="23"/>
       <c r="E4" s="24"/>
-      <c r="I4" s="132">
+      <c r="I4" s="120">
         <f>I5</f>
         <v>43956</v>
       </c>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="130"/>
-      <c r="N4" s="130"/>
-      <c r="O4" s="130"/>
-      <c r="P4" s="130">
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118">
         <f>P5</f>
         <v>43963</v>
       </c>
-      <c r="Q4" s="130"/>
-      <c r="R4" s="130"/>
-      <c r="S4" s="130"/>
-      <c r="T4" s="130"/>
-      <c r="U4" s="130"/>
-      <c r="V4" s="130"/>
-      <c r="W4" s="130">
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118">
         <f>W5</f>
         <v>43970</v>
       </c>
-      <c r="X4" s="130"/>
-      <c r="Y4" s="130"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="130"/>
-      <c r="AB4" s="130"/>
-      <c r="AC4" s="130"/>
-      <c r="AD4" s="130">
+      <c r="X4" s="118"/>
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="118"/>
+      <c r="AA4" s="118"/>
+      <c r="AB4" s="118"/>
+      <c r="AC4" s="118"/>
+      <c r="AD4" s="118">
         <f>AD5</f>
         <v>43977</v>
       </c>
-      <c r="AE4" s="130"/>
-      <c r="AF4" s="130"/>
-      <c r="AG4" s="130"/>
-      <c r="AH4" s="130"/>
-      <c r="AI4" s="130"/>
-      <c r="AJ4" s="130"/>
-      <c r="AK4" s="130">
+      <c r="AE4" s="118"/>
+      <c r="AF4" s="118"/>
+      <c r="AG4" s="118"/>
+      <c r="AH4" s="118"/>
+      <c r="AI4" s="118"/>
+      <c r="AJ4" s="118"/>
+      <c r="AK4" s="118">
         <f>AK5</f>
         <v>43984</v>
       </c>
-      <c r="AL4" s="130"/>
-      <c r="AM4" s="130"/>
-      <c r="AN4" s="130"/>
-      <c r="AO4" s="130"/>
-      <c r="AP4" s="130"/>
-      <c r="AQ4" s="130"/>
-      <c r="AR4" s="130">
+      <c r="AL4" s="118"/>
+      <c r="AM4" s="118"/>
+      <c r="AN4" s="118"/>
+      <c r="AO4" s="118"/>
+      <c r="AP4" s="118"/>
+      <c r="AQ4" s="118"/>
+      <c r="AR4" s="118">
         <f>AR5</f>
         <v>43991</v>
       </c>
-      <c r="AS4" s="130"/>
-      <c r="AT4" s="130"/>
-      <c r="AU4" s="130"/>
-      <c r="AV4" s="130"/>
-      <c r="AW4" s="130"/>
-      <c r="AX4" s="130"/>
-      <c r="AY4" s="130">
+      <c r="AS4" s="118"/>
+      <c r="AT4" s="118"/>
+      <c r="AU4" s="118"/>
+      <c r="AV4" s="118"/>
+      <c r="AW4" s="118"/>
+      <c r="AX4" s="118"/>
+      <c r="AY4" s="118">
         <f>AY5</f>
         <v>43998</v>
       </c>
-      <c r="AZ4" s="130"/>
-      <c r="BA4" s="130"/>
-      <c r="BB4" s="130"/>
-      <c r="BC4" s="130"/>
-      <c r="BD4" s="130"/>
-      <c r="BE4" s="130"/>
-      <c r="BF4" s="130">
+      <c r="AZ4" s="118"/>
+      <c r="BA4" s="118"/>
+      <c r="BB4" s="118"/>
+      <c r="BC4" s="118"/>
+      <c r="BD4" s="118"/>
+      <c r="BE4" s="118"/>
+      <c r="BF4" s="118">
         <f>BF5</f>
         <v>44005</v>
       </c>
-      <c r="BG4" s="130"/>
-      <c r="BH4" s="130"/>
-      <c r="BI4" s="130"/>
-      <c r="BJ4" s="130"/>
-      <c r="BK4" s="130"/>
-      <c r="BL4" s="131"/>
+      <c r="BG4" s="118"/>
+      <c r="BH4" s="118"/>
+      <c r="BI4" s="118"/>
+      <c r="BJ4" s="118"/>
+      <c r="BK4" s="118"/>
+      <c r="BL4" s="119"/>
     </row>
     <row r="5" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="118"/>
-      <c r="B5" s="119" t="s">
+      <c r="A5" s="129"/>
+      <c r="B5" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="121" t="s">
+      <c r="C5" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="123" t="s">
+      <c r="E5" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="123" t="s">
+      <c r="F5" s="121" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="25">
@@ -2277,8 +2277,8 @@
       </c>
     </row>
     <row r="6" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="118"/>
-      <c r="B6" s="120"/>
+      <c r="A6" s="129"/>
+      <c r="B6" s="131"/>
       <c r="C6" s="122"/>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
@@ -3794,7 +3794,7 @@
         <v>41</v>
       </c>
       <c r="D23" s="65">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="E23" s="91">
         <v>43981</v>
@@ -4928,6 +4928,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4936,16 +4946,6 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D36">
     <cfRule type="dataBar" priority="23">
@@ -5059,12 +5059,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5380,29 +5391,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5429,20 +5440,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testdisk-7.2-WIP.win64\testdisk-7.2-WIP\backup\old_notebook\old_notebook\Desktop\RestoreFirstInstallationT580\anderScore\GitLab-Training\gitlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FACC09-00EB-4174-B61F-2974E899ED05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC15D6A-F91E-4B78-A9AF-5AF4830AAE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="56">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -429,7 +429,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,6 +516,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,7 +925,7 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1246,19 +1252,22 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1271,16 +1280,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1862,8 +1874,8 @@
   </sheetPr>
   <dimension ref="A1:BN39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AM33" sqref="AM33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1889,28 +1901,28 @@
       <c r="E1" s="14"/>
       <c r="F1" s="15"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="127" t="s">
+      <c r="I1" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
       <c r="P1" s="18"/>
-      <c r="Q1" s="125">
+      <c r="Q1" s="126">
         <v>43956</v>
       </c>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="126"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
     </row>
     <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="87" t="s">
@@ -1920,28 +1932,28 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
       <c r="P2" s="18"/>
-      <c r="Q2" s="123">
+      <c r="Q2" s="124">
         <v>1</v>
       </c>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="124"/>
-      <c r="Z2" s="124"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="125"/>
     </row>
     <row r="3" spans="1:65" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -1953,102 +1965,102 @@
       <c r="A4" s="8"/>
       <c r="B4" s="23"/>
       <c r="E4" s="24"/>
-      <c r="I4" s="120">
+      <c r="I4" s="132">
         <f>I5</f>
         <v>43956</v>
       </c>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118">
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="130"/>
+      <c r="O4" s="130"/>
+      <c r="P4" s="130">
         <f>P5</f>
         <v>43963</v>
       </c>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118">
+      <c r="Q4" s="130"/>
+      <c r="R4" s="130"/>
+      <c r="S4" s="130"/>
+      <c r="T4" s="130"/>
+      <c r="U4" s="130"/>
+      <c r="V4" s="130"/>
+      <c r="W4" s="130">
         <f>W5</f>
         <v>43970</v>
       </c>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="118"/>
-      <c r="Z4" s="118"/>
-      <c r="AA4" s="118"/>
-      <c r="AB4" s="118"/>
-      <c r="AC4" s="118"/>
-      <c r="AD4" s="118">
+      <c r="X4" s="130"/>
+      <c r="Y4" s="130"/>
+      <c r="Z4" s="130"/>
+      <c r="AA4" s="130"/>
+      <c r="AB4" s="130"/>
+      <c r="AC4" s="130"/>
+      <c r="AD4" s="130">
         <f>AD5</f>
         <v>43977</v>
       </c>
-      <c r="AE4" s="118"/>
-      <c r="AF4" s="118"/>
-      <c r="AG4" s="118"/>
-      <c r="AH4" s="118"/>
-      <c r="AI4" s="118"/>
-      <c r="AJ4" s="118"/>
-      <c r="AK4" s="118">
+      <c r="AE4" s="130"/>
+      <c r="AF4" s="130"/>
+      <c r="AG4" s="130"/>
+      <c r="AH4" s="130"/>
+      <c r="AI4" s="130"/>
+      <c r="AJ4" s="130"/>
+      <c r="AK4" s="130">
         <f>AK5</f>
         <v>43984</v>
       </c>
-      <c r="AL4" s="118"/>
-      <c r="AM4" s="118"/>
-      <c r="AN4" s="118"/>
-      <c r="AO4" s="118"/>
-      <c r="AP4" s="118"/>
-      <c r="AQ4" s="118"/>
-      <c r="AR4" s="118">
+      <c r="AL4" s="130"/>
+      <c r="AM4" s="130"/>
+      <c r="AN4" s="130"/>
+      <c r="AO4" s="130"/>
+      <c r="AP4" s="130"/>
+      <c r="AQ4" s="130"/>
+      <c r="AR4" s="130">
         <f>AR5</f>
         <v>43991</v>
       </c>
-      <c r="AS4" s="118"/>
-      <c r="AT4" s="118"/>
-      <c r="AU4" s="118"/>
-      <c r="AV4" s="118"/>
-      <c r="AW4" s="118"/>
-      <c r="AX4" s="118"/>
-      <c r="AY4" s="118">
+      <c r="AS4" s="130"/>
+      <c r="AT4" s="130"/>
+      <c r="AU4" s="130"/>
+      <c r="AV4" s="130"/>
+      <c r="AW4" s="130"/>
+      <c r="AX4" s="130"/>
+      <c r="AY4" s="130">
         <f>AY5</f>
         <v>43998</v>
       </c>
-      <c r="AZ4" s="118"/>
-      <c r="BA4" s="118"/>
-      <c r="BB4" s="118"/>
-      <c r="BC4" s="118"/>
-      <c r="BD4" s="118"/>
-      <c r="BE4" s="118"/>
-      <c r="BF4" s="118">
+      <c r="AZ4" s="130"/>
+      <c r="BA4" s="130"/>
+      <c r="BB4" s="130"/>
+      <c r="BC4" s="130"/>
+      <c r="BD4" s="130"/>
+      <c r="BE4" s="130"/>
+      <c r="BF4" s="130">
         <f>BF5</f>
         <v>44005</v>
       </c>
-      <c r="BG4" s="118"/>
-      <c r="BH4" s="118"/>
-      <c r="BI4" s="118"/>
-      <c r="BJ4" s="118"/>
-      <c r="BK4" s="118"/>
-      <c r="BL4" s="119"/>
+      <c r="BG4" s="130"/>
+      <c r="BH4" s="130"/>
+      <c r="BI4" s="130"/>
+      <c r="BJ4" s="130"/>
+      <c r="BK4" s="130"/>
+      <c r="BL4" s="131"/>
     </row>
     <row r="5" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="129"/>
-      <c r="B5" s="130" t="s">
+      <c r="A5" s="118"/>
+      <c r="B5" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="121" t="s">
+      <c r="D5" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="121" t="s">
+      <c r="E5" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="121" t="s">
+      <c r="F5" s="123" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="25">
@@ -2277,8 +2289,8 @@
       </c>
     </row>
     <row r="6" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="129"/>
-      <c r="B6" s="131"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="120"/>
       <c r="C6" s="122"/>
       <c r="D6" s="122"/>
       <c r="E6" s="122"/>
@@ -3800,12 +3812,12 @@
         <v>43981</v>
       </c>
       <c r="F23" s="91">
-        <v>43981</v>
+        <v>43984</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I23" s="44"/>
       <c r="J23" s="44"/>
@@ -3837,7 +3849,9 @@
       </c>
       <c r="AI23" s="96"/>
       <c r="AJ23" s="96"/>
-      <c r="AK23" s="94"/>
+      <c r="AK23" s="94" t="s">
+        <v>52</v>
+      </c>
       <c r="AL23" s="44"/>
       <c r="AM23" s="44"/>
       <c r="AN23" s="44"/>
@@ -3918,7 +3932,9 @@
       <c r="AH24" s="71"/>
       <c r="AI24" s="96"/>
       <c r="AJ24" s="96"/>
-      <c r="AK24" s="94"/>
+      <c r="AK24" s="94" t="s">
+        <v>52</v>
+      </c>
       <c r="AL24" s="44"/>
       <c r="AM24" s="44"/>
       <c r="AN24" s="44"/>
@@ -4563,10 +4579,10 @@
       <c r="AJ32" s="96"/>
       <c r="AK32" s="94"/>
       <c r="AL32" s="44"/>
-      <c r="AM32" s="44"/>
-      <c r="AN32" s="105" t="s">
+      <c r="AM32" s="133" t="s">
         <v>42</v>
       </c>
+      <c r="AN32" s="134"/>
       <c r="AO32" s="93"/>
       <c r="AP32" s="96"/>
       <c r="AQ32" s="96"/>
@@ -4928,16 +4944,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4946,6 +4952,16 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D36">
     <cfRule type="dataBar" priority="23">
@@ -5011,7 +5027,7 @@
       <formula>AND(TODAY()&gt;=S$5, TODAY()&lt;T$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="13">
+  <dataValidations disablePrompts="1" count="13">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="Q2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
@@ -5059,23 +5075,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5391,29 +5396,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5440,9 +5445,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testdisk-7.2-WIP.win64\testdisk-7.2-WIP\backup\old_notebook\old_notebook\Desktop\RestoreFirstInstallationT580\anderScore\GitLab-Training\gitlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC15D6A-F91E-4B78-A9AF-5AF4830AAE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D67A14-DE49-4747-8F09-7CA1C5DD8DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="56">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -1252,22 +1252,25 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1280,19 +1283,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1874,8 +1874,8 @@
   </sheetPr>
   <dimension ref="A1:BN39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AM33" sqref="AM33"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1901,28 +1901,28 @@
       <c r="E1" s="14"/>
       <c r="F1" s="15"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="128" t="s">
+      <c r="I1" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
       <c r="P1" s="18"/>
-      <c r="Q1" s="126">
+      <c r="Q1" s="127">
         <v>43956</v>
       </c>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="128"/>
+      <c r="Y1" s="128"/>
+      <c r="Z1" s="128"/>
     </row>
     <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="87" t="s">
@@ -1932,28 +1932,28 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
-      <c r="I2" s="128" t="s">
+      <c r="I2" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
       <c r="P2" s="18"/>
-      <c r="Q2" s="124">
+      <c r="Q2" s="125">
         <v>1</v>
       </c>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="125"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
     </row>
     <row r="3" spans="1:65" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -1965,93 +1965,93 @@
       <c r="A4" s="8"/>
       <c r="B4" s="23"/>
       <c r="E4" s="24"/>
-      <c r="I4" s="132">
+      <c r="I4" s="122">
         <f>I5</f>
         <v>43956</v>
       </c>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="130"/>
-      <c r="N4" s="130"/>
-      <c r="O4" s="130"/>
-      <c r="P4" s="130">
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="120">
         <f>P5</f>
         <v>43963</v>
       </c>
-      <c r="Q4" s="130"/>
-      <c r="R4" s="130"/>
-      <c r="S4" s="130"/>
-      <c r="T4" s="130"/>
-      <c r="U4" s="130"/>
-      <c r="V4" s="130"/>
-      <c r="W4" s="130">
+      <c r="Q4" s="120"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="120"/>
+      <c r="V4" s="120"/>
+      <c r="W4" s="120">
         <f>W5</f>
         <v>43970</v>
       </c>
-      <c r="X4" s="130"/>
-      <c r="Y4" s="130"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="130"/>
-      <c r="AB4" s="130"/>
-      <c r="AC4" s="130"/>
-      <c r="AD4" s="130">
+      <c r="X4" s="120"/>
+      <c r="Y4" s="120"/>
+      <c r="Z4" s="120"/>
+      <c r="AA4" s="120"/>
+      <c r="AB4" s="120"/>
+      <c r="AC4" s="120"/>
+      <c r="AD4" s="120">
         <f>AD5</f>
         <v>43977</v>
       </c>
-      <c r="AE4" s="130"/>
-      <c r="AF4" s="130"/>
-      <c r="AG4" s="130"/>
-      <c r="AH4" s="130"/>
-      <c r="AI4" s="130"/>
-      <c r="AJ4" s="130"/>
-      <c r="AK4" s="130">
+      <c r="AE4" s="120"/>
+      <c r="AF4" s="120"/>
+      <c r="AG4" s="120"/>
+      <c r="AH4" s="120"/>
+      <c r="AI4" s="120"/>
+      <c r="AJ4" s="120"/>
+      <c r="AK4" s="120">
         <f>AK5</f>
         <v>43984</v>
       </c>
-      <c r="AL4" s="130"/>
-      <c r="AM4" s="130"/>
-      <c r="AN4" s="130"/>
-      <c r="AO4" s="130"/>
-      <c r="AP4" s="130"/>
-      <c r="AQ4" s="130"/>
-      <c r="AR4" s="130">
+      <c r="AL4" s="120"/>
+      <c r="AM4" s="120"/>
+      <c r="AN4" s="120"/>
+      <c r="AO4" s="120"/>
+      <c r="AP4" s="120"/>
+      <c r="AQ4" s="120"/>
+      <c r="AR4" s="120">
         <f>AR5</f>
         <v>43991</v>
       </c>
-      <c r="AS4" s="130"/>
-      <c r="AT4" s="130"/>
-      <c r="AU4" s="130"/>
-      <c r="AV4" s="130"/>
-      <c r="AW4" s="130"/>
-      <c r="AX4" s="130"/>
-      <c r="AY4" s="130">
+      <c r="AS4" s="120"/>
+      <c r="AT4" s="120"/>
+      <c r="AU4" s="120"/>
+      <c r="AV4" s="120"/>
+      <c r="AW4" s="120"/>
+      <c r="AX4" s="120"/>
+      <c r="AY4" s="120">
         <f>AY5</f>
         <v>43998</v>
       </c>
-      <c r="AZ4" s="130"/>
-      <c r="BA4" s="130"/>
-      <c r="BB4" s="130"/>
-      <c r="BC4" s="130"/>
-      <c r="BD4" s="130"/>
-      <c r="BE4" s="130"/>
-      <c r="BF4" s="130">
+      <c r="AZ4" s="120"/>
+      <c r="BA4" s="120"/>
+      <c r="BB4" s="120"/>
+      <c r="BC4" s="120"/>
+      <c r="BD4" s="120"/>
+      <c r="BE4" s="120"/>
+      <c r="BF4" s="120">
         <f>BF5</f>
         <v>44005</v>
       </c>
-      <c r="BG4" s="130"/>
-      <c r="BH4" s="130"/>
-      <c r="BI4" s="130"/>
-      <c r="BJ4" s="130"/>
-      <c r="BK4" s="130"/>
-      <c r="BL4" s="131"/>
+      <c r="BG4" s="120"/>
+      <c r="BH4" s="120"/>
+      <c r="BI4" s="120"/>
+      <c r="BJ4" s="120"/>
+      <c r="BK4" s="120"/>
+      <c r="BL4" s="121"/>
     </row>
     <row r="5" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="118"/>
-      <c r="B5" s="119" t="s">
+      <c r="A5" s="131"/>
+      <c r="B5" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="121" t="s">
+      <c r="C5" s="134" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="123" t="s">
@@ -2289,12 +2289,12 @@
       </c>
     </row>
     <row r="6" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="118"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
+      <c r="A6" s="131"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
       <c r="I6" s="28" t="str">
         <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>d</v>
@@ -3277,7 +3277,9 @@
       <c r="AI16" s="96"/>
       <c r="AJ16" s="96"/>
       <c r="AK16" s="94"/>
-      <c r="AL16" s="44"/>
+      <c r="AL16" s="44" t="s">
+        <v>52</v>
+      </c>
       <c r="AM16" s="44"/>
       <c r="AN16" s="44"/>
       <c r="AO16" s="93"/>
@@ -3314,7 +3316,7 @@
         <v>47</v>
       </c>
       <c r="D17" s="56">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="E17" s="90">
         <v>43965</v>
@@ -3806,18 +3808,18 @@
         <v>41</v>
       </c>
       <c r="D23" s="65">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="E23" s="91">
         <v>43981</v>
       </c>
       <c r="F23" s="91">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="5">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I23" s="44"/>
       <c r="J23" s="44"/>
@@ -3852,7 +3854,9 @@
       <c r="AK23" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="AL23" s="44"/>
+      <c r="AL23" s="44" t="s">
+        <v>52</v>
+      </c>
       <c r="AM23" s="44"/>
       <c r="AN23" s="44"/>
       <c r="AO23" s="93"/>
@@ -3889,18 +3893,18 @@
         <v>27</v>
       </c>
       <c r="D24" s="65">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="E24" s="91">
         <v>43979</v>
       </c>
       <c r="F24" s="91">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="5">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
@@ -3935,7 +3939,9 @@
       <c r="AK24" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="AL24" s="44"/>
+      <c r="AL24" s="44" t="s">
+        <v>52</v>
+      </c>
       <c r="AM24" s="44"/>
       <c r="AN24" s="44"/>
       <c r="AO24" s="93"/>
@@ -3975,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="91">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="F25" s="91">
         <v>43985</v>
@@ -3983,7 +3989,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="5">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" s="44"/>
       <c r="J25" s="44"/>
@@ -4579,10 +4585,10 @@
       <c r="AJ32" s="96"/>
       <c r="AK32" s="94"/>
       <c r="AL32" s="44"/>
-      <c r="AM32" s="133" t="s">
+      <c r="AM32" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="AN32" s="134"/>
+      <c r="AN32" s="119"/>
       <c r="AO32" s="93"/>
       <c r="AP32" s="96"/>
       <c r="AQ32" s="96"/>
@@ -4944,6 +4950,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4952,16 +4968,6 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D36">
     <cfRule type="dataBar" priority="23">
@@ -5075,12 +5081,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5396,29 +5413,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5445,20 +5462,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testdisk-7.2-WIP.win64\testdisk-7.2-WIP\backup\old_notebook\old_notebook\Desktop\RestoreFirstInstallationT580\anderScore\GitLab-Training\gitlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D67A14-DE49-4747-8F09-7CA1C5DD8DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365B1BC4-5C5F-4BDB-8160-689D9CAA3556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="56">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -1258,19 +1258,22 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1283,17 +1286,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1874,8 +1874,8 @@
   </sheetPr>
   <dimension ref="A1:BN39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1901,28 +1901,28 @@
       <c r="E1" s="14"/>
       <c r="F1" s="15"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="129" t="s">
+      <c r="I1" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
       <c r="P1" s="18"/>
-      <c r="Q1" s="127">
+      <c r="Q1" s="128">
         <v>43956</v>
       </c>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
-      <c r="U1" s="128"/>
-      <c r="V1" s="128"/>
-      <c r="W1" s="128"/>
-      <c r="X1" s="128"/>
-      <c r="Y1" s="128"/>
-      <c r="Z1" s="128"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="129"/>
+      <c r="U1" s="129"/>
+      <c r="V1" s="129"/>
+      <c r="W1" s="129"/>
+      <c r="X1" s="129"/>
+      <c r="Y1" s="129"/>
+      <c r="Z1" s="129"/>
     </row>
     <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="87" t="s">
@@ -1932,28 +1932,28 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
-      <c r="I2" s="129" t="s">
+      <c r="I2" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
       <c r="P2" s="18"/>
-      <c r="Q2" s="125">
+      <c r="Q2" s="126">
         <v>1</v>
       </c>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
-      <c r="X2" s="126"/>
-      <c r="Y2" s="126"/>
-      <c r="Z2" s="126"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="127"/>
+      <c r="X2" s="127"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="127"/>
     </row>
     <row r="3" spans="1:65" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -1965,102 +1965,102 @@
       <c r="A4" s="8"/>
       <c r="B4" s="23"/>
       <c r="E4" s="24"/>
-      <c r="I4" s="122">
+      <c r="I4" s="134">
         <f>I5</f>
         <v>43956</v>
       </c>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
-      <c r="O4" s="120"/>
-      <c r="P4" s="120">
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="132"/>
+      <c r="P4" s="132">
         <f>P5</f>
         <v>43963</v>
       </c>
-      <c r="Q4" s="120"/>
-      <c r="R4" s="120"/>
-      <c r="S4" s="120"/>
-      <c r="T4" s="120"/>
-      <c r="U4" s="120"/>
-      <c r="V4" s="120"/>
-      <c r="W4" s="120">
+      <c r="Q4" s="132"/>
+      <c r="R4" s="132"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="132"/>
+      <c r="W4" s="132">
         <f>W5</f>
         <v>43970</v>
       </c>
-      <c r="X4" s="120"/>
-      <c r="Y4" s="120"/>
-      <c r="Z4" s="120"/>
-      <c r="AA4" s="120"/>
-      <c r="AB4" s="120"/>
-      <c r="AC4" s="120"/>
-      <c r="AD4" s="120">
+      <c r="X4" s="132"/>
+      <c r="Y4" s="132"/>
+      <c r="Z4" s="132"/>
+      <c r="AA4" s="132"/>
+      <c r="AB4" s="132"/>
+      <c r="AC4" s="132"/>
+      <c r="AD4" s="132">
         <f>AD5</f>
         <v>43977</v>
       </c>
-      <c r="AE4" s="120"/>
-      <c r="AF4" s="120"/>
-      <c r="AG4" s="120"/>
-      <c r="AH4" s="120"/>
-      <c r="AI4" s="120"/>
-      <c r="AJ4" s="120"/>
-      <c r="AK4" s="120">
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="132"/>
+      <c r="AG4" s="132"/>
+      <c r="AH4" s="132"/>
+      <c r="AI4" s="132"/>
+      <c r="AJ4" s="132"/>
+      <c r="AK4" s="132">
         <f>AK5</f>
         <v>43984</v>
       </c>
-      <c r="AL4" s="120"/>
-      <c r="AM4" s="120"/>
-      <c r="AN4" s="120"/>
-      <c r="AO4" s="120"/>
-      <c r="AP4" s="120"/>
-      <c r="AQ4" s="120"/>
-      <c r="AR4" s="120">
+      <c r="AL4" s="132"/>
+      <c r="AM4" s="132"/>
+      <c r="AN4" s="132"/>
+      <c r="AO4" s="132"/>
+      <c r="AP4" s="132"/>
+      <c r="AQ4" s="132"/>
+      <c r="AR4" s="132">
         <f>AR5</f>
         <v>43991</v>
       </c>
-      <c r="AS4" s="120"/>
-      <c r="AT4" s="120"/>
-      <c r="AU4" s="120"/>
-      <c r="AV4" s="120"/>
-      <c r="AW4" s="120"/>
-      <c r="AX4" s="120"/>
-      <c r="AY4" s="120">
+      <c r="AS4" s="132"/>
+      <c r="AT4" s="132"/>
+      <c r="AU4" s="132"/>
+      <c r="AV4" s="132"/>
+      <c r="AW4" s="132"/>
+      <c r="AX4" s="132"/>
+      <c r="AY4" s="132">
         <f>AY5</f>
         <v>43998</v>
       </c>
-      <c r="AZ4" s="120"/>
-      <c r="BA4" s="120"/>
-      <c r="BB4" s="120"/>
-      <c r="BC4" s="120"/>
-      <c r="BD4" s="120"/>
-      <c r="BE4" s="120"/>
-      <c r="BF4" s="120">
+      <c r="AZ4" s="132"/>
+      <c r="BA4" s="132"/>
+      <c r="BB4" s="132"/>
+      <c r="BC4" s="132"/>
+      <c r="BD4" s="132"/>
+      <c r="BE4" s="132"/>
+      <c r="BF4" s="132">
         <f>BF5</f>
         <v>44005</v>
       </c>
-      <c r="BG4" s="120"/>
-      <c r="BH4" s="120"/>
-      <c r="BI4" s="120"/>
-      <c r="BJ4" s="120"/>
-      <c r="BK4" s="120"/>
-      <c r="BL4" s="121"/>
+      <c r="BG4" s="132"/>
+      <c r="BH4" s="132"/>
+      <c r="BI4" s="132"/>
+      <c r="BJ4" s="132"/>
+      <c r="BK4" s="132"/>
+      <c r="BL4" s="133"/>
     </row>
     <row r="5" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="131"/>
-      <c r="B5" s="132" t="s">
+      <c r="A5" s="120"/>
+      <c r="B5" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="123" t="s">
+      <c r="E5" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="123" t="s">
+      <c r="F5" s="125" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="25">
@@ -2289,8 +2289,8 @@
       </c>
     </row>
     <row r="6" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="131"/>
-      <c r="B6" s="133"/>
+      <c r="A6" s="120"/>
+      <c r="B6" s="122"/>
       <c r="C6" s="124"/>
       <c r="D6" s="124"/>
       <c r="E6" s="124"/>
@@ -2695,13 +2695,13 @@
         <v>41</v>
       </c>
       <c r="D9" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="88">
-        <v>43986</v>
+        <v>43985</v>
       </c>
       <c r="F9" s="88">
-        <v>43986</v>
+        <v>43985</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="5">
@@ -2737,7 +2737,9 @@
       <c r="AI9" s="96"/>
       <c r="AJ9" s="96"/>
       <c r="AK9" s="94"/>
-      <c r="AL9" s="44"/>
+      <c r="AL9" s="44" t="s">
+        <v>52</v>
+      </c>
       <c r="AM9" s="44"/>
       <c r="AN9" s="44"/>
       <c r="AO9" s="93"/>
@@ -3808,7 +3810,7 @@
         <v>41</v>
       </c>
       <c r="D23" s="65">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="E23" s="91">
         <v>43981</v>
@@ -4950,16 +4952,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4968,6 +4960,16 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D36">
     <cfRule type="dataBar" priority="23">
@@ -5081,23 +5083,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5413,29 +5404,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5462,9 +5453,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testdisk-7.2-WIP.win64\testdisk-7.2-WIP\backup\old_notebook\old_notebook\Desktop\RestoreFirstInstallationT580\anderScore\GitLab-Training\gitlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365B1BC4-5C5F-4BDB-8160-689D9CAA3556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2137552-1965-45A7-9EA9-AA9C07BBEFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="58">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -212,6 +212,12 @@
   </si>
   <si>
     <t>X = Working days</t>
+  </si>
+  <si>
+    <t>6/2</t>
+  </si>
+  <si>
+    <t>PT</t>
   </si>
 </sst>
 </file>
@@ -925,7 +931,7 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1258,22 +1264,19 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1286,14 +1289,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1874,8 +1883,8 @@
   </sheetPr>
   <dimension ref="A1:BN39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AZ34" sqref="AZ34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1901,28 +1910,28 @@
       <c r="E1" s="14"/>
       <c r="F1" s="15"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="130" t="s">
+      <c r="I1" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
       <c r="P1" s="18"/>
-      <c r="Q1" s="128">
+      <c r="Q1" s="127">
         <v>43956</v>
       </c>
-      <c r="R1" s="129"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="129"/>
-      <c r="U1" s="129"/>
-      <c r="V1" s="129"/>
-      <c r="W1" s="129"/>
-      <c r="X1" s="129"/>
-      <c r="Y1" s="129"/>
-      <c r="Z1" s="129"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="128"/>
+      <c r="Y1" s="128"/>
+      <c r="Z1" s="128"/>
     </row>
     <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="87" t="s">
@@ -1932,28 +1941,28 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
-      <c r="I2" s="130" t="s">
+      <c r="I2" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
       <c r="P2" s="18"/>
-      <c r="Q2" s="126">
+      <c r="Q2" s="125">
         <v>1</v>
       </c>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
     </row>
     <row r="3" spans="1:65" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -1965,103 +1974,106 @@
       <c r="A4" s="8"/>
       <c r="B4" s="23"/>
       <c r="E4" s="24"/>
-      <c r="I4" s="134">
+      <c r="I4" s="122">
         <f>I5</f>
         <v>43956</v>
       </c>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="132"/>
-      <c r="O4" s="132"/>
-      <c r="P4" s="132">
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="120">
         <f>P5</f>
         <v>43963</v>
       </c>
-      <c r="Q4" s="132"/>
-      <c r="R4" s="132"/>
-      <c r="S4" s="132"/>
-      <c r="T4" s="132"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="132"/>
-      <c r="W4" s="132">
+      <c r="Q4" s="120"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="120"/>
+      <c r="V4" s="120"/>
+      <c r="W4" s="120">
         <f>W5</f>
         <v>43970</v>
       </c>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="132"/>
-      <c r="Z4" s="132"/>
-      <c r="AA4" s="132"/>
-      <c r="AB4" s="132"/>
-      <c r="AC4" s="132"/>
-      <c r="AD4" s="132">
+      <c r="X4" s="120"/>
+      <c r="Y4" s="120"/>
+      <c r="Z4" s="120"/>
+      <c r="AA4" s="120"/>
+      <c r="AB4" s="120"/>
+      <c r="AC4" s="120"/>
+      <c r="AD4" s="120">
         <f>AD5</f>
         <v>43977</v>
       </c>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="132"/>
-      <c r="AG4" s="132"/>
-      <c r="AH4" s="132"/>
-      <c r="AI4" s="132"/>
-      <c r="AJ4" s="132"/>
-      <c r="AK4" s="132">
+      <c r="AE4" s="120"/>
+      <c r="AF4" s="120"/>
+      <c r="AG4" s="120"/>
+      <c r="AH4" s="120"/>
+      <c r="AI4" s="120"/>
+      <c r="AJ4" s="120"/>
+      <c r="AK4" s="120">
         <f>AK5</f>
         <v>43984</v>
       </c>
-      <c r="AL4" s="132"/>
-      <c r="AM4" s="132"/>
-      <c r="AN4" s="132"/>
-      <c r="AO4" s="132"/>
-      <c r="AP4" s="132"/>
-      <c r="AQ4" s="132"/>
-      <c r="AR4" s="132">
+      <c r="AL4" s="120"/>
+      <c r="AM4" s="120"/>
+      <c r="AN4" s="120"/>
+      <c r="AO4" s="120"/>
+      <c r="AP4" s="120"/>
+      <c r="AQ4" s="120"/>
+      <c r="AR4" s="120">
         <f>AR5</f>
         <v>43991</v>
       </c>
-      <c r="AS4" s="132"/>
-      <c r="AT4" s="132"/>
-      <c r="AU4" s="132"/>
-      <c r="AV4" s="132"/>
-      <c r="AW4" s="132"/>
-      <c r="AX4" s="132"/>
-      <c r="AY4" s="132">
+      <c r="AS4" s="120"/>
+      <c r="AT4" s="120"/>
+      <c r="AU4" s="120"/>
+      <c r="AV4" s="120"/>
+      <c r="AW4" s="120"/>
+      <c r="AX4" s="120"/>
+      <c r="AY4" s="120">
         <f>AY5</f>
         <v>43998</v>
       </c>
-      <c r="AZ4" s="132"/>
-      <c r="BA4" s="132"/>
-      <c r="BB4" s="132"/>
-      <c r="BC4" s="132"/>
-      <c r="BD4" s="132"/>
-      <c r="BE4" s="132"/>
-      <c r="BF4" s="132">
+      <c r="AZ4" s="120"/>
+      <c r="BA4" s="120"/>
+      <c r="BB4" s="120"/>
+      <c r="BC4" s="120"/>
+      <c r="BD4" s="120"/>
+      <c r="BE4" s="120"/>
+      <c r="BF4" s="120">
         <f>BF5</f>
         <v>44005</v>
       </c>
-      <c r="BG4" s="132"/>
-      <c r="BH4" s="132"/>
-      <c r="BI4" s="132"/>
-      <c r="BJ4" s="132"/>
-      <c r="BK4" s="132"/>
-      <c r="BL4" s="133"/>
+      <c r="BG4" s="120"/>
+      <c r="BH4" s="120"/>
+      <c r="BI4" s="120"/>
+      <c r="BJ4" s="120"/>
+      <c r="BK4" s="120"/>
+      <c r="BL4" s="121"/>
     </row>
     <row r="5" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="120"/>
-      <c r="B5" s="121" t="s">
+      <c r="A5" s="131"/>
+      <c r="B5" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="125" t="s">
+      <c r="D5" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="125" t="s">
+      <c r="E5" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="125" t="s">
+      <c r="F5" s="123" t="s">
         <v>3</v>
+      </c>
+      <c r="H5" s="123" t="s">
+        <v>57</v>
       </c>
       <c r="I5" s="25">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
@@ -2289,12 +2301,15 @@
       </c>
     </row>
     <row r="6" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="120"/>
-      <c r="B6" s="122"/>
+      <c r="A6" s="131"/>
+      <c r="B6" s="133"/>
       <c r="C6" s="124"/>
       <c r="D6" s="124"/>
       <c r="E6" s="124"/>
       <c r="F6" s="124"/>
+      <c r="H6" s="124" t="s">
+        <v>57</v>
+      </c>
       <c r="I6" s="28" t="str">
         <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>d</v>
@@ -2786,8 +2801,7 @@
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="5">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I10" s="44" t="s">
         <v>52</v>
@@ -2881,8 +2895,7 @@
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="5">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
@@ -3041,7 +3054,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="47">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E13" s="89">
         <v>43985</v>
@@ -3083,8 +3096,12 @@
       <c r="AI13" s="96"/>
       <c r="AJ13" s="96"/>
       <c r="AK13" s="94"/>
-      <c r="AL13" s="44"/>
-      <c r="AM13" s="44"/>
+      <c r="AL13" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM13" s="44" t="s">
+        <v>52</v>
+      </c>
       <c r="AN13" s="44"/>
       <c r="AO13" s="93"/>
       <c r="AP13" s="96"/>
@@ -3235,18 +3252,17 @@
         <v>19</v>
       </c>
       <c r="D16" s="56">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="E16" s="90">
         <v>43978</v>
       </c>
       <c r="F16" s="90">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="5">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
@@ -3282,7 +3298,9 @@
       <c r="AL16" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="AM16" s="44"/>
+      <c r="AM16" s="44" t="s">
+        <v>52</v>
+      </c>
       <c r="AN16" s="44"/>
       <c r="AO16" s="93"/>
       <c r="AP16" s="96"/>
@@ -3318,18 +3336,17 @@
         <v>47</v>
       </c>
       <c r="D17" s="56">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="E17" s="90">
         <v>43965</v>
       </c>
       <c r="F17" s="90">
-        <v>43981</v>
+        <v>43985</v>
       </c>
       <c r="G17" s="11"/>
-      <c r="H17" s="5">
-        <f t="shared" si="5"/>
-        <v>17</v>
+      <c r="H17" s="135" t="s">
+        <v>56</v>
       </c>
       <c r="I17" s="44"/>
       <c r="J17" s="44"/>
@@ -3370,7 +3387,9 @@
       <c r="AI17" s="96"/>
       <c r="AJ17" s="96"/>
       <c r="AK17" s="94"/>
-      <c r="AL17" s="44"/>
+      <c r="AL17" s="44" t="s">
+        <v>52</v>
+      </c>
       <c r="AM17" s="44"/>
       <c r="AN17" s="44"/>
       <c r="AO17" s="93"/>
@@ -3407,18 +3426,18 @@
         <v>47</v>
       </c>
       <c r="D18" s="56">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="E18" s="90">
-        <v>43972</v>
+        <v>43985</v>
       </c>
       <c r="F18" s="90">
-        <v>43981</v>
+        <v>43985</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="5">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
@@ -3449,7 +3468,9 @@
       <c r="AI18" s="96"/>
       <c r="AJ18" s="96"/>
       <c r="AK18" s="94"/>
-      <c r="AL18" s="44"/>
+      <c r="AL18" s="44" t="s">
+        <v>52</v>
+      </c>
       <c r="AM18" s="44"/>
       <c r="AN18" s="44"/>
       <c r="AO18" s="93"/>
@@ -3820,8 +3841,7 @@
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="5">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I23" s="44"/>
       <c r="J23" s="44"/>
@@ -3895,7 +3915,7 @@
         <v>27</v>
       </c>
       <c r="D24" s="65">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="E24" s="91">
         <v>43979</v>
@@ -3905,8 +3925,7 @@
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="5">
-        <f t="shared" si="5"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
@@ -3980,13 +3999,13 @@
         <v>41</v>
       </c>
       <c r="D25" s="65">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E25" s="91">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="F25" s="91">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="5">
@@ -4023,7 +4042,9 @@
       <c r="AJ25" s="96"/>
       <c r="AK25" s="94"/>
       <c r="AL25" s="44"/>
-      <c r="AM25" s="44"/>
+      <c r="AM25" s="44" t="s">
+        <v>52</v>
+      </c>
       <c r="AN25" s="44"/>
       <c r="AO25" s="93"/>
       <c r="AP25" s="96"/>
@@ -4684,7 +4705,9 @@
       </c>
       <c r="AL33" s="44"/>
       <c r="AM33" s="44"/>
-      <c r="AN33" s="44"/>
+      <c r="AN33" s="102" t="s">
+        <v>39</v>
+      </c>
       <c r="AO33" s="102" t="s">
         <v>39</v>
       </c>
@@ -4768,32 +4791,32 @@
       <c r="AH34"/>
       <c r="AI34" s="96"/>
       <c r="AJ34" s="96"/>
-      <c r="AK34"/>
-      <c r="AL34" s="39"/>
-      <c r="AM34" s="39"/>
-      <c r="AN34" s="39"/>
-      <c r="AO34"/>
+      <c r="AK34" s="94"/>
+      <c r="AL34" s="44"/>
+      <c r="AM34" s="44"/>
+      <c r="AN34" s="44"/>
+      <c r="AO34" s="93"/>
       <c r="AP34" s="96"/>
       <c r="AQ34" s="96"/>
-      <c r="AR34" s="39"/>
-      <c r="AS34" s="39"/>
-      <c r="AT34" s="39"/>
-      <c r="AU34" s="39"/>
-      <c r="AV34" s="39"/>
+      <c r="AR34" s="94"/>
+      <c r="AS34" s="44"/>
+      <c r="AT34" s="44"/>
+      <c r="AU34" s="44"/>
+      <c r="AV34" s="93"/>
       <c r="AW34" s="96"/>
       <c r="AX34" s="96"/>
-      <c r="AY34" s="39"/>
-      <c r="AZ34" s="39"/>
-      <c r="BA34" s="39"/>
-      <c r="BB34" s="39"/>
-      <c r="BC34" s="39"/>
+      <c r="AY34" s="94"/>
+      <c r="AZ34" s="44"/>
+      <c r="BA34" s="44"/>
+      <c r="BB34" s="44"/>
+      <c r="BC34" s="93"/>
       <c r="BD34" s="96"/>
       <c r="BE34" s="96"/>
-      <c r="BF34" s="39"/>
-      <c r="BG34" s="39"/>
-      <c r="BH34" s="39"/>
-      <c r="BI34" s="39"/>
-      <c r="BJ34" s="39"/>
+      <c r="BF34" s="94"/>
+      <c r="BG34" s="44"/>
+      <c r="BH34" s="44"/>
+      <c r="BI34" s="44"/>
+      <c r="BJ34" s="93"/>
       <c r="BK34" s="96"/>
       <c r="BL34" s="96"/>
       <c r="BN34" s="40" t="s">
@@ -4951,7 +4974,18 @@
       <c r="C39" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4960,16 +4994,6 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D36">
     <cfRule type="dataBar" priority="23">
@@ -5010,28 +5034,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:BL31 I32:R32 U32:BL32 I33:BL34">
-    <cfRule type="expression" dxfId="5" priority="36">
+    <cfRule type="expression" dxfId="2" priority="36">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="37" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:R32 U32:BL32 I4:BL31 I33:BL34">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T32">
-    <cfRule type="expression" dxfId="2" priority="40">
+    <cfRule type="expression" dxfId="5" priority="40">
       <formula>AND(task_start&lt;=S$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=S$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="41" stopIfTrue="1">
       <formula>AND(task_end&gt;=S$5,task_start&lt;T$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T32">
-    <cfRule type="expression" dxfId="0" priority="43">
+    <cfRule type="expression" dxfId="3" priority="43">
       <formula>AND(TODAY()&gt;=S$5, TODAY()&lt;T$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5083,12 +5107,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5404,29 +5439,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5453,20 +5488,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testdisk-7.2-WIP.win64\testdisk-7.2-WIP\backup\old_notebook\old_notebook\Desktop\RestoreFirstInstallationT580\anderScore\GitLab-Training\gitlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2137552-1965-45A7-9EA9-AA9C07BBEFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B1D721-BC0D-48ED-A911-F73D226D4AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="58">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -142,9 +142,6 @@
     <t>Review Schulung durch abhaltende Trainer</t>
   </si>
   <si>
-    <t>DKrämer + Mfischer</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -218,6 +215,9 @@
   </si>
   <si>
     <t>PT</t>
+  </si>
+  <si>
+    <t>DKrämer + MFischer</t>
   </si>
 </sst>
 </file>
@@ -1264,19 +1264,25 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1289,20 +1295,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1883,8 +1883,8 @@
   </sheetPr>
   <dimension ref="A1:BN39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AZ34" sqref="AZ34"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AK20" sqref="AK20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1903,35 +1903,35 @@
     <row r="1" spans="1:65" ht="90" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A1" s="8"/>
       <c r="B1" s="86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="13"/>
       <c r="E1" s="14"/>
       <c r="F1" s="15"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="129" t="s">
+      <c r="I1" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
       <c r="P1" s="18"/>
-      <c r="Q1" s="127">
+      <c r="Q1" s="129">
         <v>43956</v>
       </c>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
-      <c r="U1" s="128"/>
-      <c r="V1" s="128"/>
-      <c r="W1" s="128"/>
-      <c r="X1" s="128"/>
-      <c r="Y1" s="128"/>
-      <c r="Z1" s="128"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="130"/>
     </row>
     <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="87" t="s">
@@ -1941,28 +1941,28 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
-      <c r="I2" s="129" t="s">
+      <c r="I2" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
       <c r="P2" s="18"/>
-      <c r="Q2" s="125">
+      <c r="Q2" s="127">
         <v>1</v>
       </c>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
-      <c r="X2" s="126"/>
-      <c r="Y2" s="126"/>
-      <c r="Z2" s="126"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
     </row>
     <row r="3" spans="1:65" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -1974,106 +1974,106 @@
       <c r="A4" s="8"/>
       <c r="B4" s="23"/>
       <c r="E4" s="24"/>
-      <c r="I4" s="122">
+      <c r="I4" s="135">
         <f>I5</f>
         <v>43956</v>
       </c>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
-      <c r="O4" s="120"/>
-      <c r="P4" s="120">
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="133"/>
+      <c r="O4" s="133"/>
+      <c r="P4" s="133">
         <f>P5</f>
         <v>43963</v>
       </c>
-      <c r="Q4" s="120"/>
-      <c r="R4" s="120"/>
-      <c r="S4" s="120"/>
-      <c r="T4" s="120"/>
-      <c r="U4" s="120"/>
-      <c r="V4" s="120"/>
-      <c r="W4" s="120">
+      <c r="Q4" s="133"/>
+      <c r="R4" s="133"/>
+      <c r="S4" s="133"/>
+      <c r="T4" s="133"/>
+      <c r="U4" s="133"/>
+      <c r="V4" s="133"/>
+      <c r="W4" s="133">
         <f>W5</f>
         <v>43970</v>
       </c>
-      <c r="X4" s="120"/>
-      <c r="Y4" s="120"/>
-      <c r="Z4" s="120"/>
-      <c r="AA4" s="120"/>
-      <c r="AB4" s="120"/>
-      <c r="AC4" s="120"/>
-      <c r="AD4" s="120">
+      <c r="X4" s="133"/>
+      <c r="Y4" s="133"/>
+      <c r="Z4" s="133"/>
+      <c r="AA4" s="133"/>
+      <c r="AB4" s="133"/>
+      <c r="AC4" s="133"/>
+      <c r="AD4" s="133">
         <f>AD5</f>
         <v>43977</v>
       </c>
-      <c r="AE4" s="120"/>
-      <c r="AF4" s="120"/>
-      <c r="AG4" s="120"/>
-      <c r="AH4" s="120"/>
-      <c r="AI4" s="120"/>
-      <c r="AJ4" s="120"/>
-      <c r="AK4" s="120">
+      <c r="AE4" s="133"/>
+      <c r="AF4" s="133"/>
+      <c r="AG4" s="133"/>
+      <c r="AH4" s="133"/>
+      <c r="AI4" s="133"/>
+      <c r="AJ4" s="133"/>
+      <c r="AK4" s="133">
         <f>AK5</f>
         <v>43984</v>
       </c>
-      <c r="AL4" s="120"/>
-      <c r="AM4" s="120"/>
-      <c r="AN4" s="120"/>
-      <c r="AO4" s="120"/>
-      <c r="AP4" s="120"/>
-      <c r="AQ4" s="120"/>
-      <c r="AR4" s="120">
+      <c r="AL4" s="133"/>
+      <c r="AM4" s="133"/>
+      <c r="AN4" s="133"/>
+      <c r="AO4" s="133"/>
+      <c r="AP4" s="133"/>
+      <c r="AQ4" s="133"/>
+      <c r="AR4" s="133">
         <f>AR5</f>
         <v>43991</v>
       </c>
-      <c r="AS4" s="120"/>
-      <c r="AT4" s="120"/>
-      <c r="AU4" s="120"/>
-      <c r="AV4" s="120"/>
-      <c r="AW4" s="120"/>
-      <c r="AX4" s="120"/>
-      <c r="AY4" s="120">
+      <c r="AS4" s="133"/>
+      <c r="AT4" s="133"/>
+      <c r="AU4" s="133"/>
+      <c r="AV4" s="133"/>
+      <c r="AW4" s="133"/>
+      <c r="AX4" s="133"/>
+      <c r="AY4" s="133">
         <f>AY5</f>
         <v>43998</v>
       </c>
-      <c r="AZ4" s="120"/>
-      <c r="BA4" s="120"/>
-      <c r="BB4" s="120"/>
-      <c r="BC4" s="120"/>
-      <c r="BD4" s="120"/>
-      <c r="BE4" s="120"/>
-      <c r="BF4" s="120">
+      <c r="AZ4" s="133"/>
+      <c r="BA4" s="133"/>
+      <c r="BB4" s="133"/>
+      <c r="BC4" s="133"/>
+      <c r="BD4" s="133"/>
+      <c r="BE4" s="133"/>
+      <c r="BF4" s="133">
         <f>BF5</f>
         <v>44005</v>
       </c>
-      <c r="BG4" s="120"/>
-      <c r="BH4" s="120"/>
-      <c r="BI4" s="120"/>
-      <c r="BJ4" s="120"/>
-      <c r="BK4" s="120"/>
-      <c r="BL4" s="121"/>
+      <c r="BG4" s="133"/>
+      <c r="BH4" s="133"/>
+      <c r="BI4" s="133"/>
+      <c r="BJ4" s="133"/>
+      <c r="BK4" s="133"/>
+      <c r="BL4" s="134"/>
     </row>
     <row r="5" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="131"/>
-      <c r="B5" s="132" t="s">
+      <c r="A5" s="121"/>
+      <c r="B5" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="123" t="s">
+      <c r="E5" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="123" t="s">
+      <c r="F5" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="123" t="s">
-        <v>57</v>
+      <c r="H5" s="126" t="s">
+        <v>56</v>
       </c>
       <c r="I5" s="25">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
@@ -2301,14 +2301,14 @@
       </c>
     </row>
     <row r="6" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="131"/>
-      <c r="B6" s="133"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="H6" s="124" t="s">
-        <v>57</v>
+      <c r="A6" s="121"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="H6" s="125" t="s">
+        <v>56</v>
       </c>
       <c r="I6" s="28" t="str">
         <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
@@ -2623,11 +2623,11 @@
       <c r="J8" s="39"/>
       <c r="K8" s="39"/>
       <c r="L8" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" s="39"/>
       <c r="N8" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O8" s="39"/>
       <c r="P8" s="39"/>
@@ -2636,29 +2636,29 @@
       <c r="S8" s="39"/>
       <c r="T8" s="39"/>
       <c r="U8" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V8" s="39"/>
       <c r="W8" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X8" s="39"/>
       <c r="Y8" s="39"/>
       <c r="Z8" s="39"/>
       <c r="AA8" s="39"/>
       <c r="AB8" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC8" s="39"/>
       <c r="AD8" s="39"/>
       <c r="AE8" s="39"/>
       <c r="AF8" s="39"/>
       <c r="AG8" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AH8" s="39"/>
       <c r="AI8" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AJ8" s="39"/>
       <c r="AK8" s="39"/>
@@ -2667,7 +2667,7 @@
       <c r="AN8" s="39"/>
       <c r="AO8" s="39"/>
       <c r="AP8" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AQ8"/>
       <c r="AR8"/>
@@ -2676,7 +2676,7 @@
       <c r="AU8"/>
       <c r="AV8" s="39"/>
       <c r="AW8" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AX8" s="39"/>
       <c r="AY8" s="39"/>
@@ -2685,7 +2685,7 @@
       <c r="BB8" s="39"/>
       <c r="BC8" s="39"/>
       <c r="BD8" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="BE8" s="39"/>
       <c r="BF8" s="39"/>
@@ -2694,11 +2694,11 @@
       <c r="BI8" s="39"/>
       <c r="BJ8" s="39"/>
       <c r="BK8" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="BL8" s="39"/>
       <c r="BM8" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:65" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2707,7 +2707,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="43">
         <v>1</v>
@@ -2753,7 +2753,7 @@
       <c r="AJ9" s="96"/>
       <c r="AK9" s="94"/>
       <c r="AL9" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AM9" s="44"/>
       <c r="AN9" s="44"/>
@@ -2804,23 +2804,23 @@
         <v>8</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J10" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K10" s="93" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L10" s="96"/>
       <c r="M10" s="71"/>
       <c r="N10" s="96"/>
       <c r="O10" s="96"/>
       <c r="P10" s="94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R10" s="44"/>
       <c r="S10" s="44"/>
@@ -2829,13 +2829,13 @@
       <c r="V10" s="97"/>
       <c r="W10" s="96"/>
       <c r="X10" s="94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y10" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z10" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA10" s="93"/>
       <c r="AB10" s="96"/>
@@ -2905,10 +2905,10 @@
       <c r="N11" s="96"/>
       <c r="O11" s="96"/>
       <c r="P11" s="94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R11" s="44"/>
       <c r="S11" s="44"/>
@@ -2917,13 +2917,13 @@
       <c r="V11" s="96"/>
       <c r="W11" s="96"/>
       <c r="X11" s="94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y11" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z11" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA11" s="93"/>
       <c r="AB11" s="96"/>
@@ -3008,7 +3008,7 @@
       <c r="AB12" s="96"/>
       <c r="AC12" s="96"/>
       <c r="AD12" s="94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AE12" s="44"/>
       <c r="AF12" s="93"/>
@@ -3054,18 +3054,18 @@
         <v>19</v>
       </c>
       <c r="D13" s="47">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="E13" s="89">
         <v>43985</v>
       </c>
       <c r="F13" s="89">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="5">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
@@ -3097,12 +3097,14 @@
       <c r="AJ13" s="96"/>
       <c r="AK13" s="94"/>
       <c r="AL13" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AM13" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN13" s="44"/>
+        <v>51</v>
+      </c>
+      <c r="AN13" s="44" t="s">
+        <v>51</v>
+      </c>
       <c r="AO13" s="93"/>
       <c r="AP13" s="96"/>
       <c r="AQ13" s="96"/>
@@ -3207,7 +3209,7 @@
       <c r="AC15" s="96"/>
       <c r="AD15" s="94"/>
       <c r="AE15" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AF15" s="93"/>
       <c r="AG15" s="96"/>
@@ -3252,7 +3254,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="56">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E16" s="90">
         <v>43978</v>
@@ -3287,7 +3289,7 @@
       <c r="AC16" s="96"/>
       <c r="AD16" s="94"/>
       <c r="AE16" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AF16" s="93"/>
       <c r="AG16" s="96"/>
@@ -3296,10 +3298,10 @@
       <c r="AJ16" s="96"/>
       <c r="AK16" s="94"/>
       <c r="AL16" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AM16" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AN16" s="44"/>
       <c r="AO16" s="93"/>
@@ -3333,7 +3335,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="56">
         <v>0.95</v>
@@ -3345,8 +3347,8 @@
         <v>43985</v>
       </c>
       <c r="G17" s="11"/>
-      <c r="H17" s="135" t="s">
-        <v>56</v>
+      <c r="H17" s="120" t="s">
+        <v>55</v>
       </c>
       <c r="I17" s="44"/>
       <c r="J17" s="44"/>
@@ -3358,22 +3360,22 @@
       <c r="P17" s="94"/>
       <c r="Q17" s="44"/>
       <c r="R17" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S17" s="44"/>
       <c r="T17" s="93" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U17" s="96"/>
       <c r="V17" s="96"/>
       <c r="W17" s="96"/>
       <c r="X17" s="94"/>
       <c r="Y17" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z17" s="44"/>
       <c r="AA17" s="93" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB17" s="96"/>
       <c r="AC17" s="96"/>
@@ -3382,13 +3384,13 @@
       <c r="AF17" s="93"/>
       <c r="AG17" s="96"/>
       <c r="AH17" s="71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI17" s="96"/>
       <c r="AJ17" s="96"/>
       <c r="AK17" s="94"/>
       <c r="AL17" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AM17" s="44"/>
       <c r="AN17" s="44"/>
@@ -3423,7 +3425,7 @@
         <v>23</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="56">
         <v>0.95</v>
@@ -3469,7 +3471,7 @@
       <c r="AJ18" s="96"/>
       <c r="AK18" s="94"/>
       <c r="AL18" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AM18" s="44"/>
       <c r="AN18" s="44"/>
@@ -3504,7 +3506,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="56">
         <v>1</v>
@@ -3537,13 +3539,13 @@
       <c r="W19" s="96"/>
       <c r="X19" s="94"/>
       <c r="Y19" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z19" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA19" s="93" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB19" s="96"/>
       <c r="AC19" s="96"/>
@@ -3669,12 +3671,11 @@
         <v>43977</v>
       </c>
       <c r="F21" s="91">
-        <v>43978</v>
+        <v>43987</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21" s="44"/>
       <c r="J21" s="44"/>
@@ -3698,10 +3699,10 @@
       <c r="AB21" s="96"/>
       <c r="AC21" s="96"/>
       <c r="AD21" s="94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AE21" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AF21" s="93"/>
       <c r="AG21" s="96"/>
@@ -3711,7 +3712,9 @@
       <c r="AK21" s="94"/>
       <c r="AL21" s="44"/>
       <c r="AM21" s="44"/>
-      <c r="AN21" s="44"/>
+      <c r="AN21" s="44" t="s">
+        <v>51</v>
+      </c>
       <c r="AO21" s="93"/>
       <c r="AP21" s="96"/>
       <c r="AQ21" s="96"/>
@@ -3743,7 +3746,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="65">
         <v>1</v>
@@ -3781,13 +3784,13 @@
       <c r="AB22" s="96"/>
       <c r="AC22" s="96"/>
       <c r="AD22" s="94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AE22" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AF22" s="93" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG22" s="96"/>
       <c r="AH22" s="71"/>
@@ -3828,10 +3831,10 @@
         <v>28</v>
       </c>
       <c r="C23" s="64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="65">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E23" s="91">
         <v>43981</v>
@@ -3869,15 +3872,15 @@
       <c r="AF23" s="93"/>
       <c r="AG23" s="96"/>
       <c r="AH23" s="71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI23" s="96"/>
       <c r="AJ23" s="96"/>
       <c r="AK23" s="94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AL23" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AM23" s="44"/>
       <c r="AN23" s="44"/>
@@ -3915,7 +3918,7 @@
         <v>27</v>
       </c>
       <c r="D24" s="65">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E24" s="91">
         <v>43979</v>
@@ -3951,17 +3954,17 @@
       <c r="AD24" s="94"/>
       <c r="AE24" s="44"/>
       <c r="AF24" s="93" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG24" s="96"/>
       <c r="AH24" s="71"/>
       <c r="AI24" s="96"/>
       <c r="AJ24" s="96"/>
       <c r="AK24" s="94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AL24" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AM24" s="44"/>
       <c r="AN24" s="44"/>
@@ -3996,21 +3999,21 @@
         <v>30</v>
       </c>
       <c r="C25" s="64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="65">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="E25" s="91">
         <v>43986</v>
       </c>
       <c r="F25" s="91">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" s="44"/>
       <c r="J25" s="44"/>
@@ -4043,9 +4046,11 @@
       <c r="AK25" s="94"/>
       <c r="AL25" s="44"/>
       <c r="AM25" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN25" s="44"/>
+        <v>51</v>
+      </c>
+      <c r="AN25" s="44" t="s">
+        <v>51</v>
+      </c>
       <c r="AO25" s="93"/>
       <c r="AP25" s="96"/>
       <c r="AQ25" s="96"/>
@@ -4145,7 +4150,7 @@
     <row r="27" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="73"/>
       <c r="D27" s="74"/>
@@ -4295,7 +4300,7 @@
     <row r="29" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="73"/>
       <c r="D29" s="74"/>
@@ -4370,10 +4375,10 @@
     <row r="30" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="73" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D30" s="74"/>
       <c r="E30" s="92">
@@ -4447,10 +4452,10 @@
     <row r="31" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31" s="74"/>
       <c r="E31" s="92"/>
@@ -4460,34 +4465,34 @@
       <c r="I31" s="44"/>
       <c r="J31" s="44"/>
       <c r="K31" s="102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L31" s="96"/>
       <c r="M31" s="103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N31" s="96"/>
       <c r="O31" s="96"/>
       <c r="P31" s="106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q31" s="106" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R31" s="106" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S31" s="106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T31" s="106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U31" s="96"/>
       <c r="V31" s="96"/>
       <c r="W31" s="96"/>
       <c r="X31" s="106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y31" s="116"/>
       <c r="Z31" s="98"/>
@@ -4509,16 +4514,16 @@
       <c r="AP31" s="96"/>
       <c r="AQ31" s="96"/>
       <c r="AR31" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS31" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT31" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU31" s="105" t="s">
         <v>36</v>
-      </c>
-      <c r="AS31" s="109" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT31" s="104" t="s">
-        <v>35</v>
-      </c>
-      <c r="AU31" s="105" t="s">
-        <v>37</v>
       </c>
       <c r="AV31" s="93"/>
       <c r="AW31" s="96"/>
@@ -4538,13 +4543,13 @@
       <c r="BK31" s="96"/>
       <c r="BL31" s="96"/>
       <c r="BN31" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="73" t="s">
         <v>27</v>
@@ -4557,43 +4562,43 @@
       <c r="I32" s="44"/>
       <c r="J32" s="44"/>
       <c r="K32" s="102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L32" s="96"/>
       <c r="M32" s="103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N32" s="96"/>
       <c r="O32" s="96"/>
       <c r="P32" s="106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q32" s="106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R32" s="106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S32" s="117" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T32" s="106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U32" s="96"/>
       <c r="V32" s="96"/>
       <c r="W32" s="96"/>
       <c r="X32" s="106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y32" s="106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z32" s="106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA32" s="106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB32" s="96"/>
       <c r="AC32" s="96"/>
@@ -4602,14 +4607,14 @@
       <c r="AF32" s="93"/>
       <c r="AG32" s="96"/>
       <c r="AH32" s="103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI32" s="96"/>
       <c r="AJ32" s="96"/>
       <c r="AK32" s="94"/>
       <c r="AL32" s="44"/>
       <c r="AM32" s="118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AN32" s="119"/>
       <c r="AO32" s="93"/>
@@ -4617,7 +4622,9 @@
       <c r="AQ32" s="96"/>
       <c r="AR32" s="100"/>
       <c r="AS32" s="101"/>
-      <c r="AT32" s="44"/>
+      <c r="AT32" s="104" t="s">
+        <v>34</v>
+      </c>
       <c r="AU32" s="44"/>
       <c r="AV32" s="93"/>
       <c r="AW32" s="96"/>
@@ -4637,13 +4644,13 @@
       <c r="BK32" s="96"/>
       <c r="BL32" s="96"/>
       <c r="BN32" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="73" t="s">
         <v>19</v>
@@ -4661,20 +4668,20 @@
       <c r="K33" s="93"/>
       <c r="L33" s="96"/>
       <c r="M33" s="103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N33" s="96"/>
       <c r="O33" s="96"/>
       <c r="P33" s="62"/>
       <c r="Q33"/>
       <c r="R33" s="106" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S33" s="106" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T33" s="110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U33" s="96"/>
       <c r="V33" s="96"/>
@@ -4682,34 +4689,34 @@
       <c r="X33" s="100"/>
       <c r="Y33" s="101"/>
       <c r="Z33" s="108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA33" s="108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB33" s="96"/>
       <c r="AC33" s="96"/>
       <c r="AD33" s="94"/>
       <c r="AE33" s="44"/>
       <c r="AF33" s="102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG33" s="96"/>
       <c r="AH33" s="103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AI33" s="96"/>
       <c r="AJ33" s="96"/>
       <c r="AK33" s="104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AL33" s="44"/>
       <c r="AM33" s="44"/>
       <c r="AN33" s="102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO33" s="102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AP33" s="96"/>
       <c r="AQ33" s="96"/>
@@ -4735,16 +4742,16 @@
       <c r="BK33" s="96"/>
       <c r="BL33" s="96"/>
       <c r="BN33" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="111" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="112" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34" s="113"/>
       <c r="E34" s="114"/>
@@ -4756,14 +4763,14 @@
       <c r="K34" s="39"/>
       <c r="L34" s="96"/>
       <c r="M34" s="109" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N34" s="96"/>
       <c r="O34" s="96"/>
       <c r="P34" s="95"/>
       <c r="Q34"/>
       <c r="R34" s="115" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S34"/>
       <c r="T34"/>
@@ -4771,21 +4778,21 @@
       <c r="V34" s="96"/>
       <c r="W34" s="96"/>
       <c r="X34" s="106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y34" s="95"/>
       <c r="Z34" s="106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA34" s="106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB34" s="96"/>
       <c r="AC34" s="96"/>
       <c r="AD34" s="39"/>
       <c r="AE34" s="39"/>
       <c r="AF34" s="109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG34" s="96"/>
       <c r="AH34"/>
@@ -4820,7 +4827,7 @@
       <c r="BK34" s="96"/>
       <c r="BL34" s="96"/>
       <c r="BN34" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:66" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4975,17 +4982,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="H5:H6"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4994,6 +4990,17 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D36">
     <cfRule type="dataBar" priority="23">
@@ -5033,29 +5040,29 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:BL31 I32:R32 U32:BL32 I33:BL34">
-    <cfRule type="expression" dxfId="2" priority="36">
+  <conditionalFormatting sqref="I27:BL31 I32:R32 I33:BL34 U32:BL32">
+    <cfRule type="expression" dxfId="5" priority="36">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="37" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:R32 U32:BL32 I4:BL31 I33:BL34">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="I32:R32 I4:BL31 I33:BL34 U32:BL32">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T32">
-    <cfRule type="expression" dxfId="5" priority="40">
+    <cfRule type="expression" dxfId="2" priority="40">
       <formula>AND(task_start&lt;=S$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=S$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="41" stopIfTrue="1">
       <formula>AND(task_end&gt;=S$5,task_start&lt;T$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T32">
-    <cfRule type="expression" dxfId="3" priority="43">
+    <cfRule type="expression" dxfId="0" priority="43">
       <formula>AND(TODAY()&gt;=S$5, TODAY()&lt;T$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5107,23 +5114,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5439,29 +5435,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5488,9 +5484,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testdisk-7.2-WIP.win64\testdisk-7.2-WIP\backup\old_notebook\old_notebook\Desktop\RestoreFirstInstallationT580\anderScore\GitLab-Training\gitlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B1D721-BC0D-48ED-A911-F73D226D4AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7062BE6D-04FD-48D0-B7F7-B9E294E0DE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="11" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="58">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -1883,8 +1883,8 @@
   </sheetPr>
   <dimension ref="A1:BN39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AK20" sqref="AK20"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AP30" sqref="AP30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4805,10 +4805,16 @@
       <c r="AO34" s="93"/>
       <c r="AP34" s="96"/>
       <c r="AQ34" s="96"/>
-      <c r="AR34" s="94"/>
-      <c r="AS34" s="44"/>
+      <c r="AR34" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS34" s="104" t="s">
+        <v>34</v>
+      </c>
       <c r="AT34" s="44"/>
-      <c r="AU34" s="44"/>
+      <c r="AU34" s="104" t="s">
+        <v>34</v>
+      </c>
       <c r="AV34" s="93"/>
       <c r="AW34" s="96"/>
       <c r="AX34" s="96"/>
@@ -5040,7 +5046,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:BL31 I32:R32 I33:BL34 U32:BL32">
+  <conditionalFormatting sqref="I27:BL31 I32:R32 U32:BL32 I33:BL34">
     <cfRule type="expression" dxfId="5" priority="36">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -5048,7 +5054,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:R32 I4:BL31 I33:BL34 U32:BL32">
+  <conditionalFormatting sqref="I32:R32 I4:BL31 U32:BL32 I33:BL34">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>

--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testdisk-7.2-WIP.win64\testdisk-7.2-WIP\backup\old_notebook\old_notebook\Desktop\RestoreFirstInstallationT580\anderScore\GitLab-Training\gitlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7062BE6D-04FD-48D0-B7F7-B9E294E0DE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0D858A-4DAC-42EB-B0CE-FF68656F5069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="11" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="60">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -218,6 +218,12 @@
   </si>
   <si>
     <t>DKrämer + MFischer</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -931,7 +937,7 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1267,22 +1273,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1295,14 +1298,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1321,7 +1330,51 @@
     <cellStyle name="Überschrift 3" xfId="8" builtinId="18" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1574,15 +1627,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="20"/>
-      <tableStyleElement type="headerRow" dxfId="19"/>
-      <tableStyleElement type="totalRow" dxfId="18"/>
-      <tableStyleElement type="firstColumn" dxfId="17"/>
-      <tableStyleElement type="lastColumn" dxfId="16"/>
-      <tableStyleElement type="firstRowStripe" dxfId="15"/>
-      <tableStyleElement type="secondRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="12"/>
+      <tableStyleElement type="wholeTable" dxfId="23"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="totalRow" dxfId="21"/>
+      <tableStyleElement type="firstColumn" dxfId="20"/>
+      <tableStyleElement type="lastColumn" dxfId="19"/>
+      <tableStyleElement type="firstRowStripe" dxfId="18"/>
+      <tableStyleElement type="secondRowStripe" dxfId="17"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="16"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="15"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1883,8 +1936,8 @@
   </sheetPr>
   <dimension ref="A1:BN39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AP30" sqref="AP30"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1910,28 +1963,28 @@
       <c r="E1" s="14"/>
       <c r="F1" s="15"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="131" t="s">
+      <c r="I1" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
       <c r="P1" s="18"/>
-      <c r="Q1" s="129">
+      <c r="Q1" s="128">
         <v>43956</v>
       </c>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="130"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="129"/>
+      <c r="U1" s="129"/>
+      <c r="V1" s="129"/>
+      <c r="W1" s="129"/>
+      <c r="X1" s="129"/>
+      <c r="Y1" s="129"/>
+      <c r="Z1" s="129"/>
     </row>
     <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="87" t="s">
@@ -1941,28 +1994,28 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
-      <c r="I2" s="131" t="s">
+      <c r="I2" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
       <c r="P2" s="18"/>
-      <c r="Q2" s="127">
+      <c r="Q2" s="126">
         <v>1</v>
       </c>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="127"/>
+      <c r="X2" s="127"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="127"/>
     </row>
     <row r="3" spans="1:65" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -1974,105 +2027,105 @@
       <c r="A4" s="8"/>
       <c r="B4" s="23"/>
       <c r="E4" s="24"/>
-      <c r="I4" s="135">
+      <c r="I4" s="123">
         <f>I5</f>
         <v>43956</v>
       </c>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="133"/>
-      <c r="N4" s="133"/>
-      <c r="O4" s="133"/>
-      <c r="P4" s="133">
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="121">
         <f>P5</f>
         <v>43963</v>
       </c>
-      <c r="Q4" s="133"/>
-      <c r="R4" s="133"/>
-      <c r="S4" s="133"/>
-      <c r="T4" s="133"/>
-      <c r="U4" s="133"/>
-      <c r="V4" s="133"/>
-      <c r="W4" s="133">
+      <c r="Q4" s="121"/>
+      <c r="R4" s="121"/>
+      <c r="S4" s="121"/>
+      <c r="T4" s="121"/>
+      <c r="U4" s="121"/>
+      <c r="V4" s="121"/>
+      <c r="W4" s="121">
         <f>W5</f>
         <v>43970</v>
       </c>
-      <c r="X4" s="133"/>
-      <c r="Y4" s="133"/>
-      <c r="Z4" s="133"/>
-      <c r="AA4" s="133"/>
-      <c r="AB4" s="133"/>
-      <c r="AC4" s="133"/>
-      <c r="AD4" s="133">
+      <c r="X4" s="121"/>
+      <c r="Y4" s="121"/>
+      <c r="Z4" s="121"/>
+      <c r="AA4" s="121"/>
+      <c r="AB4" s="121"/>
+      <c r="AC4" s="121"/>
+      <c r="AD4" s="121">
         <f>AD5</f>
         <v>43977</v>
       </c>
-      <c r="AE4" s="133"/>
-      <c r="AF4" s="133"/>
-      <c r="AG4" s="133"/>
-      <c r="AH4" s="133"/>
-      <c r="AI4" s="133"/>
-      <c r="AJ4" s="133"/>
-      <c r="AK4" s="133">
+      <c r="AE4" s="121"/>
+      <c r="AF4" s="121"/>
+      <c r="AG4" s="121"/>
+      <c r="AH4" s="121"/>
+      <c r="AI4" s="121"/>
+      <c r="AJ4" s="121"/>
+      <c r="AK4" s="121">
         <f>AK5</f>
         <v>43984</v>
       </c>
-      <c r="AL4" s="133"/>
-      <c r="AM4" s="133"/>
-      <c r="AN4" s="133"/>
-      <c r="AO4" s="133"/>
-      <c r="AP4" s="133"/>
-      <c r="AQ4" s="133"/>
-      <c r="AR4" s="133">
+      <c r="AL4" s="121"/>
+      <c r="AM4" s="121"/>
+      <c r="AN4" s="121"/>
+      <c r="AO4" s="121"/>
+      <c r="AP4" s="121"/>
+      <c r="AQ4" s="121"/>
+      <c r="AR4" s="121">
         <f>AR5</f>
         <v>43991</v>
       </c>
-      <c r="AS4" s="133"/>
-      <c r="AT4" s="133"/>
-      <c r="AU4" s="133"/>
-      <c r="AV4" s="133"/>
-      <c r="AW4" s="133"/>
-      <c r="AX4" s="133"/>
-      <c r="AY4" s="133">
+      <c r="AS4" s="121"/>
+      <c r="AT4" s="121"/>
+      <c r="AU4" s="121"/>
+      <c r="AV4" s="121"/>
+      <c r="AW4" s="121"/>
+      <c r="AX4" s="121"/>
+      <c r="AY4" s="121">
         <f>AY5</f>
         <v>43998</v>
       </c>
-      <c r="AZ4" s="133"/>
-      <c r="BA4" s="133"/>
-      <c r="BB4" s="133"/>
-      <c r="BC4" s="133"/>
-      <c r="BD4" s="133"/>
-      <c r="BE4" s="133"/>
-      <c r="BF4" s="133">
+      <c r="AZ4" s="121"/>
+      <c r="BA4" s="121"/>
+      <c r="BB4" s="121"/>
+      <c r="BC4" s="121"/>
+      <c r="BD4" s="121"/>
+      <c r="BE4" s="121"/>
+      <c r="BF4" s="121">
         <f>BF5</f>
         <v>44005</v>
       </c>
-      <c r="BG4" s="133"/>
-      <c r="BH4" s="133"/>
-      <c r="BI4" s="133"/>
-      <c r="BJ4" s="133"/>
-      <c r="BK4" s="133"/>
-      <c r="BL4" s="134"/>
+      <c r="BG4" s="121"/>
+      <c r="BH4" s="121"/>
+      <c r="BI4" s="121"/>
+      <c r="BJ4" s="121"/>
+      <c r="BK4" s="121"/>
+      <c r="BL4" s="122"/>
     </row>
     <row r="5" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="121"/>
-      <c r="B5" s="122" t="s">
+      <c r="A5" s="132"/>
+      <c r="B5" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="126" t="s">
+      <c r="D5" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="126" t="s">
+      <c r="E5" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="126" t="s">
+      <c r="F5" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="126" t="s">
+      <c r="H5" s="124" t="s">
         <v>56</v>
       </c>
       <c r="I5" s="25">
@@ -2301,8 +2354,8 @@
       </c>
     </row>
     <row r="6" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="121"/>
-      <c r="B6" s="123"/>
+      <c r="A6" s="132"/>
+      <c r="B6" s="134"/>
       <c r="C6" s="125"/>
       <c r="D6" s="125"/>
       <c r="E6" s="125"/>
@@ -3054,7 +3107,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="47">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E13" s="89">
         <v>43985</v>
@@ -3338,7 +3391,7 @@
         <v>46</v>
       </c>
       <c r="D17" s="56">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E17" s="90">
         <v>43965</v>
@@ -3428,7 +3481,7 @@
         <v>46</v>
       </c>
       <c r="D18" s="56">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E18" s="90">
         <v>43985</v>
@@ -3437,9 +3490,8 @@
         <v>43985</v>
       </c>
       <c r="G18" s="11"/>
-      <c r="H18" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
+      <c r="H18" s="136" t="s">
+        <v>58</v>
       </c>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
@@ -3939,7 +3991,6 @@
       <c r="O24" s="96"/>
       <c r="P24" s="94"/>
       <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
       <c r="S24" s="44"/>
       <c r="T24" s="93"/>
       <c r="U24" s="96"/>
@@ -4002,7 +4053,7 @@
         <v>40</v>
       </c>
       <c r="D25" s="65">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E25" s="91">
         <v>43986</v>
@@ -4082,7 +4133,9 @@
         <v>9</v>
       </c>
       <c r="C26" s="67"/>
-      <c r="D26" s="68"/>
+      <c r="D26" s="68" t="s">
+        <v>59</v>
+      </c>
       <c r="E26" s="69"/>
       <c r="F26" s="70"/>
       <c r="G26" s="11"/>
@@ -4107,7 +4160,6 @@
       <c r="W26" s="96"/>
       <c r="X26" s="71"/>
       <c r="Y26" s="71"/>
-      <c r="Z26" s="71"/>
       <c r="AA26" s="71"/>
       <c r="AB26" s="96"/>
       <c r="AC26" s="96"/>
@@ -4988,6 +5040,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4996,17 +5059,6 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D36">
     <cfRule type="dataBar" priority="23">
@@ -5023,53 +5075,66 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:BL13">
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="14" priority="6">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:BL19">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:BL25">
-    <cfRule type="expression" dxfId="7" priority="2">
+  <conditionalFormatting sqref="I21:BL23 I25:BL25 I24:Q24 T24:BL24">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:BL31 I32:R32 U32:BL32 I33:BL34">
-    <cfRule type="expression" dxfId="5" priority="36">
+    <cfRule type="expression" dxfId="8" priority="36">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="37" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:R32 I4:BL31 U32:BL32 I33:BL34">
-    <cfRule type="expression" dxfId="3" priority="1">
+  <conditionalFormatting sqref="I32:R32 U32:BL32 I33:BL34 I27:BL31 I26:X26 AA26:BL26 I4:BL23 I25:BL25 I24:Q24 T24:BL24">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T32">
-    <cfRule type="expression" dxfId="2" priority="40">
+    <cfRule type="expression" dxfId="5" priority="40">
       <formula>AND(task_start&lt;=S$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=S$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="41" stopIfTrue="1">
       <formula>AND(task_end&gt;=S$5,task_start&lt;T$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T32">
-    <cfRule type="expression" dxfId="0" priority="43">
-      <formula>AND(TODAY()&gt;=S$5, TODAY()&lt;T$5)</formula>
+  <conditionalFormatting sqref="T32 S24">
+    <cfRule type="expression" dxfId="3" priority="43">
+      <formula>AND(TODAY()&gt;=R$5, TODAY()&lt;S$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y26">
+    <cfRule type="expression" dxfId="2" priority="45">
+      <formula>AND(TODAY()&gt;=Z$5, TODAY()&lt;AA$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S24">
+    <cfRule type="expression" dxfId="1" priority="48">
+      <formula>AND(task_start&lt;=R$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=R$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="49" stopIfTrue="1">
+      <formula>AND(task_end&gt;=R$5,task_start&lt;S$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="13">
@@ -5120,12 +5185,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5441,29 +5517,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5490,20 +5566,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testdisk-7.2-WIP.win64\testdisk-7.2-WIP\backup\old_notebook\old_notebook\Desktop\RestoreFirstInstallationT580\anderScore\GitLab-Training\gitlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0D858A-4DAC-42EB-B0CE-FF68656F5069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECE8A3B-E409-4173-83DC-8F133DDE7309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28575" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="11" r:id="rId1"/>
@@ -1273,19 +1273,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1298,20 +1304,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1936,8 +1936,8 @@
   </sheetPr>
   <dimension ref="A1:BN39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1963,28 +1963,28 @@
       <c r="E1" s="14"/>
       <c r="F1" s="15"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="130" t="s">
+      <c r="I1" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
       <c r="P1" s="18"/>
-      <c r="Q1" s="128">
+      <c r="Q1" s="130">
         <v>43956</v>
       </c>
-      <c r="R1" s="129"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="129"/>
-      <c r="U1" s="129"/>
-      <c r="V1" s="129"/>
-      <c r="W1" s="129"/>
-      <c r="X1" s="129"/>
-      <c r="Y1" s="129"/>
-      <c r="Z1" s="129"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="131"/>
+      <c r="X1" s="131"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="131"/>
     </row>
     <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="87" t="s">
@@ -1994,28 +1994,28 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
-      <c r="I2" s="130" t="s">
+      <c r="I2" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
       <c r="P2" s="18"/>
-      <c r="Q2" s="126">
+      <c r="Q2" s="128">
         <v>1</v>
       </c>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="129"/>
+      <c r="T2" s="129"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="129"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="129"/>
     </row>
     <row r="3" spans="1:65" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -2027,105 +2027,105 @@
       <c r="A4" s="8"/>
       <c r="B4" s="23"/>
       <c r="E4" s="24"/>
-      <c r="I4" s="123">
+      <c r="I4" s="136">
         <f>I5</f>
         <v>43956</v>
       </c>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="121">
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134">
         <f>P5</f>
         <v>43963</v>
       </c>
-      <c r="Q4" s="121"/>
-      <c r="R4" s="121"/>
-      <c r="S4" s="121"/>
-      <c r="T4" s="121"/>
-      <c r="U4" s="121"/>
-      <c r="V4" s="121"/>
-      <c r="W4" s="121">
+      <c r="Q4" s="134"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="134"/>
+      <c r="T4" s="134"/>
+      <c r="U4" s="134"/>
+      <c r="V4" s="134"/>
+      <c r="W4" s="134">
         <f>W5</f>
         <v>43970</v>
       </c>
-      <c r="X4" s="121"/>
-      <c r="Y4" s="121"/>
-      <c r="Z4" s="121"/>
-      <c r="AA4" s="121"/>
-      <c r="AB4" s="121"/>
-      <c r="AC4" s="121"/>
-      <c r="AD4" s="121">
+      <c r="X4" s="134"/>
+      <c r="Y4" s="134"/>
+      <c r="Z4" s="134"/>
+      <c r="AA4" s="134"/>
+      <c r="AB4" s="134"/>
+      <c r="AC4" s="134"/>
+      <c r="AD4" s="134">
         <f>AD5</f>
         <v>43977</v>
       </c>
-      <c r="AE4" s="121"/>
-      <c r="AF4" s="121"/>
-      <c r="AG4" s="121"/>
-      <c r="AH4" s="121"/>
-      <c r="AI4" s="121"/>
-      <c r="AJ4" s="121"/>
-      <c r="AK4" s="121">
+      <c r="AE4" s="134"/>
+      <c r="AF4" s="134"/>
+      <c r="AG4" s="134"/>
+      <c r="AH4" s="134"/>
+      <c r="AI4" s="134"/>
+      <c r="AJ4" s="134"/>
+      <c r="AK4" s="134">
         <f>AK5</f>
         <v>43984</v>
       </c>
-      <c r="AL4" s="121"/>
-      <c r="AM4" s="121"/>
-      <c r="AN4" s="121"/>
-      <c r="AO4" s="121"/>
-      <c r="AP4" s="121"/>
-      <c r="AQ4" s="121"/>
-      <c r="AR4" s="121">
+      <c r="AL4" s="134"/>
+      <c r="AM4" s="134"/>
+      <c r="AN4" s="134"/>
+      <c r="AO4" s="134"/>
+      <c r="AP4" s="134"/>
+      <c r="AQ4" s="134"/>
+      <c r="AR4" s="134">
         <f>AR5</f>
         <v>43991</v>
       </c>
-      <c r="AS4" s="121"/>
-      <c r="AT4" s="121"/>
-      <c r="AU4" s="121"/>
-      <c r="AV4" s="121"/>
-      <c r="AW4" s="121"/>
-      <c r="AX4" s="121"/>
-      <c r="AY4" s="121">
+      <c r="AS4" s="134"/>
+      <c r="AT4" s="134"/>
+      <c r="AU4" s="134"/>
+      <c r="AV4" s="134"/>
+      <c r="AW4" s="134"/>
+      <c r="AX4" s="134"/>
+      <c r="AY4" s="134">
         <f>AY5</f>
         <v>43998</v>
       </c>
-      <c r="AZ4" s="121"/>
-      <c r="BA4" s="121"/>
-      <c r="BB4" s="121"/>
-      <c r="BC4" s="121"/>
-      <c r="BD4" s="121"/>
-      <c r="BE4" s="121"/>
-      <c r="BF4" s="121">
+      <c r="AZ4" s="134"/>
+      <c r="BA4" s="134"/>
+      <c r="BB4" s="134"/>
+      <c r="BC4" s="134"/>
+      <c r="BD4" s="134"/>
+      <c r="BE4" s="134"/>
+      <c r="BF4" s="134">
         <f>BF5</f>
         <v>44005</v>
       </c>
-      <c r="BG4" s="121"/>
-      <c r="BH4" s="121"/>
-      <c r="BI4" s="121"/>
-      <c r="BJ4" s="121"/>
-      <c r="BK4" s="121"/>
-      <c r="BL4" s="122"/>
+      <c r="BG4" s="134"/>
+      <c r="BH4" s="134"/>
+      <c r="BI4" s="134"/>
+      <c r="BJ4" s="134"/>
+      <c r="BK4" s="134"/>
+      <c r="BL4" s="135"/>
     </row>
     <row r="5" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="132"/>
-      <c r="B5" s="133" t="s">
+      <c r="A5" s="122"/>
+      <c r="B5" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="124" t="s">
+      <c r="D5" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="124" t="s">
+      <c r="E5" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="124" t="s">
+      <c r="F5" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="124" t="s">
+      <c r="H5" s="127" t="s">
         <v>56</v>
       </c>
       <c r="I5" s="25">
@@ -2354,13 +2354,13 @@
       </c>
     </row>
     <row r="6" spans="1:65" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="132"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="H6" s="125" t="s">
+      <c r="A6" s="122"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="H6" s="126" t="s">
         <v>56</v>
       </c>
       <c r="I6" s="28" t="str">
@@ -3490,7 +3490,7 @@
         <v>43985</v>
       </c>
       <c r="G18" s="11"/>
-      <c r="H18" s="136" t="s">
+      <c r="H18" s="121" t="s">
         <v>58</v>
       </c>
       <c r="I18" s="44"/>
@@ -5040,17 +5040,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="H5:H6"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -5059,6 +5048,17 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D36">
     <cfRule type="dataBar" priority="23">
@@ -5185,23 +5185,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5517,29 +5506,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5566,9 +5555,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
